--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\יומטוביאן מרים\source\repos\RetirementSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\שרגא יהודית\Downloads\RetirementSimulato\RetirementSimulator-master\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A9794B-19F3-4CD7-99D8-A39AD0831AAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B359A3-311E-48F4-8D91-ED166801C057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="607">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -2375,7 +2375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2439,6 +2439,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2488,7 +2494,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2704,17 +2710,18 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2727,6 +2734,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3085,7 +3098,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,15 +3117,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
       <c r="J2" s="88"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -4014,7 +4027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4724,7 +4737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4995,8 +5008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5030,24 +5043,24 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="115" t="s">
         <v>163</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="119" t="s">
         <v>606</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="115" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -5055,7 +5068,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="115" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -5063,7 +5076,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="115" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -5071,7 +5084,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="115" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -5079,7 +5092,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="115" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -5087,7 +5100,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="116" t="s">
         <v>168</v>
       </c>
       <c r="C12" s="113" t="s">
@@ -5095,7 +5108,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="115" t="s">
         <v>553</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -5103,7 +5116,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="115" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -5111,7 +5124,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="116" t="s">
         <v>170</v>
       </c>
       <c r="C15" s="113" t="s">
@@ -5119,7 +5132,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="115" t="s">
         <v>172</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -5127,7 +5140,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="115" t="s">
         <v>174</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -5135,7 +5148,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="115" t="s">
         <v>118</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -5143,7 +5156,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="115" t="s">
         <v>137</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -5152,7 +5165,7 @@
     </row>
     <row r="20" spans="1:8" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="115" t="s">
         <v>184</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -5160,7 +5173,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="115" t="s">
         <v>532</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -5174,7 +5187,7 @@
       <c r="H22" s="96"/>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="116" t="s">
         <v>534</v>
       </c>
       <c r="C23" s="114" t="s">
@@ -5189,7 +5202,7 @@
       <c r="H23" s="96"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="115" t="s">
         <v>182</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -5197,7 +5210,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="115" t="s">
         <v>183</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -5383,7 +5396,7 @@
       <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="119" t="s">
+      <c r="B40" s="116" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="29"/>
@@ -5393,7 +5406,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="116" t="s">
         <v>94</v>
       </c>
       <c r="D41" s="29"/>
@@ -5403,7 +5416,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="119" t="s">
+      <c r="B42" s="116" t="s">
         <v>96</v>
       </c>
       <c r="D42" s="29"/>
@@ -5413,7 +5426,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="119" t="s">
+      <c r="B43" s="116" t="s">
         <v>97</v>
       </c>
       <c r="F43" s="34">
@@ -5422,7 +5435,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="119" t="s">
+      <c r="B44" s="116" t="s">
         <v>99</v>
       </c>
       <c r="F44" s="30">
@@ -5442,7 +5455,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="116" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="92" t="s">
@@ -5465,7 +5478,7 @@
       <c r="O47" s="96"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="116" t="s">
         <v>177</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -5476,7 +5489,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="120" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -6324,7 +6337,7 @@
       <c r="B137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C137" s="116" t="s">
+      <c r="C137" s="118" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6332,13 +6345,13 @@
       <c r="B138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="116"/>
+      <c r="C138" s="118"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C139" s="116"/>
+      <c r="C139" s="118"/>
       <c r="D139" s="101">
         <v>45008</v>
       </c>
@@ -6347,31 +6360,31 @@
       <c r="B140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C140" s="116"/>
+      <c r="C140" s="118"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C141" s="116"/>
+      <c r="C141" s="118"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C142" s="116"/>
+      <c r="C142" s="118"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C143" s="116"/>
+      <c r="C143" s="118"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C144" s="116"/>
+      <c r="C144" s="118"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="56" t="s">

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\שרגא יהודית\Downloads\RetirementSimulato\RetirementSimulator-master\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\יומטוביאן מרים\source\repos\RetirementSimulator\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B359A3-311E-48F4-8D91-ED166801C057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4281A316-520F-4BD0-9BCF-FD0A040DD34B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="617">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -2207,6 +2207,36 @@
   <si>
     <t>ריאקט ידאג לענין. יש לו כבר את הפרטים האלו.</t>
   </si>
+  <si>
+    <t>isBudgetPension</t>
+  </si>
+  <si>
+    <t>isCollectiveAgrementOnly</t>
+  </si>
+  <si>
+    <t>נתונים כלליים  General data</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>birthDate</t>
+  </si>
+  <si>
+    <t>StartWorkDate</t>
+  </si>
+  <si>
+    <t>RetirementDate</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
 </sst>
 </file>
 
@@ -2219,7 +2249,7 @@
     <numFmt numFmtId="166" formatCode="0.000_)"/>
     <numFmt numFmtId="167" formatCode="&quot;₪&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2374,6 +2404,11 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2494,7 +2529,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2712,6 +2747,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2721,7 +2757,9 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3039,10 +3077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,35 +3091,41 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F6" s="121" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>114</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -3092,931 +3136,985 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:K40"/>
+  <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="23" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.75" style="89" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.75" style="89" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="117" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="118" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="K2" s="88"/>
+    </row>
+    <row r="3" spans="2:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>304912405</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="27">
+      <c r="E6" s="27">
         <v>25569</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="28">
+      <c r="I6" s="28">
         <v>25569</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="27">
+      <c r="E7" s="27">
         <v>34790</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="28">
+      <c r="I7" s="28">
         <v>34790</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="27">
+      <c r="E8" s="27">
         <v>45291</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="28">
+      <c r="I8" s="28">
         <v>45291</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="87" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="87" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11" s="7">
         <v>12000</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>12000</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="J11" s="87" t="s">
+      <c r="K11" s="87" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="87"/>
+      <c r="D12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="27">
+      <c r="E12" s="27">
         <v>42125</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="28">
+      <c r="I12" s="28">
         <v>42125</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="87" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="87" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="87" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="87" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="E14" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="I14" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="87" t="s">
+      <c r="J14" s="6"/>
+      <c r="K14" s="87" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="39">
+      <c r="E15" s="39">
         <v>0.5</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="40">
+      <c r="I15" s="40">
         <v>0.5</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="6"/>
+      <c r="K15" s="87" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="41">
+      <c r="E16" s="41">
         <v>0.4</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="87" t="s">
+      <c r="I16" s="28"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="87" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="42">
+      <c r="E17" s="42">
         <v>20150</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="87" t="s">
+      <c r="I17" s="28"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="87" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="42">
+      <c r="E18" s="42">
         <v>1500</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="87" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="87" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="43">
+      <c r="E19" s="43">
         <v>0.8</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="40">
+      <c r="I19" s="40">
         <v>0.8</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="87" t="s">
+      <c r="J19" s="6"/>
+      <c r="K19" s="87" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="87" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="87" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="87" t="s">
+      <c r="J21" s="6"/>
+      <c r="K21" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="87" t="s">
+      <c r="K22" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="87" t="s">
+      <c r="J23" s="6"/>
+      <c r="K23" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="87" t="s">
+      <c r="J24" s="6"/>
+      <c r="K24" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="87" t="s">
+      <c r="I25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="87" t="s">
+      <c r="K26" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="87" t="s">
+      <c r="J27" s="6"/>
+      <c r="K27" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="87" t="s">
+      <c r="J28" s="6"/>
+      <c r="K28" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="87" t="s">
+      <c r="J29" s="6"/>
+      <c r="K29" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="F30" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="87" t="s">
+      <c r="I30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="87" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="92" t="s">
         <v>541</v>
       </c>
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="92"/>
+      <c r="D31" s="90" t="s">
         <v>542</v>
       </c>
-      <c r="D31" s="97">
+      <c r="E31" s="97">
         <v>0.06</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="F31" s="90" t="s">
         <v>547</v>
       </c>
-      <c r="F31" s="92" t="s">
+      <c r="G31" s="92" t="s">
         <v>11</v>
-      </c>
-      <c r="G31" s="97">
-        <v>0.06</v>
       </c>
       <c r="H31" s="97">
         <v>0.06</v>
       </c>
-      <c r="I31" s="92"/>
-      <c r="J31" s="98" t="s">
+      <c r="I31" s="97">
+        <v>0.06</v>
+      </c>
+      <c r="J31" s="92"/>
+      <c r="K31" s="98" t="s">
         <v>548</v>
       </c>
-      <c r="K31" s="101">
+      <c r="L31" s="101">
         <v>45008</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="92" t="s">
         <v>543</v>
       </c>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="92"/>
+      <c r="D32" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="99">
+      <c r="E32" s="99">
         <v>200000</v>
       </c>
-      <c r="E32" s="92" t="s">
+      <c r="F32" s="92" t="s">
         <v>544</v>
       </c>
-      <c r="F32" s="92" t="s">
+      <c r="G32" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="92" t="s">
+      <c r="H32" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="99">
+      <c r="I32" s="99">
         <v>200000</v>
       </c>
-      <c r="I32" s="100" t="s">
+      <c r="J32" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="J32" s="98" t="s">
+      <c r="K32" s="98" t="s">
         <v>546</v>
       </c>
-      <c r="K32" s="101">
+      <c r="L32" s="101">
         <v>45008</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="92" t="s">
         <v>585</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C33" s="92"/>
+      <c r="D33" s="90" t="s">
         <v>460</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="E33" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="92" t="s">
+      <c r="F33" s="92" t="s">
         <v>584</v>
       </c>
-      <c r="F33" s="92" t="s">
+      <c r="G33" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="92" t="s">
+      <c r="H33" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="92" t="s">
+      <c r="I33" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="92"/>
-      <c r="J33" s="98" t="s">
+      <c r="J33" s="92"/>
+      <c r="K33" s="98" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="87"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="6"/>
+      <c r="K34" s="87"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="87"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="6"/>
+      <c r="K35" s="87"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="87"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="6"/>
+      <c r="K36" s="87"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="87"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="6"/>
+      <c r="K37" s="87"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="87"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="6"/>
+      <c r="K38" s="87"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="87"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="6"/>
+      <c r="K39" s="87"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="87"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5008,7 +5106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -5049,15 +5147,15 @@
       <c r="C6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="119" t="s">
+      <c r="F6" s="120" t="s">
         <v>606</v>
       </c>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="115" t="s">
@@ -5489,7 +5587,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="120" t="s">
+      <c r="B49" s="117" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -6337,7 +6435,7 @@
       <c r="B137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C137" s="118" t="s">
+      <c r="C137" s="119" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6345,13 +6443,13 @@
       <c r="B138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="118"/>
+      <c r="C138" s="119"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C139" s="118"/>
+      <c r="C139" s="119"/>
       <c r="D139" s="101">
         <v>45008</v>
       </c>
@@ -6360,31 +6458,31 @@
       <c r="B140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C140" s="118"/>
+      <c r="C140" s="119"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C141" s="118"/>
+      <c r="C141" s="119"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C142" s="118"/>
+      <c r="C142" s="119"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C143" s="118"/>
+      <c r="C143" s="119"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C144" s="118"/>
+      <c r="C144" s="119"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="56" t="s">

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\יומטוביאן מרים\source\repos\RetirementSimulator\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\יומטוביאן מרים\RetirementSimulator\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4281A316-520F-4BD0-9BCF-FD0A040DD34B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E4BCCA-3134-4FF5-9306-DE0E49CF31D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="628">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -1422,10 +1422,6 @@
     <t>מלל - סכום בלבד</t>
   </si>
   <si>
-    <t>סעיף זה רלוונטי רק בפיטורין, כאשר גיל העובד נמוך מגיל 60.
-במקרה כזה - העובד זכאי למעק פרישה, ובשביל חישוב ההיוון יש לדעת מה סכום המשכורת שהעובד יהיה זכאי לה אם יעבוד עד גיל 60</t>
-  </si>
-  <si>
     <t>כן - רק בסוג פרישה של פיטוריו ובמקרה שגיל העובד נמוך מ-60</t>
   </si>
   <si>
@@ -2236,6 +2232,43 @@
   </si>
   <si>
     <t>reason</t>
+  </si>
+  <si>
+    <t>advanceNotice</t>
+  </si>
+  <si>
+    <t>סעיף זה רלוונטי רק בפיטורין, כאשר גיל העובד נמוך מגיל 60.
+במקרה כזה - העובד זכאי למענק פרישה, ובשביל חישוב ההיוון יש לדעת מה סכום המשכורת שהעובד יהיה זכאי לה אם יעבוד עד גיל 60</t>
+  </si>
+  <si>
+    <t>תקציבית+צוברת נכתב בריאקט</t>
+  </si>
+  <si>
+    <t>IsClothingForAudienceMembers</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>IsMonthlyClothingPayment</t>
+  </si>
+  <si>
+    <t>IsThreeLevel</t>
+  </si>
+  <si>
+    <t>MonthOfClothingPayment</t>
+  </si>
+  <si>
+    <t>IsCurrentYear</t>
+  </si>
+  <si>
+    <t>IsMonthlyRecoveryPayment</t>
+  </si>
+  <si>
+    <t>numberOfDaysOfRecoveryToBePaid</t>
+  </si>
+  <si>
+    <t>recoveryPaymentMonth</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2562,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2748,6 +2781,9 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2757,9 +2793,8 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3108,8 +3143,8 @@
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="121" t="s">
-        <v>607</v>
+      <c r="F6" s="118" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -3125,7 +3160,7 @@
         <v>114</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -3136,13 +3171,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:L40"/>
+  <dimension ref="B1:L41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,17 +3196,23 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="123" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1" s="123"/>
+    </row>
     <row r="2" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="118" t="s">
-        <v>609</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
+      <c r="B2" s="119" t="s">
+        <v>608</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
       <c r="K2" s="88"/>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -3179,7 +3220,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>22</v>
@@ -3203,15 +3244,15 @@
         <v>34</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="122" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>23</v>
@@ -3233,15 +3274,15 @@
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="122" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>24</v>
@@ -3263,15 +3304,15 @@
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="122" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>76</v>
@@ -3291,15 +3332,15 @@
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="122" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>78</v>
@@ -3319,15 +3360,15 @@
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="122" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>78</v>
@@ -3349,15 +3390,15 @@
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="122" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>28</v>
@@ -3379,14 +3420,16 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>616</v>
+      </c>
       <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
@@ -3407,7 +3450,7 @@
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="225" x14ac:dyDescent="0.25">
@@ -3422,10 +3465,10 @@
         <v>12000</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>13</v>
@@ -3434,10 +3477,10 @@
         <v>12000</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K11" s="87" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="75" x14ac:dyDescent="0.25">
@@ -3465,7 +3508,7 @@
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="87" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="120" x14ac:dyDescent="0.25">
@@ -3491,7 +3534,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="6"/>
       <c r="K13" s="87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -3519,7 +3562,7 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="60" x14ac:dyDescent="0.25">
@@ -3547,7 +3590,7 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="60" x14ac:dyDescent="0.25">
@@ -3573,7 +3616,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="6"/>
       <c r="K16" s="87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -3599,7 +3642,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="6"/>
       <c r="K17" s="87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -3621,7 +3664,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="6"/>
       <c r="K18" s="87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.25">
@@ -3649,7 +3692,7 @@
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="60" x14ac:dyDescent="0.25">
@@ -3677,14 +3720,16 @@
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>620</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
         <v>21</v>
@@ -3695,14 +3740,16 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>619</v>
+      </c>
       <c r="D22" s="7" t="s">
         <v>30</v>
       </c>
@@ -3725,14 +3772,16 @@
         <v>35</v>
       </c>
       <c r="K22" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>621</v>
+      </c>
       <c r="D23" s="7" t="s">
         <v>30</v>
       </c>
@@ -3753,14 +3802,16 @@
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>622</v>
+      </c>
       <c r="D24" s="7" t="s">
         <v>30</v>
       </c>
@@ -3781,14 +3832,16 @@
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>623</v>
+      </c>
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
@@ -3809,14 +3862,16 @@
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>624</v>
+      </c>
       <c r="D26" s="7" t="s">
         <v>30</v>
       </c>
@@ -3839,11 +3894,11 @@
         <v>52</v>
       </c>
       <c r="K26" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="122" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="11"/>
@@ -3857,14 +3912,16 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="D28" s="7" t="s">
         <v>30</v>
       </c>
@@ -3883,14 +3940,16 @@
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>626</v>
+      </c>
       <c r="D29" s="7" t="s">
         <v>28</v>
       </c>
@@ -3905,14 +3964,16 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="C30" s="6"/>
+      <c r="B30" s="122" t="s">
+        <v>501</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>627</v>
+      </c>
       <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
@@ -3920,7 +3981,7 @@
         <v>45</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>11</v>
@@ -3933,22 +3994,22 @@
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="92" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C31" s="92"/>
       <c r="D31" s="90" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E31" s="97">
         <v>0.06</v>
       </c>
       <c r="F31" s="90" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G31" s="92" t="s">
         <v>11</v>
@@ -3961,7 +4022,7 @@
       </c>
       <c r="J31" s="92"/>
       <c r="K31" s="98" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L31" s="101">
         <v>45008</v>
@@ -3969,7 +4030,7 @@
     </row>
     <row r="32" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="92" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C32" s="92"/>
       <c r="D32" s="90" t="s">
@@ -3979,7 +4040,7 @@
         <v>200000</v>
       </c>
       <c r="F32" s="92" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G32" s="92" t="s">
         <v>11</v>
@@ -3991,10 +4052,10 @@
         <v>200000</v>
       </c>
       <c r="J32" s="100" t="s">
+        <v>544</v>
+      </c>
+      <c r="K32" s="98" t="s">
         <v>545</v>
-      </c>
-      <c r="K32" s="98" t="s">
-        <v>546</v>
       </c>
       <c r="L32" s="101">
         <v>45008</v>
@@ -4002,17 +4063,17 @@
     </row>
     <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="92" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C33" s="92"/>
       <c r="D33" s="90" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E33" s="92" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="92" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G33" s="92" t="s">
         <v>11</v>
@@ -4025,92 +4086,40 @@
       </c>
       <c r="J33" s="92"/>
       <c r="K33" s="98" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="87"/>
+      <c r="D34" s="1"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="87"/>
+      <c r="D35" s="1"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="87"/>
+      <c r="D36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="87"/>
+      <c r="D37" s="1"/>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="87"/>
+      <c r="D38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="87"/>
+      <c r="D39" s="1"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="87"/>
+      <c r="D40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4310,7 +4319,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -4879,7 +4888,7 @@
         <v>34</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="105" x14ac:dyDescent="0.25">
@@ -4906,37 +4915,37 @@
         <v>110</v>
       </c>
       <c r="J6" s="87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="225" x14ac:dyDescent="0.25">
       <c r="B7" s="90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C7" s="90" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="91"/>
       <c r="E7" s="90" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F7" s="92" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H7" s="95">
         <v>2000</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J7" s="93" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L7" s="94" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -4996,26 +5005,26 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>149</v>
@@ -5094,7 +5103,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -5106,7 +5115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -5147,15 +5156,15 @@
       <c r="C6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="120" t="s">
-        <v>606</v>
-      </c>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
+      <c r="F6" s="121" t="s">
+        <v>605</v>
+      </c>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="115" t="s">
@@ -5207,10 +5216,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="115" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5272,13 +5281,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="115" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>185</v>
       </c>
       <c r="E22" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F22" s="96"/>
       <c r="G22" s="96"/>
@@ -5286,14 +5295,14 @@
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="116" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C23" s="114" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D23" s="96"/>
       <c r="E23" s="96" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
@@ -5557,13 +5566,13 @@
         <v>107</v>
       </c>
       <c r="C47" s="92" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D47" s="1">
         <v>10000</v>
       </c>
       <c r="F47" s="96" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G47" s="96"/>
       <c r="H47" s="96"/>
@@ -5630,7 +5639,7 @@
         <v>200</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D52" s="14">
         <f>D51*D47</f>
@@ -5960,7 +5969,7 @@
         <v>107</v>
       </c>
       <c r="C92" s="92" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D92" s="1">
         <v>10000</v>
@@ -6102,7 +6111,7 @@
         <v>107</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D105" s="1">
         <v>10000</v>
@@ -6238,7 +6247,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C117" s="62"/>
       <c r="D117" s="29"/>
@@ -6259,7 +6268,7 @@
         <v>107</v>
       </c>
       <c r="C119" s="92" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D119" s="1">
         <v>10000</v>
@@ -6406,14 +6415,14 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" s="63" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C132" s="62"/>
       <c r="D132" s="29"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" s="63" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C133" s="62"/>
       <c r="D133" s="29"/>
@@ -6435,21 +6444,21 @@
       <c r="B137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C137" s="119" t="s">
-        <v>549</v>
+      <c r="C137" s="120" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="119"/>
+      <c r="C138" s="120"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C139" s="119"/>
+      <c r="C139" s="120"/>
       <c r="D139" s="101">
         <v>45008</v>
       </c>
@@ -6458,31 +6467,31 @@
       <c r="B140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C140" s="119"/>
+      <c r="C140" s="120"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C141" s="119"/>
+      <c r="C141" s="120"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C142" s="119"/>
+      <c r="C142" s="120"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C143" s="119"/>
+      <c r="C143" s="120"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C144" s="119"/>
+      <c r="C144" s="120"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="56" t="s">
@@ -6590,7 +6599,7 @@
         <v>10000</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -6971,28 +6980,28 @@
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="62" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C203" s="62"/>
       <c r="D203" s="83"/>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="62" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C204" s="62"/>
       <c r="D204" s="83"/>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="62" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C205" s="62"/>
       <c r="D205" s="83"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="62" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C206" s="62"/>
       <c r="D206" s="83"/>
@@ -7004,7 +7013,7 @@
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
@@ -7031,10 +7040,10 @@
     </row>
     <row r="211" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C211" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="D211" s="6">
         <v>600</v>
@@ -7042,10 +7051,10 @@
     </row>
     <row r="212" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C212" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="D212" s="6">
         <v>300</v>
@@ -7053,10 +7062,10 @@
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C213" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="D213" s="6">
         <f>D212+D211</f>
@@ -7111,10 +7120,10 @@
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C218" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="D218" s="47">
         <v>300</v>
@@ -7122,10 +7131,10 @@
     </row>
     <row r="219" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C219" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="D219" s="47">
         <f>D218/30*6</f>
@@ -7134,7 +7143,7 @@
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>290</v>
@@ -7145,10 +7154,10 @@
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C221" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="D221" s="47">
         <f>D220/25</f>
@@ -7157,10 +7166,10 @@
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C222" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="D222" s="47">
         <f>D221*D219</f>
@@ -7169,10 +7178,10 @@
     </row>
     <row r="223" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B223" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C223" s="84" t="s">
         <v>478</v>
-      </c>
-      <c r="C223" s="84" t="s">
-        <v>479</v>
       </c>
       <c r="D223" s="48">
         <f>(D214-D218)/30*6</f>
@@ -7181,7 +7190,7 @@
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>290</v>
@@ -7204,10 +7213,10 @@
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D226" s="48">
         <f>D225*D223</f>
@@ -7216,10 +7225,10 @@
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C227" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="D227" s="48">
         <f>D226+D222</f>
@@ -7403,7 +7412,7 @@
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.25">
@@ -7464,7 +7473,7 @@
     </row>
     <row r="259" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B259" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="260" spans="2:12" x14ac:dyDescent="0.25">
@@ -7602,26 +7611,26 @@
     </row>
     <row r="271" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="272" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
@@ -7631,104 +7640,104 @@
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C294" s="1">
         <v>10000</v>
@@ -7744,7 +7753,7 @@
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C296" s="1">
         <f>12*449</f>
@@ -7764,12 +7773,12 @@
         <v>81</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C299" s="1">
         <v>52</v>
@@ -7777,7 +7786,7 @@
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C300" s="1">
         <v>25</v>
@@ -7785,7 +7794,7 @@
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C301" s="39">
         <v>1</v>
@@ -7793,7 +7802,7 @@
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C302" s="64">
         <f>C300*2%*C301</f>
@@ -7802,7 +7811,7 @@
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C303" s="14">
         <f>C302*(C294+1/12*C296+1/12*C297)</f>
@@ -7811,7 +7820,7 @@
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C304" s="64">
         <f>C302+(60-C299)*2%*C301</f>
@@ -7820,7 +7829,7 @@
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C305" s="1">
         <f>C304*(C295+1/12*C296+1/12*C297)</f>
@@ -7829,7 +7838,7 @@
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C306" s="14">
         <f>C305-C303</f>
@@ -7838,7 +7847,7 @@
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C307" s="1">
         <f>C305*0.6-C303*0.6</f>
@@ -7847,7 +7856,7 @@
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C308" s="77">
         <v>7.3090000000000002</v>
@@ -7855,7 +7864,7 @@
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C309" s="77">
         <v>2.093</v>
@@ -7863,7 +7872,7 @@
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C310" s="14">
         <f>C308*12*C306</f>
@@ -7872,7 +7881,7 @@
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C311" s="14">
         <f>C309*C307*12</f>
@@ -7881,7 +7890,7 @@
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C312" s="14">
         <f>C311+C310</f>
@@ -7890,7 +7899,7 @@
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C314" s="14">
         <f>(C294+1/12*C296+1/12*C297)*12</f>
@@ -7899,7 +7908,7 @@
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C315" s="14">
         <f>(C294+1/12*C296+1/12*C297)*0.5*24</f>
@@ -7908,12 +7917,12 @@
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
@@ -7929,10 +7938,10 @@
     </row>
     <row r="321" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B321" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C321" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>275</v>
@@ -7940,43 +7949,43 @@
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D322" s="6"/>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D323" s="6"/>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C324" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="D324" s="6"/>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C325" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="D325" s="6"/>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327" s="78" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C327" s="78"/>
       <c r="D327" s="78"/>
@@ -7986,17 +7995,17 @@
     <row r="328" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="329" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B329" s="107" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="330" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B330" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="331" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="332" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8004,7 +8013,7 @@
         <v>174</v>
       </c>
       <c r="C332" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D332" s="33" t="s">
         <v>60</v>
@@ -8036,7 +8045,7 @@
     </row>
     <row r="334" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B334" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C334" s="108">
         <v>18000</v>
@@ -8060,19 +8069,19 @@
     </row>
     <row r="336" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B336" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C336" s="110">
         <f>C333*F333/F335+C334*F334/F335</f>
         <v>14189.848914069877</v>
       </c>
       <c r="D336" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="337" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B337" s="31" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -8090,10 +8099,10 @@
     </row>
     <row r="339" spans="2:4" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C339" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="C339" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>275</v>
@@ -8101,10 +8110,10 @@
     </row>
     <row r="340" spans="2:4" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B340" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C340" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="D340" s="112">
         <v>14189.85</v>
@@ -8112,10 +8121,10 @@
     </row>
     <row r="341" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B341" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D341" s="6">
         <f>D340*12</f>
@@ -8124,10 +8133,10 @@
     </row>
     <row r="342" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B342" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D342" s="6">
         <f>D340*24/2</f>
@@ -8136,19 +8145,19 @@
     </row>
     <row r="343" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B343" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C343" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="C343" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="D343" s="6"/>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C344" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="C344" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="D344" s="6"/>
     </row>
@@ -8164,22 +8173,22 @@
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.25">
@@ -8195,10 +8204,10 @@
     </row>
     <row r="353" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B353" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C353" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>145</v>
@@ -8206,10 +8215,10 @@
     </row>
     <row r="354" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B354" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C354" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="D354" s="6">
         <v>8000</v>
@@ -8217,10 +8226,10 @@
     </row>
     <row r="355" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B355" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C355" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="D355" s="6">
         <f>D354*1</f>
@@ -8229,12 +8238,12 @@
     </row>
     <row r="357" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B357" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="358" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B358" s="49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C358" s="79"/>
       <c r="D358" s="49"/>
@@ -8251,7 +8260,7 @@
     </row>
     <row r="359" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B359" s="49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C359" s="79"/>
       <c r="D359" s="49"/>
@@ -8268,11 +8277,11 @@
     </row>
     <row r="360" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B360" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C360" s="79"/>
       <c r="D360" s="82" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E360" s="49"/>
       <c r="F360" s="49"/>
@@ -8287,13 +8296,13 @@
     </row>
     <row r="361" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B361" s="49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C361" s="49">
         <v>1603</v>
       </c>
       <c r="D361" s="49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E361" s="49"/>
       <c r="F361" s="49"/>
@@ -8314,7 +8323,7 @@
         <v>2237</v>
       </c>
       <c r="D362" s="49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E362" s="49"/>
       <c r="F362" s="49"/>
@@ -8329,7 +8338,7 @@
     </row>
     <row r="363" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B363" s="49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C363" s="79"/>
       <c r="D363" s="49"/>
@@ -8346,7 +8355,7 @@
     </row>
     <row r="364" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B364" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C364" s="79"/>
       <c r="D364" s="49"/>
@@ -8363,7 +8372,7 @@
     </row>
     <row r="365" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B365" s="49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C365" s="79"/>
       <c r="D365" s="49"/>
@@ -8380,7 +8389,7 @@
     </row>
     <row r="366" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B366" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C366" s="79"/>
       <c r="D366" s="49"/>
@@ -8397,13 +8406,13 @@
     </row>
     <row r="367" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B367" s="49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C367" s="49">
         <v>2237</v>
       </c>
       <c r="D367" s="80" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E367" s="49"/>
       <c r="F367" s="49"/>
@@ -8418,13 +8427,13 @@
     </row>
     <row r="368" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B368" s="49" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C368" s="49">
         <v>2237</v>
       </c>
       <c r="D368" s="49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E368" s="49"/>
       <c r="F368" s="49"/>
@@ -8454,14 +8463,14 @@
     </row>
     <row r="370" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B370" s="49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C370" s="79"/>
       <c r="D370" s="49"/>
       <c r="E370" s="49"/>
       <c r="F370" s="49"/>
       <c r="G370" s="81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H370" s="49"/>
       <c r="I370" s="49"/>
@@ -8488,7 +8497,7 @@
     </row>
     <row r="372" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B372" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="373" spans="2:14" x14ac:dyDescent="0.25">
@@ -8515,10 +8524,10 @@
     </row>
     <row r="375" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B375" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D375" s="40">
         <v>0.8</v>
@@ -8526,10 +8535,10 @@
     </row>
     <row r="376" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B376" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C376" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="C376" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="D376" s="40">
         <v>1</v>
@@ -8537,56 +8546,56 @@
     </row>
     <row r="377" spans="2:14" ht="105" x14ac:dyDescent="0.25">
       <c r="B377" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C377" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="C377" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="D377" s="6">
         <v>0</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="378" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B378" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D378" s="6">
         <f>2237*D375</f>
         <v>1789.6000000000001</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="381" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B381" s="26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="382" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B382" s="49" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="383" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B383" s="49" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="384" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B384" s="49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
@@ -8613,10 +8622,10 @@
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C390" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="C390" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="D390" s="40">
         <v>1</v>
@@ -8624,10 +8633,10 @@
     </row>
     <row r="391" spans="2:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B391" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D391" s="6">
         <v>0</v>
@@ -8635,14 +8644,14 @@
     </row>
     <row r="392" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B392" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C392" s="7"/>
       <c r="D392" s="6"/>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" s="56" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.25">
@@ -8652,17 +8661,17 @@
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.25">
@@ -8678,10 +8687,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B401" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D401" s="6">
         <v>2</v>
@@ -8689,10 +8698,10 @@
     </row>
     <row r="402" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B402" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D402" s="40">
         <v>0.25</v>
@@ -8700,10 +8709,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B403" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C403" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="C403" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="D403" s="47">
         <v>12000</v>
@@ -8711,10 +8720,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B404" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C404" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="C404" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="D404" s="47">
         <f>D403*D401*D402</f>
@@ -8724,7 +8733,7 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="15"/>
       <c r="B407" s="85" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>14</v>
@@ -8733,7 +8742,7 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="15"/>
       <c r="B408" s="86" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8753,10 +8762,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B411" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C411" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="C411" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="D411" s="1">
         <f>D410*3</f>
@@ -8799,16 +8808,16 @@
         <v>266</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C2" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="E2" s="69" t="s">
         <v>375</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -8817,13 +8826,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="E3" s="70" t="s">
         <v>378</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -10443,7 +10452,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -10543,10 +10552,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -10570,13 +10579,13 @@
         <v>172</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>181</v>
@@ -10600,10 +10609,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10831,12 +10840,12 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -10846,12 +10855,12 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -10859,7 +10868,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -10875,21 +10884,21 @@
     </row>
     <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
@@ -10897,10 +10906,10 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D57" s="40">
         <v>0.25</v>
@@ -10908,10 +10917,10 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D58" s="47">
         <v>12000</v>
@@ -10919,7 +10928,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>167</v>
@@ -10930,10 +10939,10 @@
     </row>
     <row r="60" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D60" s="106">
         <f>D56*D57*D58*0.28</f>
@@ -10942,7 +10951,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -10958,21 +10967,21 @@
     </row>
     <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D65" s="6">
         <v>15</v>
@@ -10980,10 +10989,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D66" s="40">
         <v>0.25</v>
@@ -10991,10 +11000,10 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D67" s="47">
         <v>12000</v>
@@ -11002,7 +11011,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>167</v>
@@ -11013,10 +11022,10 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="D69" s="105">
         <v>30000</v>
@@ -11024,10 +11033,10 @@
     </row>
     <row r="70" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D70" s="48">
         <f>D65*D67*D66-D69</f>
@@ -11046,12 +11055,12 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -11141,7 +11150,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>181</v>
@@ -11176,7 +11185,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
@@ -11186,7 +11195,7 @@
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -11482,7 +11491,7 @@
         <v>292</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D130" s="6">
         <v>11500</v>
@@ -11533,22 +11542,22 @@
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
@@ -11564,10 +11573,10 @@
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C142" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>145</v>
@@ -11575,10 +11584,10 @@
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C143" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="D143" s="6">
         <v>8000</v>
@@ -11586,10 +11595,10 @@
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C144" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="D144" s="6">
         <f>D143*1</f>
@@ -11598,12 +11607,12 @@
     </row>
     <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C147" s="79"/>
       <c r="D147" s="49"/>
@@ -11620,7 +11629,7 @@
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C148" s="79"/>
       <c r="D148" s="49"/>
@@ -11637,11 +11646,11 @@
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C149" s="79"/>
       <c r="D149" s="82" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E149" s="49"/>
       <c r="F149" s="49"/>
@@ -11656,13 +11665,13 @@
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C150" s="49">
         <v>1603</v>
       </c>
       <c r="D150" s="49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E150" s="49"/>
       <c r="F150" s="49"/>
@@ -11683,7 +11692,7 @@
         <v>2237</v>
       </c>
       <c r="D151" s="49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E151" s="49"/>
       <c r="F151" s="49"/>
@@ -11698,7 +11707,7 @@
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C152" s="79"/>
       <c r="D152" s="49"/>
@@ -11715,7 +11724,7 @@
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C153" s="79"/>
       <c r="D153" s="49"/>
@@ -11732,7 +11741,7 @@
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C154" s="79"/>
       <c r="D154" s="49"/>
@@ -11749,7 +11758,7 @@
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="49" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C155" s="79"/>
       <c r="D155" s="49"/>
@@ -11766,13 +11775,13 @@
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C156" s="49">
         <v>2237</v>
       </c>
       <c r="D156" s="80" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E156" s="49"/>
       <c r="F156" s="49"/>
@@ -11787,14 +11796,14 @@
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="49" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C157" s="49">
         <f>2237*2/12</f>
         <v>372.83333333333331</v>
       </c>
       <c r="D157" s="49" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E157" s="49"/>
       <c r="F157" s="49"/>
@@ -11824,14 +11833,14 @@
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C159" s="79"/>
       <c r="D159" s="49"/>
       <c r="E159" s="49"/>
       <c r="F159" s="49"/>
       <c r="G159" s="81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H159" s="49"/>
       <c r="I159" s="49"/>
@@ -11858,7 +11867,7 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
@@ -11885,24 +11894,24 @@
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D164" s="40">
         <v>0.8</v>
       </c>
       <c r="F164" s="102" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C165" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="D165" s="40">
         <v>1</v>
@@ -11910,56 +11919,56 @@
     </row>
     <row r="166" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C166" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="D166" s="6">
         <v>0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B167" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D167" s="6">
         <f>2237*D164</f>
         <v>1789.6000000000001</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="49" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="49" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
@@ -11986,10 +11995,10 @@
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C179" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="D179" s="40">
         <v>1</v>
@@ -11997,10 +12006,10 @@
     </row>
     <row r="180" spans="2:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D180" s="6">
         <v>0</v>
@@ -12008,7 +12017,7 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="103" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="6"/>
@@ -12019,7 +12028,7 @@
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="15"/>
       <c r="B196" s="85" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>14</v>
@@ -12028,7 +12037,7 @@
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="15"/>
       <c r="B197" s="86" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -12048,10 +12057,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="D200" s="1">
         <f>D199*3</f>
@@ -12060,7 +12069,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\יומטוביאן מרים\RetirementSimulator\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\שרגא יהודית\source\repos\RetirementSimulator\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E4BCCA-3134-4FF5-9306-DE0E49CF31D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E9994-C0C9-4298-901F-D137AB0CA885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Esti</author>
   </authors>
   <commentList>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B185" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="C185" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B186" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="C186" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B266" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="C266" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G370" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="H370" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="651">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -2247,9 +2247,6 @@
     <t>IsClothingForAudienceMembers</t>
   </si>
   <si>
-    <t>clothing</t>
-  </si>
-  <si>
     <t>IsMonthlyClothingPayment</t>
   </si>
   <si>
@@ -2269,6 +2266,78 @@
   </si>
   <si>
     <t>recoveryPaymentMonth</t>
+  </si>
+  <si>
+    <t>Salary Determines At Age 60</t>
+  </si>
+  <si>
+    <t>TransitionDateForSeniorSalaries</t>
+  </si>
+  <si>
+    <t>SignedCopyrightContinuity</t>
+  </si>
+  <si>
+    <t>ownership</t>
+  </si>
+  <si>
+    <t>percentagePensionFromPreviousWorkplace</t>
+  </si>
+  <si>
+    <t>SalaryDeterminesPensionInIDF</t>
+  </si>
+  <si>
+    <t>AmountOfAllowance</t>
+  </si>
+  <si>
+    <t>DisabilityPercentages</t>
+  </si>
+  <si>
+    <t>familyStatus</t>
+  </si>
+  <si>
+    <t>percentageProvisionForCompensation</t>
+  </si>
+  <si>
+    <t>CompensationBalanceInTheCashRegister</t>
+  </si>
+  <si>
+    <t>SigningTheSeveranceCompensationLaw</t>
+  </si>
+  <si>
+    <t>DeterminedSalaryByCollectiveAgreement   SalaryDetermines</t>
+  </si>
+  <si>
+    <t>SalaryIncreasesThatAreNotCalculated</t>
+  </si>
+  <si>
+    <t>IsSickDayPaidAccordingToLastSalary</t>
+  </si>
+  <si>
+    <t>RemainingSickDays</t>
+  </si>
+  <si>
+    <t>IsFullAccrual</t>
+  </si>
+  <si>
+    <t>RemainingSickDaysAtTheTimeOfTransitionToSeniorSalary</t>
+  </si>
+  <si>
+    <t>RemainingVacationDaysInRetirement</t>
+  </si>
+  <si>
+    <t>IsFiveBusinessDays</t>
+  </si>
+  <si>
+    <t>IsAggregationByParts</t>
+  </si>
+  <si>
+    <t>engkish</t>
+  </si>
+  <si>
+    <t>EmployeesAgeAtRetirement</t>
+  </si>
+  <si>
+    <t>YearsOfWorkAtTheAuthority</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2552,6 +2621,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2562,7 +2657,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2784,6 +2879,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2793,8 +2890,35 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3171,51 +3295,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:L41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="1" max="1" width="21.75" style="89" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.875" style="1" customWidth="1"/>
     <col min="7" max="8" width="23" style="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.75" style="89" customWidth="1"/>
     <col min="12" max="12" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="123" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="120" t="s">
         <v>618</v>
       </c>
-      <c r="C1" s="123"/>
-    </row>
-    <row r="2" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="119" t="s">
+      <c r="C1" s="120"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="88"/>
+      <c r="B2" s="121" t="s">
         <v>608</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="K2" s="88"/>
-    </row>
-    <row r="3" spans="2:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>522</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -3243,12 +3369,12 @@
       <c r="J3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="122" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" s="119" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3273,12 +3399,12 @@
         <v>15</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="87" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="119" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3303,12 +3429,12 @@
         <v>304912405</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="87" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="119" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3331,12 +3457,12 @@
         <v>25569</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="87" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="119" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3359,12 +3485,12 @@
         <v>34790</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="87" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="119" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3389,12 +3515,12 @@
         <v>45291</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="87" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="119" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3419,12 +3545,12 @@
         <v>19</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="87" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="119" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3449,15 +3575,17 @@
         <v>145</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="87" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="124" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>627</v>
+      </c>
       <c r="D11" s="7" t="s">
         <v>364</v>
       </c>
@@ -3479,15 +3607,17 @@
       <c r="J11" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K11" s="87" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="87" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="87"/>
+      <c r="C12" s="87" t="s">
+        <v>628</v>
+      </c>
       <c r="D12" s="7" t="s">
         <v>78</v>
       </c>
@@ -3507,15 +3637,17 @@
         <v>42125</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="87" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="87" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>629</v>
+      </c>
       <c r="D13" s="7" t="s">
         <v>120</v>
       </c>
@@ -3533,15 +3665,17 @@
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="87" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="87" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>630</v>
+      </c>
       <c r="D14" s="7" t="s">
         <v>124</v>
       </c>
@@ -3561,15 +3695,17 @@
         <v>127</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="87" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>631</v>
+      </c>
       <c r="D15" s="7" t="s">
         <v>130</v>
       </c>
@@ -3589,15 +3725,17 @@
         <v>0.5</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="87" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="87" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="126" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>631</v>
+      </c>
       <c r="D16" s="7" t="s">
         <v>130</v>
       </c>
@@ -3615,15 +3753,17 @@
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="87" t="s">
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="87" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="38" t="s">
+        <v>632</v>
+      </c>
       <c r="D17" s="7" t="s">
         <v>132</v>
       </c>
@@ -3641,15 +3781,17 @@
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="87" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="87" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="38" t="s">
+        <v>633</v>
+      </c>
       <c r="D18" s="7" t="s">
         <v>132</v>
       </c>
@@ -3663,15 +3805,17 @@
       <c r="H18" s="6"/>
       <c r="I18" s="28"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="87" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="87" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>634</v>
+      </c>
       <c r="D19" s="7" t="s">
         <v>138</v>
       </c>
@@ -3691,15 +3835,17 @@
         <v>0.8</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="87" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="87" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>635</v>
+      </c>
       <c r="D20" s="7" t="s">
         <v>28</v>
       </c>
@@ -3719,17 +3865,15 @@
         <v>85</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="87" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B21" s="122" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="87" t="s">
+        <v>523</v>
+      </c>
+      <c r="B21" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>620</v>
-      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
         <v>21</v>
@@ -3739,12 +3883,12 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="87" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="119" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -3771,16 +3915,16 @@
       <c r="J22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="87" t="s">
+    </row>
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>30</v>
@@ -3801,16 +3945,16 @@
         <v>39</v>
       </c>
       <c r="J23" s="6"/>
-      <c r="K23" s="87" t="s">
+    </row>
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="119" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>30</v>
@@ -3831,16 +3975,16 @@
         <v>43</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="87" t="s">
+    </row>
+    <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="119" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>28</v>
@@ -3861,16 +4005,16 @@
         <v>46</v>
       </c>
       <c r="J25" s="6"/>
-      <c r="K25" s="87" t="s">
+    </row>
+    <row r="26" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="119" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>30</v>
@@ -3893,12 +4037,12 @@
       <c r="J26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="87" t="s">
+    </row>
+    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="119" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="11"/>
@@ -3911,16 +4055,16 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="87" t="s">
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="122" t="s">
+      <c r="B28" s="119" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>30</v>
@@ -3939,16 +4083,16 @@
         <v>56</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="87" t="s">
+    </row>
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="119" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>28</v>
@@ -3963,16 +4107,16 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="87" t="s">
+    </row>
+    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="87" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="119" t="s">
         <v>501</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>28</v>
@@ -3993,15 +4137,17 @@
         <v>46</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="87" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="92" t="s">
+    </row>
+    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="98" t="s">
+        <v>547</v>
+      </c>
+      <c r="B31" s="124" t="s">
         <v>540</v>
       </c>
-      <c r="C31" s="92"/>
+      <c r="C31" s="92" t="s">
+        <v>636</v>
+      </c>
       <c r="D31" s="90" t="s">
         <v>541</v>
       </c>
@@ -4021,18 +4167,20 @@
         <v>0.06</v>
       </c>
       <c r="J31" s="92"/>
-      <c r="K31" s="98" t="s">
-        <v>547</v>
-      </c>
       <c r="L31" s="101">
         <v>45008</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="92" t="s">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="98" t="s">
+        <v>545</v>
+      </c>
+      <c r="B32" s="124" t="s">
         <v>542</v>
       </c>
-      <c r="C32" s="92"/>
+      <c r="C32" s="92" t="s">
+        <v>637</v>
+      </c>
       <c r="D32" s="90" t="s">
         <v>109</v>
       </c>
@@ -4054,18 +4202,20 @@
       <c r="J32" s="100" t="s">
         <v>544</v>
       </c>
-      <c r="K32" s="98" t="s">
-        <v>545</v>
-      </c>
       <c r="L32" s="101">
         <v>45008</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="92" t="s">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="98" t="s">
+        <v>545</v>
+      </c>
+      <c r="B33" s="129" t="s">
         <v>584</v>
       </c>
-      <c r="C33" s="92"/>
+      <c r="C33" s="128" t="s">
+        <v>638</v>
+      </c>
       <c r="D33" s="90" t="s">
         <v>459</v>
       </c>
@@ -4085,41 +4235,38 @@
         <v>11</v>
       </c>
       <c r="J33" s="92"/>
-      <c r="K33" s="98" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="K41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4134,8 +4281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4842,269 +4989,324 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:L19"/>
+  <dimension ref="A3:M19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.75" style="1"/>
-    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="2" max="10" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>522</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>523</v>
+      </c>
+      <c r="B6" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="130" t="s">
+        <v>639</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="E6" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="87" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="225" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" s="131" t="s">
         <v>527</v>
       </c>
       <c r="C7" s="90" t="s">
+        <v>640</v>
+      </c>
+      <c r="D7" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90" t="s">
         <v>528</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="G7" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="H7" s="92" t="s">
         <v>529</v>
       </c>
-      <c r="H7" s="95">
+      <c r="I7" s="95">
         <v>2000</v>
       </c>
-      <c r="I7" s="90" t="s">
+      <c r="J7" s="90" t="s">
         <v>536</v>
       </c>
-      <c r="J7" s="93" t="s">
-        <v>526</v>
-      </c>
-      <c r="L7" s="94" t="s">
+      <c r="M7" s="94" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="133" t="s">
         <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>350</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>350</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10" s="133" t="s">
         <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B12" s="132" t="s">
         <v>458</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B13" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="C14" s="63"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B15" s="133" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>45</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>45</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B16" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B17" s="133" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
         <v>503</v>
       </c>
+      <c r="C19" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5113,468 +5315,478 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:O411"/>
+  <dimension ref="B2:P411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView rightToLeft="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="42.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="C4" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="D5" s="45" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="115" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="G6" s="123" t="s">
         <v>605</v>
       </c>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="115" t="s">
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="115" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="115" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="115" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="115" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="116" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C12" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="D12" s="113" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="115" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="115" t="s">
         <v>552</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="115" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="116" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C15" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="D15" s="113" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="115" t="s">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="115" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="115" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="115" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="115" t="s">
+    <row r="20" spans="2:9" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="115" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="115" t="s">
         <v>531</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="96" t="s">
+      <c r="F22" s="96" t="s">
         <v>532</v>
       </c>
-      <c r="F22" s="96"/>
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="116" t="s">
+      <c r="I22" s="96"/>
+    </row>
+    <row r="23" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C23" s="116" t="s">
         <v>533</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="D23" s="114" t="s">
         <v>535</v>
       </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="96"/>
+      <c r="F23" s="96" t="s">
         <v>534</v>
       </c>
-      <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="115" t="s">
+      <c r="I23" s="96"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="115" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="19">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="19">
         <v>32874</v>
       </c>
-      <c r="C30" s="19">
+      <c r="D30" s="19">
         <v>33603</v>
       </c>
-      <c r="D30" s="22">
-        <f>(DATE(YEAR(C30),MONTH(C30)+IF(DAY(C30)&gt;15,1,0),1)-DATE(YEAR(B30),MONTH(B30)+IF((DATE(YEAR(B30),MONTH(B30)+1,1)-B30)&lt;16,1,0),1))/365.25</f>
+      <c r="E30" s="22">
+        <f>(DATE(YEAR(D30),MONTH(D30)+IF(DAY(D30)&gt;15,1,0),1)-DATE(YEAR(C30),MONTH(C30)+IF((DATE(YEAR(C30),MONTH(C30)+1,1)-C30)&lt;16,1,0),1))/365.25</f>
         <v>1.998631074606434</v>
       </c>
-      <c r="E30" s="20">
+      <c r="F30" s="20">
         <v>0.8</v>
       </c>
-      <c r="F30" s="48">
-        <f>D30*E30</f>
+      <c r="G30" s="48">
+        <f>E30*F30</f>
         <v>1.5989048596851472</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="19">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="19">
         <v>33604</v>
       </c>
-      <c r="C31" s="19">
+      <c r="D31" s="19">
         <v>36891</v>
       </c>
-      <c r="D31" s="22">
-        <f t="shared" ref="D31:D36" si="0">(DATE(YEAR(C31),MONTH(C31)+IF(DAY(C31)&gt;15,1,0),1)-DATE(YEAR(B31),MONTH(B31)+IF((DATE(YEAR(B31),MONTH(B31)+1,1)-B31)&lt;16,1,0),1))/365.25</f>
+      <c r="E31" s="22">
+        <f t="shared" ref="E31:E36" si="0">(DATE(YEAR(D31),MONTH(D31)+IF(DAY(D31)&gt;15,1,0),1)-DATE(YEAR(C31),MONTH(C31)+IF((DATE(YEAR(C31),MONTH(C31)+1,1)-C31)&lt;16,1,0),1))/365.25</f>
         <v>9.0020533880903493</v>
       </c>
-      <c r="E31" s="20">
+      <c r="F31" s="20">
         <v>1</v>
       </c>
-      <c r="F31" s="48">
-        <f>D31*E31</f>
+      <c r="G31" s="48">
+        <f>E31*F31</f>
         <v>9.0020533880903493</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="19">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="19">
         <v>36892</v>
       </c>
-      <c r="C32" s="19">
+      <c r="D32" s="19">
         <v>37256</v>
       </c>
-      <c r="D32" s="22">
+      <c r="E32" s="22">
         <f t="shared" si="0"/>
         <v>0.99931553730321698</v>
       </c>
-      <c r="E32" s="20">
+      <c r="F32" s="20">
         <v>0</v>
       </c>
-      <c r="F32" s="48"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="19">
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C33" s="19">
         <v>37257</v>
       </c>
-      <c r="C33" s="19">
+      <c r="D33" s="19">
         <v>37986</v>
       </c>
-      <c r="D33" s="22">
+      <c r="E33" s="22">
         <f t="shared" si="0"/>
         <v>1.998631074606434</v>
       </c>
-      <c r="E33" s="20">
+      <c r="F33" s="20">
         <v>0.25</v>
       </c>
-      <c r="F33" s="48"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="19">
+      <c r="G33" s="48"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C34" s="19">
         <v>37987</v>
       </c>
-      <c r="C34" s="19">
+      <c r="D34" s="19">
         <v>39457</v>
       </c>
-      <c r="D34" s="22">
+      <c r="E34" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E34" s="20">
+      <c r="F34" s="20">
         <v>0.6</v>
       </c>
-      <c r="F34" s="48">
-        <f>D34*E34</f>
+      <c r="G34" s="48">
+        <f>E34*F34</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="19">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="19">
         <v>39458</v>
       </c>
-      <c r="C35" s="19">
+      <c r="D35" s="19">
         <v>42369</v>
       </c>
-      <c r="D35" s="22">
+      <c r="E35" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E35" s="20">
+      <c r="F35" s="20">
         <v>1</v>
       </c>
-      <c r="F35" s="48">
-        <f>D35*E35</f>
+      <c r="G35" s="48">
+        <f>E35*F35</f>
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="19">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C36" s="19">
         <v>42370</v>
       </c>
-      <c r="C36" s="19">
+      <c r="D36" s="19">
         <v>45291</v>
       </c>
-      <c r="D36" s="22">
+      <c r="E36" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E36" s="20">
+      <c r="F36" s="20">
         <v>0.9</v>
       </c>
-      <c r="F36" s="48">
-        <f>D36*E36</f>
+      <c r="G36" s="48">
+        <f>E36*F36</f>
         <v>7.2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D37" s="29">
-        <f>SUM(D30:D36)</f>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E37" s="29">
+        <f>SUM(E30:E36)</f>
         <v>33.998631074606436</v>
       </c>
-      <c r="F37" s="29">
-        <f>SUM(F30:F36)</f>
+      <c r="G37" s="29">
+        <f>SUM(G30:G36)</f>
         <v>28.200958247775496</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D38" s="29"/>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="58" t="s">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E38" s="29"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="F39" s="29"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="116" t="s">
+      <c r="E39" s="29"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C40" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="F40" s="29">
-        <f>D37</f>
+      <c r="E40" s="29"/>
+      <c r="G40" s="29">
+        <f>E37</f>
         <v>33.998631074606436</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="116" t="s">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C41" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="F41" s="29">
-        <f>SUMIFS(D30:D36,E30:E36,"&gt;0.3329")</f>
+      <c r="E41" s="29"/>
+      <c r="G41" s="29">
+        <f>SUMIFS(E30:E36,F30:F36,"&gt;0.3329")</f>
         <v>31.000684462696782</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="116" t="s">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C42" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="F42" s="29">
-        <f>D32</f>
+      <c r="E42" s="29"/>
+      <c r="G42" s="29">
+        <f>E32</f>
         <v>0.99931553730321698</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="116" t="s">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C43" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="34">
-        <f>D33</f>
+      <c r="G43" s="34">
+        <f>E33</f>
         <v>1.998631074606434</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="116" t="s">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C44" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="30">
-        <f>F37/F41</f>
+      <c r="G44" s="30">
+        <f>G37/G41</f>
         <v>0.90968824516470903</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="15">
         <v>3</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="C46" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="116" t="s">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C47" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="92" t="s">
+      <c r="D47" s="92" t="s">
         <v>537</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>10000</v>
       </c>
-      <c r="F47" s="96" t="s">
+      <c r="G47" s="96" t="s">
         <v>538</v>
       </c>
-      <c r="G47" s="96"/>
       <c r="H47" s="96"/>
       <c r="I47" s="96"/>
       <c r="J47" s="96"/>
@@ -5583,1914 +5795,1914 @@
       <c r="M47" s="96"/>
       <c r="N47" s="96"/>
       <c r="O47" s="96"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="116" t="s">
+      <c r="P47" s="96"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C48" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="117" t="s">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D49" s="46">
-        <f>F44</f>
+      <c r="E49" s="46">
+        <f>G44</f>
         <v>0.90968824516470903</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="113" t="s">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="30">
-        <f>D48*2%</f>
+      <c r="E50" s="30">
+        <f>E48*2%</f>
         <v>0.62</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="113" t="s">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="30">
-        <f>D50*D49</f>
+      <c r="E51" s="30">
+        <f>E50*E49</f>
         <v>0.5640067120021196</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="113" t="s">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="D52" s="14">
-        <f>D51*D47</f>
+      <c r="E52" s="14">
+        <f>E51*E47</f>
         <v>5640.0671200211964</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="113" t="s">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="29">
-        <f>D52*0.0382</f>
+      <c r="E53" s="29">
+        <f>E52*0.0382</f>
         <v>215.45056398480969</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="113" t="s">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D54" s="29">
-        <f>D53+D52</f>
+      <c r="E54" s="29">
+        <f>E53+E52</f>
         <v>5855.5176840060058</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="31" t="s">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="31" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="31" t="s">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="31" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
         <v>12000</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D68" s="1">
-        <f>B68*30%</f>
+      <c r="E68" s="1">
+        <f>C68*30%</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
         <v>25000</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D69" s="1">
-        <f>B69*40%</f>
+      <c r="E69" s="1">
+        <f>C69*40%</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="1">
-        <f>SUM(D68:D69)</f>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="1">
+        <f>SUM(E68:E69)</f>
         <v>13600</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="15" t="s">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="15" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="113" t="s">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="113" t="s">
         <v>225</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>12000</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="113" t="s">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="113" t="s">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="D74" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="113" t="s">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="113" t="s">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="113" t="s">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="D77" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D77" s="46">
+      <c r="E77" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="113" t="s">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="D78" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D78" s="30">
-        <f>D74*2%</f>
+      <c r="E78" s="30">
+        <f>E74*2%</f>
         <v>0.62</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="113" t="s">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="D79" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="30">
-        <f>D75*2%</f>
+      <c r="E79" s="30">
+        <f>E75*2%</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="113" t="s">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="D80" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="30">
-        <f>D76*2%</f>
+      <c r="E80" s="30">
+        <f>E76*2%</f>
         <v>0.32</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="113" t="s">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D81" s="14">
-        <f>D72*D79+D73*D80</f>
+      <c r="E81" s="14">
+        <f>E72*E79+E73*E80</f>
         <v>11600</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="113" t="s">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D82" s="29">
-        <f>D72*D79*0.0382</f>
+      <c r="E82" s="29">
+        <f>E72*E79*0.0382</f>
         <v>137.51999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="113" t="s">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D83" s="29">
-        <f>D82+D81</f>
+      <c r="E83" s="29">
+        <f>E82+E81</f>
         <v>11737.52</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="62"/>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" s="62"/>
-      <c r="D84" s="29"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="31" t="s">
+      <c r="D84" s="62"/>
+      <c r="E84" s="29"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="C85" s="62"/>
-      <c r="D85" s="29"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="31" t="s">
+      <c r="D85" s="62"/>
+      <c r="E85" s="29"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="29"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+      <c r="D86" s="62"/>
+      <c r="E86" s="29"/>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C87" s="62"/>
-      <c r="D87" s="29"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="62" t="s">
+      <c r="D87" s="62"/>
+      <c r="E87" s="29"/>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="C88" s="62"/>
-      <c r="D88" s="29"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="62" t="s">
+      <c r="D88" s="62"/>
+      <c r="E88" s="29"/>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="C89" s="62"/>
-      <c r="D89" s="29"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="63" t="s">
+      <c r="D89" s="62"/>
+      <c r="E89" s="29"/>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="C90" s="62"/>
-      <c r="D90" s="29"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="62" t="s">
+      <c r="D90" s="62"/>
+      <c r="E90" s="29"/>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="D91" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="D91" s="29" t="s">
+      <c r="E91" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="92" t="s">
+      <c r="D92" s="92" t="s">
         <v>537</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="6" t="s">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="6" t="s">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D94" s="46">
+      <c r="E94" s="46">
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="6" t="s">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D95" s="30">
-        <f>D93*2%</f>
+      <c r="E95" s="30">
+        <f>E93*2%</f>
         <v>0.62</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D96" s="30">
-        <f>D95*D94</f>
+      <c r="E96" s="30">
+        <f>E95*E94</f>
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="6" t="s">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D97" s="30">
+      <c r="E97" s="30">
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="6" t="s">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D98" s="30">
-        <f>D97+D96</f>
+      <c r="E98" s="30">
+        <f>E97+E96</f>
         <v>0.65800000000000003</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D99" s="14">
-        <f>D98*D92</f>
+      <c r="E99" s="14">
+        <f>E98*E92</f>
         <v>6580</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D100" s="29">
-        <f>D99*0.0382</f>
+      <c r="E100" s="29">
+        <f>E99*0.0382</f>
         <v>251.35599999999999</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D101" s="29">
-        <f>D100+D99</f>
+      <c r="E101" s="29">
+        <f>E100+E99</f>
         <v>6831.3559999999998</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="62"/>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C102" s="62"/>
-      <c r="D102" s="29"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="63" t="s">
+      <c r="D102" s="62"/>
+      <c r="E102" s="29"/>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="C103" s="62"/>
-      <c r="D103" s="29"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="62" t="s">
+      <c r="D103" s="62"/>
+      <c r="E103" s="29"/>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="62" t="s">
+      <c r="D104" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="D104" s="29" t="s">
+      <c r="E104" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="6" t="s">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C105" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="92" t="s">
+      <c r="D105" s="92" t="s">
         <v>537</v>
       </c>
-      <c r="D105" s="1">
+      <c r="E105" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="6" t="s">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D106" s="1">
+      <c r="E106" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="6" t="s">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C107" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="D107" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D107" s="46">
+      <c r="E107" s="46">
         <v>0.9</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C108" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D108" s="30">
-        <f>D106*2%</f>
+      <c r="E108" s="30">
+        <f>E106*2%</f>
         <v>0.62</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="6" t="s">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C109" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="D109" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D109" s="30">
-        <f>D108*D107</f>
+      <c r="E109" s="30">
+        <f>E108*E107</f>
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="6" t="s">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C110" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D110" s="14">
-        <f>D109*D105</f>
+      <c r="E110" s="14">
+        <f>E109*E105</f>
         <v>5580.0000000000009</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C111" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D111" s="29">
-        <f>D110*0.0382</f>
+      <c r="E111" s="29">
+        <f>E110*0.0382</f>
         <v>213.15600000000003</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="6" t="s">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C112" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="D112" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D112" s="29">
+      <c r="E112" s="29">
         <v>1500</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="6" t="s">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C113" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="D113" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D113" s="29">
-        <f>D112+D111+D110</f>
+      <c r="E113" s="29">
+        <f>E112+E111+E110</f>
         <v>7293.1560000000009</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="6" t="s">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C114" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="D114" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D114" s="30">
-        <f>(D110+D112)/D105</f>
+      <c r="E114" s="30">
+        <f>(E110+E112)/E105</f>
         <v>0.70800000000000007</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="6" t="s">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C115" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="D115" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D115" s="29">
-        <f>D105*70%*1.0382</f>
+      <c r="E115" s="29">
+        <f>E105*70%*1.0382</f>
         <v>7267.4</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="62"/>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C116" s="62"/>
-      <c r="D116" s="29"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="63" t="s">
+      <c r="D116" s="62"/>
+      <c r="E116" s="29"/>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C117" s="63" t="s">
         <v>592</v>
       </c>
-      <c r="C117" s="62"/>
-      <c r="D117" s="29"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="62" t="s">
+      <c r="D117" s="62"/>
+      <c r="E117" s="29"/>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C118" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="C118" s="62" t="s">
+      <c r="D118" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="D118" s="29" t="s">
+      <c r="E118" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C119" s="92" t="s">
+      <c r="D119" s="92" t="s">
         <v>537</v>
       </c>
-      <c r="D119" s="1">
+      <c r="E119" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="6" t="s">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C120" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="D120" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D120" s="1">
+      <c r="E120" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="6" t="s">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C121" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D121" s="46">
+      <c r="E121" s="46">
         <v>0.9</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="6" t="s">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C122" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="D122" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D122" s="30">
-        <f>D120*2%</f>
+      <c r="E122" s="30">
+        <f>E120*2%</f>
         <v>0.62</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="6" t="s">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C123" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="D123" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D123" s="65">
-        <f>D122*D121</f>
+      <c r="E123" s="65">
+        <f>E122*E121</f>
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="6" t="s">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C124" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="D124" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D124" s="14">
-        <f>D123*D119</f>
+      <c r="E124" s="14">
+        <f>E123*E119</f>
         <v>5580.0000000000009</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="6" t="s">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C125" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="D125" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D125" s="29">
-        <f>D124*0.0382</f>
+      <c r="E125" s="29">
+        <f>E124*0.0382</f>
         <v>213.15600000000003</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="6" t="s">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C126" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="D126" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D126" s="29">
+      <c r="E126" s="29">
         <v>20000</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="6" t="s">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C127" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="D127" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D127" s="39">
+      <c r="E127" s="39">
         <v>0.3</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="6" t="s">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C128" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="D128" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D128" s="14">
-        <f>D126*D127</f>
+      <c r="E128" s="14">
+        <f>E126*E127</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="6" t="s">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C129" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="D129" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D129" s="29">
-        <f>D128+D125+D124</f>
+      <c r="E129" s="29">
+        <f>E128+E125+E124</f>
         <v>11793.156000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="6" t="s">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C130" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="D130" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D130" s="30">
-        <f>(D124+D128)/D126</f>
+      <c r="E130" s="30">
+        <f>(E124+E128)/E126</f>
         <v>0.57899999999999996</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="62"/>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C131" s="62"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="1" t="s">
+      <c r="D131" s="62"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="63" t="s">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C132" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="C132" s="62"/>
-      <c r="D132" s="29"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="63" t="s">
+      <c r="D132" s="62"/>
+      <c r="E132" s="29"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C133" s="63" t="s">
         <v>593</v>
       </c>
-      <c r="C133" s="62"/>
-      <c r="D133" s="29"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="15">
+      <c r="D133" s="62"/>
+      <c r="E133" s="29"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="15">
         <v>4</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="C135" s="15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="1" t="s">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="1" t="s">
+    <row r="137" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C137" s="120" t="s">
+      <c r="D137" s="122" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="120"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="1" t="s">
+      <c r="D138" s="122"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C139" s="120"/>
-      <c r="D139" s="101">
+      <c r="D139" s="122"/>
+      <c r="E139" s="101">
         <v>45008</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="1" t="s">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C140" s="120"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
+      <c r="D140" s="122"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C141" s="120"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="1" t="s">
+      <c r="D141" s="122"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C142" s="120"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="1" t="s">
+      <c r="D142" s="122"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C143" s="120"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
+      <c r="D143" s="122"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C144" s="120"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B146" s="56" t="s">
+      <c r="D144" s="122"/>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C146" s="56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="31" t="s">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C147" s="31" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C148" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="1" t="s">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C149" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C150" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C151" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="1" t="s">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C152" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="31" t="s">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C154" s="31" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="6" t="s">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C155" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="D155" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="E155" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="6" t="s">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C156" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="D156" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D156" s="6">
+      <c r="E156" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="6" t="s">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C157" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="D157" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="E157" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="6" t="s">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C158" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="D158" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="E158" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B159" s="6" t="s">
+    <row r="159" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C159" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="D159" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D159" s="6">
+      <c r="E159" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="6" t="s">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C160" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="D160" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D160" s="6">
+      <c r="E160" s="6">
         <v>10000</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="161" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B161" s="6" t="s">
+    <row r="161" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C161" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="D161" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D161" s="47">
-        <f>D160/21.67</f>
+      <c r="E161" s="47">
+        <f>E160/21.67</f>
         <v>461.46746654360862</v>
       </c>
     </row>
-    <row r="162" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B162" s="6" t="s">
+    <row r="162" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C162" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="D162" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D162" s="48">
-        <f>D161*D159</f>
+      <c r="E162" s="48">
+        <f>E161*E159</f>
         <v>20766.035994462389</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="26" t="s">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C164" s="26" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="31" t="s">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C165" s="31" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C166" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C167" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="49">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C168" s="49">
         <v>1</v>
       </c>
-      <c r="C168" s="49" t="s">
+      <c r="D168" s="49" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="49">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C169" s="49">
         <v>2</v>
       </c>
-      <c r="C169" s="49" t="s">
+      <c r="D169" s="49" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="49">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C170" s="49">
         <v>3</v>
       </c>
-      <c r="C170" s="49" t="s">
+      <c r="D170" s="49" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="49" t="s">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C172" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="C172" s="49"/>
       <c r="D172" s="49"/>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="49" t="s">
+      <c r="E172" s="49"/>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C173" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="C173" s="49"/>
       <c r="D173" s="49"/>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="49" t="s">
+      <c r="E173" s="49"/>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C174" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="C174" s="49"/>
       <c r="D174" s="49"/>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="49" t="s">
+      <c r="E174" s="49"/>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C175" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="C175" s="49"/>
       <c r="D175" s="49"/>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="49" t="s">
+      <c r="E175" s="49"/>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C176" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="C176" s="49"/>
       <c r="D176" s="49"/>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="50" t="s">
+      <c r="E176" s="49"/>
+    </row>
+    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C177" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="C177" s="51"/>
       <c r="D177" s="51"/>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="51" t="s">
+      <c r="E177" s="51"/>
+    </row>
+    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C178" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C178" s="52" t="s">
+      <c r="D178" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="D178" s="52" t="s">
+      <c r="E178" s="52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="51">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C179" s="51">
         <v>1</v>
-      </c>
-      <c r="C179" s="51">
-        <v>0</v>
       </c>
       <c r="D179" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="51">
+      <c r="E179" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C180" s="51">
         <v>50</v>
-      </c>
-      <c r="C180" s="53">
-        <v>0.3</v>
       </c>
       <c r="D180" s="53">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="51">
+      <c r="E180" s="53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C181" s="51">
         <v>51</v>
-      </c>
-      <c r="C181" s="53">
-        <v>0.4</v>
       </c>
       <c r="D181" s="53">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="51">
+      <c r="E181" s="53">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C182" s="51">
         <v>52</v>
-      </c>
-      <c r="C182" s="53">
-        <v>0.5</v>
       </c>
       <c r="D182" s="53">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="51">
+      <c r="E182" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C183" s="51">
         <v>53</v>
-      </c>
-      <c r="C183" s="53">
-        <v>0.6</v>
       </c>
       <c r="D183" s="53">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="51">
+      <c r="E183" s="53">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C184" s="51">
         <v>54</v>
-      </c>
-      <c r="C184" s="53">
-        <v>0.7</v>
       </c>
       <c r="D184" s="53">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="51">
+      <c r="E184" s="53">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C185" s="51">
         <v>55</v>
       </c>
-      <c r="C185" s="54">
+      <c r="D185" s="54">
         <f>IF(YEAR('[1]חישוב זכויות פנסיה תקציבית'!D154)&lt;1966,100%,80%)</f>
         <v>1</v>
       </c>
-      <c r="D185" s="54">
+      <c r="E185" s="54">
         <v>0.8</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="51">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C186" s="51">
         <v>56</v>
       </c>
-      <c r="C186" s="54">
+      <c r="D186" s="54">
         <f>IF(YEAR('[1]חישוב זכויות פנסיה תקציבית'!D154)&lt;1966,100%,90%)</f>
         <v>1</v>
       </c>
-      <c r="D186" s="54">
+      <c r="E186" s="54">
         <v>0.9</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="51">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C187" s="51">
         <v>57</v>
-      </c>
-      <c r="C187" s="53">
-        <v>1</v>
       </c>
       <c r="D187" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="31" t="s">
+      <c r="E187" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C189" s="31" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="6" t="s">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C190" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="D190" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D190" s="6" t="s">
+      <c r="E190" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B191" s="6" t="s">
+    <row r="191" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C191" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="D191" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="E191" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="192" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B192" s="6" t="s">
+    <row r="192" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C192" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="D192" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D192" s="6">
+      <c r="E192" s="6">
         <f>31*30*80%</f>
         <v>744</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="6" t="s">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C193" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="D193" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D193" s="6">
+      <c r="E193" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="6" t="s">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C194" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="D194" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D194" s="6">
-        <f>D192-D193</f>
+      <c r="E194" s="6">
+        <f>E192-E193</f>
         <v>344</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="6" t="s">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C195" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="D195" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D195" s="55">
-        <f>D194/D192</f>
+      <c r="E195" s="55">
+        <f>E194/E192</f>
         <v>0.46236559139784944</v>
       </c>
     </row>
-    <row r="196" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B196" s="6" t="s">
+    <row r="196" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C196" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="D196" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D196" s="47">
+      <c r="E196" s="47">
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B197" s="6" t="s">
+    <row r="197" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C197" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="D197" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D197" s="48">
-        <f>D193/30*D196</f>
+      <c r="E197" s="48">
+        <f>E193/30*E196</f>
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="6" t="s">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C198" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="D198" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D198" s="6">
+      <c r="E198" s="6">
         <v>11500</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="F198" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="6" t="s">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C199" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="D199" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D199" s="6">
-        <f>D198/25</f>
+      <c r="E199" s="6">
+        <f>E198/25</f>
         <v>460</v>
       </c>
     </row>
-    <row r="200" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B200" s="6" t="s">
+    <row r="200" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C200" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="D200" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D200" s="40">
+      <c r="E200" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="6" t="s">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C201" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="D201" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D201" s="48">
-        <f>D200*D197*D199</f>
+      <c r="E201" s="48">
+        <f>E200*E197*E199</f>
         <v>36800</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="62"/>
+    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C202" s="62"/>
-      <c r="D202" s="83"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="62" t="s">
+      <c r="D202" s="62"/>
+      <c r="E202" s="83"/>
+    </row>
+    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C203" s="62" t="s">
         <v>456</v>
       </c>
-      <c r="C203" s="62"/>
-      <c r="D203" s="83"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="62" t="s">
+      <c r="D203" s="62"/>
+      <c r="E203" s="83"/>
+    </row>
+    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C204" s="62" t="s">
         <v>463</v>
       </c>
-      <c r="C204" s="62"/>
-      <c r="D204" s="83"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="62" t="s">
+      <c r="D204" s="62"/>
+      <c r="E204" s="83"/>
+    </row>
+    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C205" s="62" t="s">
         <v>464</v>
       </c>
-      <c r="C205" s="62"/>
-      <c r="D205" s="83"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="62" t="s">
+      <c r="D205" s="62"/>
+      <c r="E205" s="83"/>
+    </row>
+    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C206" s="62" t="s">
         <v>465</v>
       </c>
-      <c r="C206" s="62"/>
-      <c r="D206" s="83"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="62"/>
+      <c r="D206" s="62"/>
+      <c r="E206" s="83"/>
+    </row>
+    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C207" s="62"/>
-      <c r="D207" s="83"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="31" t="s">
+      <c r="D207" s="62"/>
+      <c r="E207" s="83"/>
+    </row>
+    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C208" s="31" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B209" s="6" t="s">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C209" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="D209" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D209" s="6" t="s">
+      <c r="E209" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="210" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B210" s="6" t="s">
+    <row r="210" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C210" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="D210" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D210" s="6" t="s">
+      <c r="E210" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="211" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B211" s="6" t="s">
+    <row r="211" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C211" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="D211" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="D211" s="6">
+      <c r="E211" s="6">
         <v>600</v>
       </c>
     </row>
-    <row r="212" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B212" s="6" t="s">
+    <row r="212" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C212" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="D212" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="D212" s="6">
+      <c r="E212" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B213" s="6" t="s">
+    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C213" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="D213" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="D213" s="6">
-        <f>D212+D211</f>
+      <c r="E213" s="6">
+        <f>E212+E211</f>
         <v>900</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B214" s="6" t="s">
+    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C214" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="D214" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D214" s="6">
+      <c r="E214" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B215" s="6" t="s">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C215" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="D215" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D215" s="6">
-        <f>D213-D214</f>
+      <c r="E215" s="6">
+        <f>E213-E214</f>
         <v>500</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B216" s="6" t="s">
+    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C216" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="D216" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D216" s="55">
-        <f>D215/D213</f>
+      <c r="E216" s="55">
+        <f>E215/E213</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="217" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B217" s="6" t="s">
+    <row r="217" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C217" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="D217" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D217" s="47">
+      <c r="E217" s="47">
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B218" s="6" t="s">
+    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C218" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="D218" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="D218" s="47">
+      <c r="E218" s="47">
         <v>300</v>
       </c>
     </row>
-    <row r="219" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B219" s="6" t="s">
+    <row r="219" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C219" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="D219" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D219" s="47">
-        <f>D218/30*6</f>
+      <c r="E219" s="47">
+        <f>E218/30*6</f>
         <v>60</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B220" s="6" t="s">
+    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C220" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="D220" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D220" s="6">
+      <c r="E220" s="6">
         <v>11500</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B221" s="6" t="s">
+    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C221" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="D221" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D221" s="47">
-        <f>D220/25</f>
+      <c r="E221" s="47">
+        <f>E220/25</f>
         <v>460</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B222" s="6" t="s">
+    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C222" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="D222" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="D222" s="47">
-        <f>D221*D219</f>
+      <c r="E222" s="47">
+        <f>E221*E219</f>
         <v>27600</v>
       </c>
     </row>
-    <row r="223" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B223" s="6" t="s">
+    <row r="223" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C223" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C223" s="84" t="s">
+      <c r="D223" s="84" t="s">
         <v>478</v>
       </c>
-      <c r="D223" s="48">
-        <f>(D214-D218)/30*6</f>
+      <c r="E223" s="48">
+        <f>(E214-E218)/30*6</f>
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B224" s="6" t="s">
+    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C224" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C224" s="6" t="s">
+      <c r="D224" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D224" s="6">
+      <c r="E224" s="6">
         <v>25000</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B225" s="6" t="s">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C225" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="D225" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D225" s="6">
-        <f>D224/25</f>
+      <c r="E225" s="6">
+        <f>E224/25</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="6" t="s">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C226" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="D226" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="D226" s="48">
-        <f>D225*D223</f>
+      <c r="E226" s="48">
+        <f>E225*E223</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B227" s="6" t="s">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C227" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="D227" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="D227" s="48">
-        <f>D226+D222</f>
+      <c r="E227" s="48">
+        <f>E226+E222</f>
         <v>47600</v>
       </c>
     </row>
-    <row r="228" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B228" s="6" t="s">
+    <row r="228" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C228" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="D228" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D228" s="40">
+      <c r="E228" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B229" s="6" t="s">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C229" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C229" s="6" t="s">
+      <c r="D229" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D229" s="48">
-        <f>D227*D228</f>
+      <c r="E229" s="48">
+        <f>E227*E228</f>
         <v>47600</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B230" s="62"/>
+    <row r="230" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C230" s="62"/>
-      <c r="D230" s="83"/>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B232" s="26" t="s">
+      <c r="D230" s="62"/>
+      <c r="E230" s="83"/>
+    </row>
+    <row r="232" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C232" s="26" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B233" s="31" t="s">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C233" s="31" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B234" s="49" t="s">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C234" s="49" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B235" s="49" t="s">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C235" s="49" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B236" s="49" t="s">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C236" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="C236" s="49" t="s">
+      <c r="D236" s="49" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="49" t="s">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C237" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="C237" s="49"/>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B239" s="49" t="s">
+      <c r="D237" s="49"/>
+    </row>
+    <row r="239" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C239" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="C239" s="49"/>
       <c r="D239" s="49"/>
       <c r="E239" s="49"/>
       <c r="F239" s="49"/>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B240" s="49" t="s">
+      <c r="G239" s="49"/>
+    </row>
+    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C240" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="C240" s="49"/>
       <c r="D240" s="49"/>
       <c r="E240" s="49"/>
       <c r="F240" s="49"/>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B241" s="49" t="s">
+      <c r="G240" s="49"/>
+    </row>
+    <row r="241" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C241" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="C241" s="49" t="s">
+      <c r="D241" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="D241" s="49">
+      <c r="E241" s="49">
         <f>38*2</f>
         <v>76</v>
       </c>
-      <c r="E241" s="49" t="s">
+      <c r="F241" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="F241" s="49"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B242" s="49" t="s">
+      <c r="G241" s="49"/>
+    </row>
+    <row r="242" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C242" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="C242" s="49"/>
-      <c r="D242" s="59">
+      <c r="D242" s="49"/>
+      <c r="E242" s="59">
         <v>0.76</v>
       </c>
-      <c r="E242" s="49"/>
       <c r="F242" s="49"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B243" s="49"/>
+      <c r="G242" s="49"/>
+    </row>
+    <row r="243" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C243" s="49"/>
-      <c r="D243" s="59">
+      <c r="D243" s="49"/>
+      <c r="E243" s="59">
         <v>0.7</v>
       </c>
-      <c r="E243" s="49"/>
       <c r="F243" s="49"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B244" s="49"/>
+      <c r="G243" s="49"/>
+    </row>
+    <row r="244" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C244" s="49"/>
-      <c r="D244" s="59">
-        <f>D242-D243</f>
+      <c r="D244" s="49"/>
+      <c r="E244" s="59">
+        <f>E242-E243</f>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="E244" s="49" t="s">
+      <c r="F244" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="F244" s="49"/>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B245" s="49"/>
+      <c r="G244" s="49"/>
+    </row>
+    <row r="245" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C245" s="49"/>
-      <c r="D245" s="60">
-        <f>D244/2%</f>
+      <c r="D245" s="49"/>
+      <c r="E245" s="60">
+        <f>E244/2%</f>
         <v>3.0000000000000027</v>
       </c>
-      <c r="E245" s="49" t="s">
+      <c r="F245" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="F245" s="49"/>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B246" s="49"/>
-      <c r="C246" s="49" t="s">
+      <c r="G245" s="49"/>
+    </row>
+    <row r="246" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C246" s="49"/>
+      <c r="D246" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="D246" s="61">
+      <c r="E246" s="61">
         <v>12000</v>
       </c>
-      <c r="E246" s="49" t="s">
+      <c r="F246" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="F246" s="49"/>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B247" s="49"/>
-      <c r="C247" s="49" t="s">
+      <c r="G246" s="49"/>
+    </row>
+    <row r="247" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C247" s="49"/>
+      <c r="D247" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="49">
-        <f>D246*D245</f>
+      <c r="E247" s="49">
+        <f>E246*E245</f>
         <v>36000.000000000029</v>
       </c>
-      <c r="E247" s="49"/>
       <c r="F247" s="49"/>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B249" s="1" t="s">
+      <c r="G247" s="49"/>
+    </row>
+    <row r="249" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C249" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B250" s="1" t="s">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C250" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B252" s="31" t="s">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C252" s="31" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B253" s="6" t="s">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C253" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C253" s="6" t="s">
+      <c r="D253" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D253" s="6" t="s">
+      <c r="E253" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B254" s="6" t="s">
+    <row r="254" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C254" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="D254" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D254" s="6" t="s">
+      <c r="E254" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="255" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B255" s="6" t="s">
+    <row r="255" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C255" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="D255" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D255" s="6">
+      <c r="E255" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B256" s="6" t="s">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C256" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C256" s="6" t="s">
+      <c r="D256" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D256" s="6">
+      <c r="E256" s="6">
         <v>11500</v>
       </c>
     </row>
-    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B257" s="6" t="s">
+    <row r="257" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C257" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="D257" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D257" s="6">
-        <f>D256*D255</f>
+      <c r="E257" s="6">
+        <f>E256*E255</f>
         <v>34500</v>
       </c>
     </row>
-    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B259" s="26" t="s">
+    <row r="259" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C259" s="26" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B260" s="31" t="s">
+    <row r="260" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C260" s="31" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="261" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B261" s="1" t="s">
+    <row r="261" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C261" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="262" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B262" s="44" t="s">
+    <row r="262" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C262" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="E262" s="49"/>
       <c r="F262" s="49"/>
       <c r="G262" s="49"/>
       <c r="H262" s="49"/>
@@ -7498,12 +7710,12 @@
       <c r="J262" s="49"/>
       <c r="K262" s="49"/>
       <c r="L262" s="49"/>
-    </row>
-    <row r="263" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B263" s="1" t="s">
+      <c r="M262" s="49"/>
+    </row>
+    <row r="263" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C263" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E263" s="49"/>
       <c r="F263" s="49"/>
       <c r="G263" s="49"/>
       <c r="H263" s="49"/>
@@ -7511,12 +7723,12 @@
       <c r="J263" s="49"/>
       <c r="K263" s="49"/>
       <c r="L263" s="49"/>
-    </row>
-    <row r="264" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B264" s="1" t="s">
+      <c r="M263" s="49"/>
+    </row>
+    <row r="264" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C264" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E264" s="49"/>
       <c r="F264" s="49"/>
       <c r="G264" s="49"/>
       <c r="H264" s="49"/>
@@ -7524,12 +7736,12 @@
       <c r="J264" s="49"/>
       <c r="K264" s="49"/>
       <c r="L264" s="49"/>
-    </row>
-    <row r="265" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B265" s="1" t="s">
+      <c r="M264" s="49"/>
+    </row>
+    <row r="265" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C265" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E265" s="49"/>
       <c r="F265" s="49"/>
       <c r="G265" s="49"/>
       <c r="H265" s="49"/>
@@ -7537,44 +7749,44 @@
       <c r="J265" s="49"/>
       <c r="K265" s="49"/>
       <c r="L265" s="49"/>
-    </row>
-    <row r="266" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B266" s="25" t="s">
+      <c r="M265" s="49"/>
+    </row>
+    <row r="266" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C266" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="D266" s="33"/>
-      <c r="E266" s="66"/>
-      <c r="F266" s="49"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="66"/>
       <c r="G266" s="49"/>
-      <c r="H266" s="66"/>
-      <c r="I266" s="49"/>
+      <c r="H266" s="49"/>
+      <c r="I266" s="66"/>
       <c r="J266" s="49"/>
       <c r="K266" s="49"/>
       <c r="L266" s="49"/>
-    </row>
-    <row r="267" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B267" s="25" t="s">
+      <c r="M266" s="49"/>
+    </row>
+    <row r="267" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C267" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="D267" s="33"/>
-      <c r="E267" s="66"/>
-      <c r="F267" s="49"/>
-      <c r="G267" s="49" t="s">
+      <c r="E267" s="33"/>
+      <c r="F267" s="66"/>
+      <c r="G267" s="49"/>
+      <c r="H267" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="H267" s="49"/>
       <c r="I267" s="49"/>
-      <c r="K267" s="49"/>
+      <c r="J267" s="49"/>
       <c r="L267" s="49"/>
-    </row>
-    <row r="268" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B268" s="25" t="s">
+      <c r="M267" s="49"/>
+    </row>
+    <row r="268" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C268" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E268" s="49"/>
       <c r="F268" s="49"/>
       <c r="G268" s="49"/>
       <c r="H268" s="49"/>
@@ -7582,12 +7794,12 @@
       <c r="J268" s="49"/>
       <c r="K268" s="49"/>
       <c r="L268" s="49"/>
-    </row>
-    <row r="269" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B269" s="1" t="s">
+      <c r="M268" s="49"/>
+    </row>
+    <row r="269" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C269" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E269" s="49"/>
       <c r="F269" s="49"/>
       <c r="G269" s="49"/>
       <c r="H269" s="49"/>
@@ -7595,12 +7807,12 @@
       <c r="J269" s="49"/>
       <c r="K269" s="49"/>
       <c r="L269" s="49"/>
-    </row>
-    <row r="270" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B270" s="33" t="s">
+      <c r="M269" s="49"/>
+    </row>
+    <row r="270" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C270" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="E270" s="49"/>
       <c r="F270" s="49"/>
       <c r="G270" s="49"/>
       <c r="H270" s="49"/>
@@ -7608,645 +7820,645 @@
       <c r="J270" s="49"/>
       <c r="K270" s="49"/>
       <c r="L270" s="49"/>
-    </row>
-    <row r="271" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B271" s="1" t="s">
+      <c r="M270" s="49"/>
+    </row>
+    <row r="271" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C271" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="272" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B272" s="1" t="s">
+    <row r="272" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C272" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B273" s="1" t="s">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C273" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B274" s="1" t="s">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C274" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B275" s="1" t="s">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C275" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B276" s="1" t="s">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C276" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B277" s="1" t="s">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C277" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B278" s="1" t="s">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C278" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B279" s="1" t="s">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C279" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B280" s="1" t="s">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C280" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B281" s="1" t="s">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C281" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B282" s="1" t="s">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C282" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B284" s="1" t="s">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C284" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B285" s="1" t="s">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C285" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B286" s="1" t="s">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C286" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B287" s="1" t="s">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C287" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B288" s="1" t="s">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C288" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B290" s="1" t="s">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C290" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B291" s="1" t="s">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C291" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B292" s="1" t="s">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C292" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B293" s="44" t="s">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C293" s="44" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B294" s="1" t="s">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C294" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C294" s="1">
+      <c r="D294" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B295" s="1" t="s">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C295" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C295" s="1">
+      <c r="D295" s="1">
         <v>12000</v>
       </c>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B296" s="1" t="s">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C296" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C296" s="1">
+      <c r="D296" s="1">
         <f>12*449</f>
         <v>5388</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B297" s="1" t="s">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C297" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C297" s="1">
+      <c r="D297" s="1">
         <v>2237</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B298" s="1" t="s">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C298" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B299" s="1" t="s">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C299" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C299" s="1">
+      <c r="D299" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B300" s="1" t="s">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C300" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C300" s="1">
+      <c r="D300" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B301" s="1" t="s">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C301" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C301" s="39">
+      <c r="D301" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B302" s="1" t="s">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C302" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C302" s="64">
-        <f>C300*2%*C301</f>
+      <c r="D302" s="64">
+        <f>D300*2%*D301</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B303" s="1" t="s">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C303" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C303" s="14">
-        <f>C302*(C294+1/12*C296+1/12*C297)</f>
+      <c r="D303" s="14">
+        <f>D302*(D294+1/12*D296+1/12*D297)</f>
         <v>5317.708333333333</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B304" s="1" t="s">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C304" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C304" s="64">
-        <f>C302+(60-C299)*2%*C301</f>
+      <c r="D304" s="64">
+        <f>D302+(60-D299)*2%*D301</f>
         <v>0.66</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B305" s="1" t="s">
+    <row r="305" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C305" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C305" s="1">
-        <f>C304*(C295+1/12*C296+1/12*C297)</f>
+      <c r="D305" s="1">
+        <f>D304*(D295+1/12*D296+1/12*D297)</f>
         <v>8339.375</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B306" s="1" t="s">
+    <row r="306" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C306" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C306" s="14">
-        <f>C305-C303</f>
+      <c r="D306" s="14">
+        <f>D305-D303</f>
         <v>3021.666666666667</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B307" s="1" t="s">
+    <row r="307" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C307" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C307" s="1">
-        <f>C305*0.6-C303*0.6</f>
+      <c r="D307" s="1">
+        <f>D305*0.6-D303*0.6</f>
         <v>1813.0000000000005</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B308" s="1" t="s">
+    <row r="308" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C308" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C308" s="77">
+      <c r="D308" s="77">
         <v>7.3090000000000002</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B309" s="1" t="s">
+    <row r="309" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C309" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C309" s="77">
+      <c r="D309" s="77">
         <v>2.093</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B310" s="1" t="s">
+    <row r="310" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C310" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C310" s="14">
-        <f>C308*12*C306</f>
+      <c r="D310" s="14">
+        <f>D308*12*D306</f>
         <v>265024.34000000003</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B311" s="1" t="s">
+    <row r="311" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C311" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C311" s="14">
-        <f>C309*C307*12</f>
+      <c r="D311" s="14">
+        <f>D309*D307*12</f>
         <v>45535.308000000012</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B312" s="1" t="s">
+    <row r="312" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C312" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C312" s="14">
-        <f>C311+C310</f>
+      <c r="D312" s="14">
+        <f>D311+D310</f>
         <v>310559.64800000004</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B314" s="1" t="s">
+    <row r="314" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C314" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C314" s="14">
-        <f>(C294+1/12*C296+1/12*C297)*12</f>
+      <c r="D314" s="14">
+        <f>(D294+1/12*D296+1/12*D297)*12</f>
         <v>127625</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B315" s="1" t="s">
+    <row r="315" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C315" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C315" s="14">
-        <f>(C294+1/12*C296+1/12*C297)*0.5*24</f>
+      <c r="D315" s="14">
+        <f>(D294+1/12*D296+1/12*D297)*0.5*24</f>
         <v>127625</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B317" s="1" t="s">
+    <row r="317" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C317" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B319" s="31" t="s">
+    <row r="319" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C319" s="31" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B320" s="6" t="s">
+    <row r="320" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C320" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C320" s="6" t="s">
+      <c r="D320" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D320" s="6" t="s">
+      <c r="E320" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="321" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B321" s="6" t="s">
+    <row r="321" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C321" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C321" s="7" t="s">
+      <c r="D321" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D321" s="6" t="s">
+      <c r="E321" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B322" s="6" t="s">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C322" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C322" s="7" t="s">
+      <c r="D322" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D322" s="6"/>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B323" s="6" t="s">
+      <c r="E322" s="6"/>
+    </row>
+    <row r="323" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C323" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="D323" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D323" s="6"/>
-    </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B324" s="6" t="s">
+      <c r="E323" s="6"/>
+    </row>
+    <row r="324" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C324" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C324" s="7" t="s">
+      <c r="D324" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D324" s="6"/>
-    </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B325" s="6" t="s">
+      <c r="E324" s="6"/>
+    </row>
+    <row r="325" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C325" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="D325" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D325" s="6"/>
-    </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B327" s="78" t="s">
+      <c r="E325" s="6"/>
+    </row>
+    <row r="327" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C327" s="78" t="s">
         <v>429</v>
       </c>
-      <c r="C327" s="78"/>
       <c r="D327" s="78"/>
       <c r="E327" s="78"/>
       <c r="F327" s="78"/>
-    </row>
-    <row r="328" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="107" t="s">
+      <c r="G327" s="78"/>
+    </row>
+    <row r="328" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C329" s="107" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="330" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="33" t="s">
+    <row r="330" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C330" s="33" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="331" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="33" t="s">
+    <row r="331" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C331" s="33" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="332" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B332" s="33" t="s">
+    <row r="332" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C332" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="C332" s="33" t="s">
+      <c r="D332" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="D332" s="33" t="s">
+      <c r="E332" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E332" s="33" t="s">
+      <c r="F332" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F332" s="33" t="s">
+      <c r="G332" s="33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="333" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B333" s="33" t="s">
+    <row r="333" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C333" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C333" s="108">
+      <c r="D333" s="108">
         <v>9500</v>
       </c>
-      <c r="D333" s="109">
+      <c r="E333" s="109">
         <v>34700</v>
       </c>
-      <c r="E333" s="109">
+      <c r="F333" s="109">
         <v>39447</v>
       </c>
-      <c r="F333" s="108">
-        <f>(E333-D333)/365</f>
+      <c r="G333" s="108">
+        <f>(F333-E333)/365</f>
         <v>13.005479452054795</v>
       </c>
     </row>
-    <row r="334" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="33" t="s">
+    <row r="334" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C334" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="C334" s="108">
+      <c r="D334" s="108">
         <v>18000</v>
       </c>
-      <c r="D334" s="109">
+      <c r="E334" s="109">
         <v>39448</v>
       </c>
-      <c r="E334" s="109">
+      <c r="F334" s="109">
         <v>45291</v>
       </c>
-      <c r="F334" s="108">
-        <f>(E334-D334)/365</f>
+      <c r="G334" s="108">
+        <f>(F334-E334)/365</f>
         <v>16.008219178082193</v>
       </c>
     </row>
-    <row r="335" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F335" s="110">
-        <f>SUM(F333:F334)</f>
+    <row r="335" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G335" s="110">
+        <f>SUM(G333:G334)</f>
         <v>29.013698630136986</v>
       </c>
     </row>
-    <row r="336" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="33" t="s">
+    <row r="336" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C336" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="C336" s="110">
-        <f>C333*F333/F335+C334*F334/F335</f>
+      <c r="D336" s="110">
+        <f>D333*G333/G335+D334*G334/G335</f>
         <v>14189.848914069877</v>
       </c>
-      <c r="D336" s="33" t="s">
+      <c r="E336" s="33" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="337" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="31" t="s">
+    <row r="337" spans="3:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C337" s="31" t="s">
         <v>601</v>
       </c>
-      <c r="C337" s="1"/>
       <c r="D337" s="1"/>
-    </row>
-    <row r="338" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="6" t="s">
+      <c r="E337" s="1"/>
+    </row>
+    <row r="338" spans="3:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C338" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C338" s="6" t="s">
+      <c r="D338" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D338" s="6" t="s">
+      <c r="E338" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="339" spans="2:4" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B339" s="6" t="s">
+    <row r="339" spans="3:5" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C339" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C339" s="7" t="s">
+      <c r="D339" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D339" s="6" t="s">
+      <c r="E339" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="340" spans="2:4" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B340" s="6" t="s">
+    <row r="340" spans="3:5" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C340" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="C340" s="7" t="s">
+      <c r="D340" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="D340" s="112">
+      <c r="E340" s="112">
         <v>14189.85</v>
       </c>
     </row>
-    <row r="341" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="6" t="s">
+    <row r="341" spans="3:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C341" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C341" s="7" t="s">
+      <c r="D341" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D341" s="6">
-        <f>D340*12</f>
+      <c r="E341" s="6">
+        <f>E340*12</f>
         <v>170278.2</v>
       </c>
     </row>
-    <row r="342" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="6" t="s">
+    <row r="342" spans="3:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C342" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C342" s="7" t="s">
+      <c r="D342" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D342" s="6">
-        <f>D340*24/2</f>
+      <c r="E342" s="6">
+        <f>E340*24/2</f>
         <v>170278.2</v>
       </c>
     </row>
-    <row r="343" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="6" t="s">
+    <row r="343" spans="3:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C343" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C343" s="7" t="s">
+      <c r="D343" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D343" s="6"/>
-    </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B344" s="6" t="s">
+      <c r="E343" s="6"/>
+    </row>
+    <row r="344" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C344" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C344" s="7" t="s">
+      <c r="D344" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D344" s="6"/>
-    </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B345" s="62"/>
-      <c r="C345" s="111"/>
-      <c r="D345" s="62"/>
-    </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B346" s="62"/>
-      <c r="C346" s="111"/>
-      <c r="D346" s="62"/>
-    </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B347" s="26" t="s">
+      <c r="E344" s="6"/>
+    </row>
+    <row r="345" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C345" s="62"/>
+      <c r="D345" s="111"/>
+      <c r="E345" s="62"/>
+    </row>
+    <row r="346" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C346" s="62"/>
+      <c r="D346" s="111"/>
+      <c r="E346" s="62"/>
+    </row>
+    <row r="347" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C347" s="26" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B348" s="1" t="s">
+    <row r="348" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C348" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B349" s="1" t="s">
+    <row r="349" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C349" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B351" s="31" t="s">
+    <row r="351" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C351" s="31" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B352" s="6" t="s">
+    <row r="352" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C352" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C352" s="6" t="s">
+      <c r="D352" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D352" s="6" t="s">
+      <c r="E352" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="353" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B353" s="6" t="s">
+    <row r="353" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C353" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C353" s="7" t="s">
+      <c r="D353" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D353" s="6" t="s">
+      <c r="E353" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="354" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B354" s="6" t="s">
+    <row r="354" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C354" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="D354" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D354" s="6">
+      <c r="E354" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="355" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B355" s="6" t="s">
+    <row r="355" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C355" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C355" s="7" t="s">
+      <c r="D355" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="D355" s="6">
-        <f>D354*1</f>
+      <c r="E355" s="6">
+        <f>E354*1</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="357" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B357" s="26" t="s">
+    <row r="357" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C357" s="26" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="358" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B358" s="49" t="s">
+    <row r="358" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C358" s="49" t="s">
         <v>442</v>
       </c>
-      <c r="C358" s="79"/>
-      <c r="D358" s="49"/>
+      <c r="D358" s="79"/>
       <c r="E358" s="49"/>
       <c r="F358" s="49"/>
       <c r="G358" s="49"/>
@@ -8257,13 +8469,13 @@
       <c r="L358" s="49"/>
       <c r="M358" s="49"/>
       <c r="N358" s="49"/>
-    </row>
-    <row r="359" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B359" s="49" t="s">
+      <c r="O358" s="49"/>
+    </row>
+    <row r="359" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C359" s="49" t="s">
         <v>443</v>
       </c>
-      <c r="C359" s="79"/>
-      <c r="D359" s="49"/>
+      <c r="D359" s="79"/>
       <c r="E359" s="49"/>
       <c r="F359" s="49"/>
       <c r="G359" s="49"/>
@@ -8274,16 +8486,16 @@
       <c r="L359" s="49"/>
       <c r="M359" s="49"/>
       <c r="N359" s="49"/>
-    </row>
-    <row r="360" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B360" s="49" t="s">
+      <c r="O359" s="49"/>
+    </row>
+    <row r="360" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C360" s="49" t="s">
         <v>444</v>
       </c>
-      <c r="C360" s="79"/>
-      <c r="D360" s="82" t="s">
+      <c r="D360" s="79"/>
+      <c r="E360" s="82" t="s">
         <v>445</v>
       </c>
-      <c r="E360" s="49"/>
       <c r="F360" s="49"/>
       <c r="G360" s="49"/>
       <c r="H360" s="49"/>
@@ -8293,18 +8505,18 @@
       <c r="L360" s="49"/>
       <c r="M360" s="49"/>
       <c r="N360" s="49"/>
-    </row>
-    <row r="361" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B361" s="49" t="s">
+      <c r="O360" s="49"/>
+    </row>
+    <row r="361" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C361" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="C361" s="49">
+      <c r="D361" s="49">
         <v>1603</v>
       </c>
-      <c r="D361" s="49" t="s">
+      <c r="E361" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="E361" s="49"/>
       <c r="F361" s="49"/>
       <c r="G361" s="49"/>
       <c r="H361" s="49"/>
@@ -8314,18 +8526,18 @@
       <c r="L361" s="49"/>
       <c r="M361" s="49"/>
       <c r="N361" s="49"/>
-    </row>
-    <row r="362" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B362" s="49" t="s">
+      <c r="O361" s="49"/>
+    </row>
+    <row r="362" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C362" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C362" s="49">
+      <c r="D362" s="49">
         <v>2237</v>
       </c>
-      <c r="D362" s="49" t="s">
+      <c r="E362" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="E362" s="49"/>
       <c r="F362" s="49"/>
       <c r="G362" s="49"/>
       <c r="H362" s="49"/>
@@ -8335,13 +8547,13 @@
       <c r="L362" s="49"/>
       <c r="M362" s="49"/>
       <c r="N362" s="49"/>
-    </row>
-    <row r="363" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B363" s="49" t="s">
+      <c r="O362" s="49"/>
+    </row>
+    <row r="363" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C363" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="C363" s="79"/>
-      <c r="D363" s="49"/>
+      <c r="D363" s="79"/>
       <c r="E363" s="49"/>
       <c r="F363" s="49"/>
       <c r="G363" s="49"/>
@@ -8352,13 +8564,13 @@
       <c r="L363" s="49"/>
       <c r="M363" s="49"/>
       <c r="N363" s="49"/>
-    </row>
-    <row r="364" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B364" s="49" t="s">
+      <c r="O363" s="49"/>
+    </row>
+    <row r="364" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C364" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="C364" s="79"/>
-      <c r="D364" s="49"/>
+      <c r="D364" s="79"/>
       <c r="E364" s="49"/>
       <c r="F364" s="49"/>
       <c r="G364" s="49"/>
@@ -8369,13 +8581,13 @@
       <c r="L364" s="49"/>
       <c r="M364" s="49"/>
       <c r="N364" s="49"/>
-    </row>
-    <row r="365" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B365" s="49" t="s">
+      <c r="O364" s="49"/>
+    </row>
+    <row r="365" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C365" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="C365" s="79"/>
-      <c r="D365" s="49"/>
+      <c r="D365" s="79"/>
       <c r="E365" s="49"/>
       <c r="F365" s="49"/>
       <c r="G365" s="49"/>
@@ -8386,13 +8598,13 @@
       <c r="L365" s="49"/>
       <c r="M365" s="49"/>
       <c r="N365" s="49"/>
-    </row>
-    <row r="366" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B366" s="49" t="s">
+      <c r="O365" s="49"/>
+    </row>
+    <row r="366" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C366" s="49" t="s">
         <v>570</v>
       </c>
-      <c r="C366" s="79"/>
-      <c r="D366" s="49"/>
+      <c r="D366" s="79"/>
       <c r="E366" s="49"/>
       <c r="F366" s="49"/>
       <c r="G366" s="49"/>
@@ -8403,18 +8615,18 @@
       <c r="L366" s="49"/>
       <c r="M366" s="49"/>
       <c r="N366" s="49"/>
-    </row>
-    <row r="367" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B367" s="49" t="s">
+      <c r="O366" s="49"/>
+    </row>
+    <row r="367" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C367" s="49" t="s">
         <v>450</v>
       </c>
-      <c r="C367" s="49">
+      <c r="D367" s="49">
         <v>2237</v>
       </c>
-      <c r="D367" s="80" t="s">
+      <c r="E367" s="80" t="s">
         <v>567</v>
       </c>
-      <c r="E367" s="49"/>
       <c r="F367" s="49"/>
       <c r="G367" s="49"/>
       <c r="H367" s="49"/>
@@ -8424,18 +8636,18 @@
       <c r="L367" s="49"/>
       <c r="M367" s="49"/>
       <c r="N367" s="49"/>
-    </row>
-    <row r="368" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B368" s="49" t="s">
+      <c r="O367" s="49"/>
+    </row>
+    <row r="368" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C368" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="C368" s="49">
+      <c r="D368" s="49">
         <v>2237</v>
       </c>
-      <c r="D368" s="49" t="s">
+      <c r="E368" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="E368" s="49"/>
       <c r="F368" s="49"/>
       <c r="G368" s="49"/>
       <c r="H368" s="49"/>
@@ -8445,11 +8657,11 @@
       <c r="L368" s="49"/>
       <c r="M368" s="49"/>
       <c r="N368" s="49"/>
-    </row>
-    <row r="369" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B369" s="49"/>
-      <c r="C369" s="79"/>
-      <c r="D369" s="49"/>
+      <c r="O368" s="49"/>
+    </row>
+    <row r="369" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C369" s="49"/>
+      <c r="D369" s="79"/>
       <c r="E369" s="49"/>
       <c r="F369" s="49"/>
       <c r="G369" s="49"/>
@@ -8460,30 +8672,30 @@
       <c r="L369" s="49"/>
       <c r="M369" s="49"/>
       <c r="N369" s="49"/>
-    </row>
-    <row r="370" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B370" s="49" t="s">
+      <c r="O369" s="49"/>
+    </row>
+    <row r="370" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C370" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="C370" s="79"/>
-      <c r="D370" s="49"/>
+      <c r="D370" s="79"/>
       <c r="E370" s="49"/>
       <c r="F370" s="49"/>
-      <c r="G370" s="81" t="s">
+      <c r="G370" s="49"/>
+      <c r="H370" s="81" t="s">
         <v>453</v>
       </c>
-      <c r="H370" s="49"/>
       <c r="I370" s="49"/>
       <c r="J370" s="49"/>
       <c r="K370" s="49"/>
       <c r="L370" s="49"/>
       <c r="M370" s="49"/>
       <c r="N370" s="49"/>
-    </row>
-    <row r="371" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B371" s="49"/>
-      <c r="C371" s="79"/>
-      <c r="D371" s="49"/>
+      <c r="O370" s="49"/>
+    </row>
+    <row r="371" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C371" s="49"/>
+      <c r="D371" s="79"/>
       <c r="E371" s="49"/>
       <c r="F371" s="49"/>
       <c r="G371" s="49"/>
@@ -8494,288 +8706,289 @@
       <c r="L371" s="49"/>
       <c r="M371" s="49"/>
       <c r="N371" s="49"/>
-    </row>
-    <row r="372" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B372" s="31" t="s">
+      <c r="O371" s="49"/>
+    </row>
+    <row r="372" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C372" s="31" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="373" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B373" s="6" t="s">
+    <row r="373" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C373" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C373" s="6" t="s">
+      <c r="D373" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D373" s="6" t="s">
+      <c r="E373" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B374" s="6" t="s">
+    <row r="374" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C374" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C374" s="7" t="s">
+      <c r="D374" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D374" s="6" t="s">
+      <c r="E374" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="375" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B375" s="6" t="s">
+    <row r="375" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C375" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C375" s="7" t="s">
+      <c r="D375" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="D375" s="40">
+      <c r="E375" s="40">
         <v>0.8</v>
       </c>
     </row>
-    <row r="376" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B376" s="6" t="s">
+    <row r="376" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C376" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C376" s="7" t="s">
+      <c r="D376" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="D376" s="40">
+      <c r="E376" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="B377" s="6" t="s">
+    <row r="377" spans="3:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="C377" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="D377" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="D377" s="6">
+      <c r="E377" s="6">
         <v>0</v>
       </c>
-      <c r="E377" s="1" t="s">
+      <c r="F377" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="378" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B378" s="6" t="s">
+    <row r="378" spans="3:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="C378" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C378" s="7" t="s">
+      <c r="D378" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="D378" s="6">
-        <f>2237*D375</f>
+      <c r="E378" s="6">
+        <f>2237*E375</f>
         <v>1789.6000000000001</v>
       </c>
-      <c r="E378" s="1" t="s">
+      <c r="F378" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="381" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B381" s="26" t="s">
+    <row r="381" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C381" s="26" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="382" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B382" s="49" t="s">
+    <row r="382" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C382" s="49" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="383" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B383" s="49" t="s">
+    <row r="383" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C383" s="49" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="384" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B384" s="49" t="s">
+    <row r="384" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C384" s="49" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B387" s="31" t="s">
+    <row r="387" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C387" s="31" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B388" s="6" t="s">
+    <row r="388" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C388" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C388" s="6" t="s">
+      <c r="D388" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D388" s="6" t="s">
+      <c r="E388" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B389" s="6" t="s">
+    <row r="389" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C389" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C389" s="7" t="s">
+      <c r="D389" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D389" s="6" t="s">
+      <c r="E389" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B390" s="6" t="s">
+    <row r="390" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C390" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C390" s="7" t="s">
+      <c r="D390" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="D390" s="40">
+      <c r="E390" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="2:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="B391" s="6" t="s">
+    <row r="391" spans="3:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="C391" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C391" s="7" t="s">
+      <c r="D391" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D391" s="6">
+      <c r="E391" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B392" s="7" t="s">
+    <row r="392" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C392" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C392" s="7"/>
-      <c r="D392" s="6"/>
-    </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B394" s="56" t="s">
+      <c r="D392" s="7"/>
+      <c r="E392" s="6"/>
+    </row>
+    <row r="394" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C394" s="56" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B395" s="31" t="s">
+    <row r="395" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C395" s="31" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B396" s="1" t="s">
+    <row r="396" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C396" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B397" s="1" t="s">
+    <row r="397" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C397" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B399" s="31" t="s">
+    <row r="399" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C399" s="31" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B400" s="6" t="s">
+    <row r="400" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C400" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C400" s="6" t="s">
+      <c r="D400" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D400" s="6" t="s">
+      <c r="E400" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B401" s="6" t="s">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C401" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C401" s="7" t="s">
+      <c r="D401" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="D401" s="6">
+      <c r="E401" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B402" s="6" t="s">
+    <row r="402" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C402" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C402" s="7" t="s">
+      <c r="D402" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="D402" s="40">
+      <c r="E402" s="40">
         <v>0.25</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B403" s="6" t="s">
+    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C403" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="D403" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="D403" s="47">
+      <c r="E403" s="47">
         <v>12000</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B404" s="6" t="s">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C404" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C404" s="7" t="s">
+      <c r="D404" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D404" s="47">
-        <f>D403*D401*D402</f>
+      <c r="E404" s="47">
+        <f>E403*E401*E402</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="15"/>
-      <c r="B407" s="85" t="s">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B407" s="15"/>
+      <c r="C407" s="85" t="s">
         <v>517</v>
       </c>
-      <c r="D407" s="1" t="s">
+      <c r="E407" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="15"/>
-      <c r="B408" s="86" t="s">
+    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B408" s="15"/>
+      <c r="C408" s="86" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="15"/>
-      <c r="B409" s="86"/>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B410" s="6" t="s">
+    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B409" s="15"/>
+      <c r="C409" s="86"/>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C410" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C410" s="6" t="s">
+      <c r="D410" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D410" s="1">
+      <c r="E410" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B411" s="6" t="s">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C411" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C411" s="6" t="s">
+      <c r="D411" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="D411" s="1">
-        <f>D410*3</f>
+      <c r="E411" s="1">
+        <f>E410*3</f>
         <v>30000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C137:C144"/>
-    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="D137:D144"/>
+    <mergeCell ref="G6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\שרגא יהודית\source\repos\RetirementSimulator\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\שרגא יהודית\source\repos\‏‏תיקיה חדשה\RetirementSimulator\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E9994-C0C9-4298-901F-D137AB0CA885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F028CEB4-2233-4F2D-A895-52047174D67B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Esti</author>
   </authors>
   <commentList>
-    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C185" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B185" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C186" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="B186" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C266" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="B266" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="661">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -1957,13 +1957,7 @@
     <t>משכורת קובעת למשרה מלאה - הסכם קיבוצי, שכר בכירים</t>
   </si>
   <si>
-    <t>הוספתי: "שכר בכירים" במלל, 23/03/2023</t>
-  </si>
-  <si>
     <t>משכורת קובעת לפנסיה תקציבית למשרה מלאה</t>
-  </si>
-  <si>
-    <t>הוספתי שורה זו</t>
   </si>
   <si>
     <t>מתוך מסך 4 - יופיע רק במקרה שהזינו במסך 4 סכום תוספת שכר פנסיוני שלא מחושבת לפנסיה התקציבית
@@ -1974,9 +1968,6 @@
   </si>
   <si>
     <t>יופיע הסכום כפי שהזינו במסך 4, בניכוי תוספת פנסיונית שלא מהווה בסיס לפנסיה</t>
-  </si>
-  <si>
-    <t>עדכני את החישוב - אם הזינו תוספת פנסיונית שלא מהווה בסיס לפנסיה, יש להפחית את הסכום מהמשכורת הקובעת לפנסיה (23/03/2023)</t>
   </si>
   <si>
     <t>חישוב אחוז הקצבה כפול משכורת קובעת שלעיל</t>
@@ -2331,13 +2322,52 @@
     <t>IsAggregationByParts</t>
   </si>
   <si>
-    <t>engkish</t>
-  </si>
-  <si>
     <t>EmployeesAgeAtRetirement</t>
   </si>
   <si>
     <t>YearsOfWorkAtTheAuthority</t>
+  </si>
+  <si>
+    <t>salaryDetermines</t>
+  </si>
+  <si>
+    <t>total work period</t>
+  </si>
+  <si>
+    <t>total work priods at the authorty</t>
+  </si>
+  <si>
+    <t>full work period according to the pertiality</t>
+  </si>
+  <si>
+    <t>total working period for retirement</t>
+  </si>
+  <si>
+    <t>unpaid vacation</t>
+  </si>
+  <si>
+    <t>working period for compensation</t>
+  </si>
+  <si>
+    <t>AveragePartTimeJobForRetirement</t>
+  </si>
+  <si>
+    <t>FullPensionPercentage</t>
+  </si>
+  <si>
+    <t>AnnuityPercentageCalculated</t>
+  </si>
+  <si>
+    <t>חישוב של אחוז קצבה מלא כפול חלקיות המשרה הממוצעת לפנסיה</t>
+  </si>
+  <si>
+    <t>AllowanceAmount</t>
+  </si>
+  <si>
+    <t>CostOfLivingAllowance</t>
+  </si>
+  <si>
+    <t>TotalEstimatedAllowanceAmount</t>
   </si>
 </sst>
 </file>
@@ -2351,7 +2381,7 @@
     <numFmt numFmtId="166" formatCode="0.000_)"/>
     <numFmt numFmtId="167" formatCode="&quot;₪&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2511,8 +2541,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="David"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2582,8 +2624,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2647,6 +2695,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2657,7 +2718,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2846,7 +2907,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2870,26 +2930,13 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2919,6 +2966,29 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3267,8 +3337,8 @@
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="118" t="s">
-        <v>606</v>
+      <c r="F6" s="115" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -3284,7 +3354,7 @@
         <v>114</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -3298,10 +3368,10 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,23 +3390,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="120" t="s">
-        <v>618</v>
-      </c>
-      <c r="C1" s="120"/>
+      <c r="B1" s="117" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1" s="117"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="88"/>
-      <c r="B2" s="121" t="s">
-        <v>608</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
+      <c r="B2" s="129" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -3346,7 +3416,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>22</v>
@@ -3374,11 +3444,11 @@
       <c r="A4" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="116" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>23</v>
@@ -3404,11 +3474,11 @@
       <c r="A5" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>24</v>
@@ -3434,11 +3504,11 @@
       <c r="A6" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="116" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>76</v>
@@ -3462,11 +3532,11 @@
       <c r="A7" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="116" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>78</v>
@@ -3490,11 +3560,11 @@
       <c r="A8" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="116" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>78</v>
@@ -3520,11 +3590,11 @@
       <c r="A9" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="116" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>28</v>
@@ -3550,11 +3620,11 @@
       <c r="A10" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="116" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>28</v>
@@ -3580,11 +3650,11 @@
       <c r="A11" s="87" t="s">
         <v>524</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="118" t="s">
         <v>363</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>364</v>
@@ -3593,7 +3663,7 @@
         <v>12000</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>365</v>
@@ -3612,11 +3682,11 @@
       <c r="A12" s="87" t="s">
         <v>525</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="119" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>78</v>
@@ -3642,11 +3712,11 @@
       <c r="A13" s="87" t="s">
         <v>526</v>
       </c>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="118" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>120</v>
@@ -3670,11 +3740,11 @@
       <c r="A14" s="87" t="s">
         <v>526</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="118" t="s">
         <v>123</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>124</v>
@@ -3700,11 +3770,11 @@
       <c r="A15" s="87" t="s">
         <v>526</v>
       </c>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="120" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>130</v>
@@ -3730,11 +3800,11 @@
       <c r="A16" s="87" t="s">
         <v>526</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="120" t="s">
         <v>208</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>130</v>
@@ -3758,11 +3828,11 @@
       <c r="A17" s="87" t="s">
         <v>526</v>
       </c>
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="121" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>132</v>
@@ -3786,11 +3856,11 @@
       <c r="A18" s="87" t="s">
         <v>526</v>
       </c>
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="121" t="s">
         <v>133</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>132</v>
@@ -3810,11 +3880,11 @@
       <c r="A19" s="87" t="s">
         <v>526</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="118" t="s">
         <v>137</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>138</v>
@@ -3840,11 +3910,11 @@
       <c r="A20" s="87" t="s">
         <v>526</v>
       </c>
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="118" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>28</v>
@@ -3870,7 +3940,7 @@
       <c r="A21" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="116" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="11"/>
@@ -3888,11 +3958,11 @@
       <c r="A22" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="116" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>30</v>
@@ -3920,11 +3990,11 @@
       <c r="A23" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="116" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>30</v>
@@ -3950,11 +4020,11 @@
       <c r="A24" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="116" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>30</v>
@@ -3980,11 +4050,11 @@
       <c r="A25" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="116" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>28</v>
@@ -4010,11 +4080,11 @@
       <c r="A26" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="116" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>30</v>
@@ -4042,7 +4112,7 @@
       <c r="A27" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="116" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="11"/>
@@ -4060,11 +4130,11 @@
       <c r="A28" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B28" s="119" t="s">
+      <c r="B28" s="116" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>30</v>
@@ -4088,11 +4158,11 @@
       <c r="A29" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="116" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>28</v>
@@ -4112,11 +4182,11 @@
       <c r="A30" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="116" t="s">
         <v>501</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>28</v>
@@ -4139,56 +4209,56 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="98" t="s">
-        <v>547</v>
-      </c>
-      <c r="B31" s="124" t="s">
-        <v>540</v>
+      <c r="A31" s="97" t="s">
+        <v>544</v>
+      </c>
+      <c r="B31" s="118" t="s">
+        <v>537</v>
       </c>
       <c r="C31" s="92" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D31" s="90" t="s">
-        <v>541</v>
-      </c>
-      <c r="E31" s="97">
+        <v>538</v>
+      </c>
+      <c r="E31" s="96">
         <v>0.06</v>
       </c>
       <c r="F31" s="90" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G31" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="97">
+      <c r="H31" s="96">
         <v>0.06</v>
       </c>
-      <c r="I31" s="97">
+      <c r="I31" s="96">
         <v>0.06</v>
       </c>
       <c r="J31" s="92"/>
-      <c r="L31" s="101">
+      <c r="L31" s="100">
         <v>45008</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="98" t="s">
-        <v>545</v>
-      </c>
-      <c r="B32" s="124" t="s">
+      <c r="A32" s="97" t="s">
         <v>542</v>
       </c>
+      <c r="B32" s="118" t="s">
+        <v>539</v>
+      </c>
       <c r="C32" s="92" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D32" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="99">
+      <c r="E32" s="98">
         <v>200000</v>
       </c>
       <c r="F32" s="92" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G32" s="92" t="s">
         <v>11</v>
@@ -4196,25 +4266,25 @@
       <c r="H32" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="99">
+      <c r="I32" s="98">
         <v>200000</v>
       </c>
-      <c r="J32" s="100" t="s">
-        <v>544</v>
-      </c>
-      <c r="L32" s="101">
+      <c r="J32" s="99" t="s">
+        <v>541</v>
+      </c>
+      <c r="L32" s="100">
         <v>45008</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="98" t="s">
-        <v>545</v>
-      </c>
-      <c r="B33" s="129" t="s">
-        <v>584</v>
-      </c>
-      <c r="C33" s="128" t="s">
-        <v>638</v>
+      <c r="A33" s="97" t="s">
+        <v>542</v>
+      </c>
+      <c r="B33" s="123" t="s">
+        <v>581</v>
+      </c>
+      <c r="C33" s="122" t="s">
+        <v>635</v>
       </c>
       <c r="D33" s="90" t="s">
         <v>459</v>
@@ -4223,7 +4293,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="92" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G33" s="92" t="s">
         <v>11</v>
@@ -4466,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -4991,7 +5061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:M19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5017,7 +5087,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>22</v>
@@ -5045,11 +5115,11 @@
       <c r="A6" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="130" t="s">
-        <v>639</v>
+      <c r="C6" s="124" t="s">
+        <v>636</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>109</v>
@@ -5075,11 +5145,11 @@
       <c r="A7" s="93" t="s">
         <v>526</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="125" t="s">
         <v>527</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>109</v>
@@ -5098,7 +5168,7 @@
         <v>2000</v>
       </c>
       <c r="J7" s="90" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M7" s="94" t="s">
         <v>530</v>
@@ -5121,11 +5191,11 @@
       <c r="A9" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="127" t="s">
         <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>149</v>
@@ -5150,11 +5220,11 @@
       <c r="A10" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="127" t="s">
         <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>151</v>
@@ -5180,13 +5250,13 @@
     </row>
     <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B12" s="132" t="s">
+        <v>594</v>
+      </c>
+      <c r="B12" s="126" t="s">
         <v>458</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>459</v>
@@ -5200,13 +5270,13 @@
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B13" s="134" t="s">
+        <v>594</v>
+      </c>
+      <c r="B13" s="128" t="s">
         <v>461</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>149</v>
@@ -5225,11 +5295,11 @@
       <c r="A15" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="127" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>149</v>
@@ -5254,11 +5324,11 @@
       <c r="A16" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="127" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>158</v>
@@ -5280,11 +5350,11 @@
       <c r="A17" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="127" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>151</v>
@@ -5315,245 +5385,261 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:P411"/>
+  <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="42.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="42.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="6" max="6" width="8.75" style="1"/>
+    <col min="7" max="7" width="33.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="45" t="s">
+        <v>165</v>
+      </c>
       <c r="C5" s="45" t="s">
-        <v>165</v>
+        <v>606</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="115" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="113" t="s">
         <v>163</v>
       </c>
+      <c r="C6" s="113"/>
       <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="123" t="s">
-        <v>605</v>
-      </c>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="115" t="s">
+      <c r="G6" s="131" t="s">
+        <v>602</v>
+      </c>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="113" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="113"/>
       <c r="D7" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="115" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="113" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="113"/>
       <c r="D8" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="115" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="113" t="s">
         <v>75</v>
       </c>
+      <c r="C9" s="113"/>
       <c r="D9" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="115" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="113" t="s">
         <v>80</v>
       </c>
+      <c r="C10" s="113"/>
       <c r="D10" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="115" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="113" t="s">
         <v>77</v>
       </c>
+      <c r="C11" s="113"/>
       <c r="D11" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C12" s="116" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="C12" s="114" t="s">
+        <v>645</v>
+      </c>
+      <c r="D12" s="112" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="115" t="s">
-        <v>552</v>
-      </c>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="113" t="s">
+        <v>549</v>
+      </c>
+      <c r="C13" s="113"/>
       <c r="D13" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="115" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="113" t="s">
         <v>81</v>
       </c>
+      <c r="C14" s="113"/>
       <c r="D14" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C15" s="116" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="C15" s="114" t="s">
+        <v>646</v>
+      </c>
+      <c r="D15" s="112" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="115" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="113" t="s">
         <v>172</v>
       </c>
+      <c r="C16" s="113"/>
       <c r="D16" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="115" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="113" t="s">
         <v>174</v>
       </c>
+      <c r="C17" s="113"/>
       <c r="D17" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="115" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="113" t="s">
         <v>118</v>
       </c>
+      <c r="C18" s="113"/>
       <c r="D18" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="115" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="113" t="s">
         <v>137</v>
       </c>
+      <c r="C19" s="113"/>
       <c r="D19" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="115" t="s">
+    <row r="20" spans="1:7" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="113" t="s">
         <v>184</v>
       </c>
+      <c r="C21" s="113"/>
       <c r="D21" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="115" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="113" t="s">
         <v>531</v>
       </c>
+      <c r="C22" s="113"/>
       <c r="D22" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F22" s="96" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="132" t="s">
         <v>532</v>
       </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-    </row>
-    <row r="23" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="134" t="s">
+        <v>647</v>
+      </c>
+      <c r="D23" s="133" t="s">
         <v>533</v>
       </c>
-      <c r="D23" s="114" t="s">
-        <v>535</v>
-      </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96" t="s">
-        <v>534</v>
-      </c>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="115" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="113" t="s">
         <v>182</v>
       </c>
+      <c r="C24" s="113"/>
       <c r="D24" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="115" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="113" t="s">
         <v>183</v>
       </c>
+      <c r="C25" s="113"/>
       <c r="D25" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C29" s="8" t="s">
+      <c r="E28" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>60</v>
       </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
         <v>61</v>
       </c>
@@ -5567,15 +5653,16 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="19">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="19">
         <v>32874</v>
       </c>
+      <c r="C30" s="19"/>
       <c r="D30" s="19">
         <v>33603</v>
       </c>
       <c r="E30" s="22">
-        <f>(DATE(YEAR(D30),MONTH(D30)+IF(DAY(D30)&gt;15,1,0),1)-DATE(YEAR(C30),MONTH(C30)+IF((DATE(YEAR(C30),MONTH(C30)+1,1)-C30)&lt;16,1,0),1))/365.25</f>
+        <f>(DATE(YEAR(D30),MONTH(D30)+IF(DAY(D30)&gt;15,1,0),1)-DATE(YEAR(B30),MONTH(B30)+IF((DATE(YEAR(B30),MONTH(B30)+1,1)-B30)&lt;16,1,0),1))/365.25</f>
         <v>1.998631074606434</v>
       </c>
       <c r="F30" s="20">
@@ -5586,15 +5673,16 @@
         <v>1.5989048596851472</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="19">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
         <v>33604</v>
       </c>
+      <c r="C31" s="19"/>
       <c r="D31" s="19">
         <v>36891</v>
       </c>
       <c r="E31" s="22">
-        <f t="shared" ref="E31:E36" si="0">(DATE(YEAR(D31),MONTH(D31)+IF(DAY(D31)&gt;15,1,0),1)-DATE(YEAR(C31),MONTH(C31)+IF((DATE(YEAR(C31),MONTH(C31)+1,1)-C31)&lt;16,1,0),1))/365.25</f>
+        <f t="shared" ref="E31:E36" si="0">(DATE(YEAR(D31),MONTH(D31)+IF(DAY(D31)&gt;15,1,0),1)-DATE(YEAR(B31),MONTH(B31)+IF((DATE(YEAR(B31),MONTH(B31)+1,1)-B31)&lt;16,1,0),1))/365.25</f>
         <v>9.0020533880903493</v>
       </c>
       <c r="F31" s="20">
@@ -5605,10 +5693,11 @@
         <v>9.0020533880903493</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="19">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
         <v>36892</v>
       </c>
+      <c r="C32" s="19"/>
       <c r="D32" s="19">
         <v>37256</v>
       </c>
@@ -5621,10 +5710,11 @@
       </c>
       <c r="G32" s="48"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C33" s="19">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="19">
         <v>37257</v>
       </c>
+      <c r="C33" s="19"/>
       <c r="D33" s="19">
         <v>37986</v>
       </c>
@@ -5637,10 +5727,11 @@
       </c>
       <c r="G33" s="48"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C34" s="19">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="19">
         <v>37987</v>
       </c>
+      <c r="C34" s="19"/>
       <c r="D34" s="19">
         <v>39457</v>
       </c>
@@ -5656,10 +5747,11 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C35" s="19">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="19">
         <v>39458</v>
       </c>
+      <c r="C35" s="19"/>
       <c r="D35" s="19">
         <v>42369</v>
       </c>
@@ -5675,10 +5767,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C36" s="19">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="19">
         <v>42370</v>
       </c>
+      <c r="C36" s="19"/>
       <c r="D36" s="19">
         <v>45291</v>
       </c>
@@ -5694,7 +5787,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E37" s="29">
         <f>SUM(E30:E36)</f>
         <v>33.998631074606436</v>
@@ -5704,102 +5797,110 @@
         <v>28.200958247775496</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E38" s="29"/>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C39" s="58" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="58" t="s">
         <v>90</v>
       </c>
+      <c r="C39" s="58"/>
       <c r="E39" s="29"/>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C40" s="116" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="G40" s="29">
+      <c r="C40" s="137" t="s">
+        <v>649</v>
+      </c>
+      <c r="D40" s="48">
         <f>E37</f>
         <v>33.998631074606436</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C41" s="116" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="G41" s="29">
+      <c r="C41" s="137" t="s">
+        <v>651</v>
+      </c>
+      <c r="D41" s="48">
         <f>SUMIFS(E30:E36,F30:F36,"&gt;0.3329")</f>
         <v>31.000684462696782</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C42" s="116" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="G42" s="29">
+      <c r="C42" s="137" t="s">
+        <v>652</v>
+      </c>
+      <c r="D42" s="48">
         <f>E32</f>
         <v>0.99931553730321698</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C43" s="116" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="34">
+      <c r="C43" s="137" t="s">
+        <v>653</v>
+      </c>
+      <c r="D43" s="138">
         <f>E33</f>
         <v>1.998631074606434</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C44" s="116" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="30">
-        <f>G37/G41</f>
+      <c r="C44" s="137" t="s">
+        <v>654</v>
+      </c>
+      <c r="D44" s="55">
+        <f>G37/D41</f>
         <v>0.90968824516470903</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
         <v>3</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="B46" s="57" t="s">
         <v>191</v>
       </c>
+      <c r="C46" s="57"/>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C47" s="116" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="92" t="s">
-        <v>537</v>
+      <c r="C47" s="142" t="s">
+        <v>647</v>
+      </c>
+      <c r="D47" s="140" t="s">
+        <v>535</v>
       </c>
       <c r="E47" s="1">
         <v>10000</v>
       </c>
-      <c r="G47" s="96" t="s">
-        <v>538</v>
-      </c>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C48" s="116" t="s">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="135" t="s">
         <v>177</v>
+      </c>
+      <c r="C48" s="136" t="s">
+        <v>651</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>178</v>
@@ -5808,21 +5909,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="117" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="139" t="s">
         <v>99</v>
+      </c>
+      <c r="C49" s="139" t="s">
+        <v>654</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>179</v>
       </c>
       <c r="E49" s="46">
-        <f>G44</f>
+        <f>D44</f>
         <v>0.90968824516470903</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="113" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="143" t="s">
         <v>196</v>
+      </c>
+      <c r="C50" s="143" t="s">
+        <v>655</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>197</v>
@@ -5832,12 +5939,15 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="113" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="143" t="s">
         <v>198</v>
       </c>
+      <c r="C51" s="143" t="s">
+        <v>656</v>
+      </c>
       <c r="D51" s="6" t="s">
-        <v>199</v>
+        <v>657</v>
       </c>
       <c r="E51" s="30">
         <f>E50*E49</f>
@@ -5847,21 +5957,27 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="113" t="s">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="143" t="s">
         <v>200</v>
       </c>
+      <c r="C52" s="143" t="s">
+        <v>658</v>
+      </c>
       <c r="D52" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E52" s="14">
         <f>E51*E47</f>
         <v>5640.0671200211964</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="113" t="s">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="143" t="s">
         <v>203</v>
+      </c>
+      <c r="C53" s="143" t="s">
+        <v>659</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>202</v>
@@ -5871,9 +5987,12 @@
         <v>215.45056398480969</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="113" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="143" t="s">
         <v>204</v>
+      </c>
+      <c r="C54" s="143" t="s">
+        <v>660</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>205</v>
@@ -5883,108 +6002,112 @@
         <v>5855.5176840060058</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="31" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="31" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="31" t="s">
+      <c r="C56" s="31"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="31" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
+      <c r="C57" s="31"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="1" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="1" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="1" t="s">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="1" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="1">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
         <v>12000</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="1">
-        <f>C68*30%</f>
+        <f>B68*30%</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="1">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
         <v>25000</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E69" s="1">
-        <f>C69*40%</f>
+        <f>B69*40%</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E70" s="1">
         <f>SUM(E68:E69)</f>
         <v>13600</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C71" s="15" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="15" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="113" t="s">
+      <c r="C71" s="15"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="112" t="s">
         <v>225</v>
       </c>
+      <c r="C72" s="112"/>
       <c r="D72" s="6" t="s">
         <v>195</v>
       </c>
@@ -5992,10 +6115,11 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C73" s="113" t="s">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="112" t="s">
         <v>226</v>
       </c>
+      <c r="C73" s="112"/>
       <c r="D73" s="6" t="s">
         <v>195</v>
       </c>
@@ -6003,10 +6127,11 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C74" s="113" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="112" t="s">
         <v>177</v>
       </c>
+      <c r="C74" s="112"/>
       <c r="D74" s="6" t="s">
         <v>178</v>
       </c>
@@ -6014,10 +6139,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="113" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="112" t="s">
         <v>227</v>
       </c>
+      <c r="C75" s="112"/>
       <c r="D75" s="6" t="s">
         <v>229</v>
       </c>
@@ -6025,10 +6151,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C76" s="113" t="s">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="112" t="s">
         <v>228</v>
       </c>
+      <c r="C76" s="112"/>
       <c r="D76" s="6" t="s">
         <v>230</v>
       </c>
@@ -6036,10 +6163,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C77" s="113" t="s">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="112" t="s">
         <v>99</v>
       </c>
+      <c r="C77" s="112"/>
       <c r="D77" s="6" t="s">
         <v>179</v>
       </c>
@@ -6047,10 +6175,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C78" s="113" t="s">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="112" t="s">
         <v>196</v>
       </c>
+      <c r="C78" s="112"/>
       <c r="D78" s="6" t="s">
         <v>197</v>
       </c>
@@ -6059,10 +6188,11 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C79" s="113" t="s">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="112" t="s">
         <v>231</v>
       </c>
+      <c r="C79" s="112"/>
       <c r="D79" s="6" t="s">
         <v>233</v>
       </c>
@@ -6071,10 +6201,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C80" s="113" t="s">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="112" t="s">
         <v>232</v>
       </c>
+      <c r="C80" s="112"/>
       <c r="D80" s="6" t="s">
         <v>234</v>
       </c>
@@ -6083,10 +6214,11 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="113" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="112" t="s">
         <v>200</v>
       </c>
+      <c r="C81" s="112"/>
       <c r="D81" s="6" t="s">
         <v>235</v>
       </c>
@@ -6095,10 +6227,11 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="113" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="112" t="s">
         <v>203</v>
       </c>
+      <c r="C82" s="112"/>
       <c r="D82" s="6" t="s">
         <v>236</v>
       </c>
@@ -6107,10 +6240,11 @@
         <v>137.51999999999998</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83" s="113" t="s">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="112" t="s">
         <v>204</v>
       </c>
+      <c r="C83" s="112"/>
       <c r="D83" s="6" t="s">
         <v>205</v>
       </c>
@@ -6119,57 +6253,64 @@
         <v>11737.52</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="62"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
       <c r="E84" s="29"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="31" t="s">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="31" t="s">
         <v>314</v>
       </c>
+      <c r="C85" s="31"/>
       <c r="D85" s="62"/>
       <c r="E85" s="29"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C86" s="31" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="31" t="s">
         <v>224</v>
       </c>
+      <c r="C86" s="31"/>
       <c r="D86" s="62"/>
       <c r="E86" s="29"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="1" t="s">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D87" s="62"/>
       <c r="E87" s="29"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C88" s="62" t="s">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="62" t="s">
         <v>316</v>
       </c>
+      <c r="C88" s="62"/>
       <c r="D88" s="62"/>
       <c r="E88" s="29"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C89" s="62" t="s">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="62" t="s">
         <v>317</v>
       </c>
+      <c r="C89" s="62"/>
       <c r="D89" s="62"/>
       <c r="E89" s="29"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C90" s="63" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="63" t="s">
         <v>319</v>
       </c>
+      <c r="C90" s="63"/>
       <c r="D90" s="62"/>
       <c r="E90" s="29"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91" s="62" t="s">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="62" t="s">
         <v>165</v>
       </c>
+      <c r="C91" s="62"/>
       <c r="D91" s="62" t="s">
         <v>245</v>
       </c>
@@ -6177,21 +6318,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C92" s="6" t="s">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="C92" s="6"/>
       <c r="D92" s="92" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E92" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C93" s="6" t="s">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="C93" s="6"/>
       <c r="D93" s="6" t="s">
         <v>178</v>
       </c>
@@ -6199,10 +6342,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C94" s="6" t="s">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="C94" s="6"/>
       <c r="D94" s="6" t="s">
         <v>179</v>
       </c>
@@ -6210,10 +6354,11 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C95" s="6" t="s">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
         <v>196</v>
       </c>
+      <c r="C95" s="6"/>
       <c r="D95" s="6" t="s">
         <v>197</v>
       </c>
@@ -6222,10 +6367,11 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96" s="6" t="s">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
         <v>198</v>
       </c>
+      <c r="C96" s="6"/>
       <c r="D96" s="6" t="s">
         <v>199</v>
       </c>
@@ -6234,10 +6380,11 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="6" t="s">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
         <v>318</v>
       </c>
+      <c r="C97" s="6"/>
       <c r="D97" s="6" t="s">
         <v>320</v>
       </c>
@@ -6245,10 +6392,11 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="6" t="s">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="C98" s="6"/>
       <c r="D98" s="6" t="s">
         <v>322</v>
       </c>
@@ -6260,10 +6408,11 @@
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C99" s="6" t="s">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
         <v>200</v>
       </c>
+      <c r="C99" s="6"/>
       <c r="D99" s="6" t="s">
         <v>201</v>
       </c>
@@ -6272,10 +6421,11 @@
         <v>6580</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="6" t="s">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
         <v>203</v>
       </c>
+      <c r="C100" s="6"/>
       <c r="D100" s="6" t="s">
         <v>202</v>
       </c>
@@ -6284,10 +6434,11 @@
         <v>251.35599999999999</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="6" t="s">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="C101" s="6"/>
       <c r="D101" s="6" t="s">
         <v>205</v>
       </c>
@@ -6296,22 +6447,25 @@
         <v>6831.3559999999998</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="62"/>
       <c r="C102" s="62"/>
       <c r="D102" s="62"/>
       <c r="E102" s="29"/>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="63" t="s">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="63" t="s">
         <v>324</v>
       </c>
+      <c r="C103" s="63"/>
       <c r="D103" s="62"/>
       <c r="E103" s="29"/>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C104" s="62" t="s">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="62" t="s">
         <v>165</v>
       </c>
+      <c r="C104" s="62"/>
       <c r="D104" s="62" t="s">
         <v>245</v>
       </c>
@@ -6319,21 +6473,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C105" s="6" t="s">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="C105" s="6"/>
       <c r="D105" s="92" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E105" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="6" t="s">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="C106" s="6"/>
       <c r="D106" s="6" t="s">
         <v>178</v>
       </c>
@@ -6341,10 +6497,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C107" s="6" t="s">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="C107" s="6"/>
       <c r="D107" s="6" t="s">
         <v>179</v>
       </c>
@@ -6352,10 +6509,11 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C108" s="6" t="s">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
         <v>196</v>
       </c>
+      <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
         <v>197</v>
       </c>
@@ -6364,10 +6522,11 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C109" s="6" t="s">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
         <v>198</v>
       </c>
+      <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
         <v>199</v>
       </c>
@@ -6376,10 +6535,11 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C110" s="6" t="s">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
         <v>200</v>
       </c>
+      <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
         <v>201</v>
       </c>
@@ -6388,10 +6548,11 @@
         <v>5580.0000000000009</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C111" s="6" t="s">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
         <v>203</v>
       </c>
+      <c r="C111" s="6"/>
       <c r="D111" s="6" t="s">
         <v>202</v>
       </c>
@@ -6400,10 +6561,11 @@
         <v>213.15600000000003</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C112" s="6" t="s">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
         <v>325</v>
       </c>
+      <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
         <v>326</v>
       </c>
@@ -6411,10 +6573,11 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C113" s="6" t="s">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
         <v>327</v>
       </c>
@@ -6423,10 +6586,11 @@
         <v>7293.1560000000009</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C114" s="6" t="s">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
         <v>328</v>
       </c>
+      <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
         <v>329</v>
       </c>
@@ -6438,10 +6602,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C115" s="6" t="s">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
         <v>332</v>
       </c>
@@ -6453,22 +6618,25 @@
         <v>333</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="62"/>
       <c r="C116" s="62"/>
       <c r="D116" s="62"/>
       <c r="E116" s="29"/>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C117" s="63" t="s">
-        <v>592</v>
-      </c>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="63" t="s">
+        <v>589</v>
+      </c>
+      <c r="C117" s="63"/>
       <c r="D117" s="62"/>
       <c r="E117" s="29"/>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="62" t="s">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="62" t="s">
         <v>165</v>
       </c>
+      <c r="C118" s="62"/>
       <c r="D118" s="62" t="s">
         <v>245</v>
       </c>
@@ -6476,21 +6644,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C119" s="6" t="s">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="C119" s="6"/>
       <c r="D119" s="92" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E119" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C120" s="6" t="s">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
         <v>178</v>
       </c>
@@ -6498,10 +6668,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C121" s="6" t="s">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
         <v>179</v>
       </c>
@@ -6509,10 +6680,11 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C122" s="6" t="s">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="s">
         <v>196</v>
       </c>
+      <c r="C122" s="6"/>
       <c r="D122" s="6" t="s">
         <v>197</v>
       </c>
@@ -6521,10 +6693,11 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C123" s="6" t="s">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
         <v>198</v>
       </c>
+      <c r="C123" s="6"/>
       <c r="D123" s="6" t="s">
         <v>199</v>
       </c>
@@ -6533,10 +6706,11 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C124" s="6" t="s">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="s">
         <v>200</v>
       </c>
+      <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
         <v>201</v>
       </c>
@@ -6545,10 +6719,11 @@
         <v>5580.0000000000009</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C125" s="6" t="s">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
         <v>203</v>
       </c>
+      <c r="C125" s="6"/>
       <c r="D125" s="6" t="s">
         <v>202</v>
       </c>
@@ -6557,10 +6732,11 @@
         <v>213.15600000000003</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C126" s="6" t="s">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
         <v>334</v>
       </c>
+      <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
         <v>326</v>
       </c>
@@ -6568,10 +6744,11 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C127" s="6" t="s">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
         <v>335</v>
       </c>
+      <c r="C127" s="6"/>
       <c r="D127" s="6" t="s">
         <v>336</v>
       </c>
@@ -6579,10 +6756,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C128" s="6" t="s">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
         <v>338</v>
       </c>
+      <c r="C128" s="6"/>
       <c r="D128" s="6" t="s">
         <v>339</v>
       </c>
@@ -6591,10 +6769,11 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C129" s="6" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
         <v>340</v>
       </c>
+      <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
         <v>337</v>
       </c>
@@ -6603,10 +6782,11 @@
         <v>11793.156000000001</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C130" s="6" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
         <v>328</v>
       </c>
+      <c r="C130" s="6"/>
       <c r="D130" s="6" t="s">
         <v>341</v>
       </c>
@@ -6618,7 +6798,8 @@
         <v>342</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="62"/>
       <c r="C131" s="62"/>
       <c r="D131" s="62"/>
       <c r="E131" s="29"/>
@@ -6626,130 +6807,137 @@
         <v>343</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C132" s="63" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="63" t="s">
         <v>521</v>
       </c>
+      <c r="C132" s="63"/>
       <c r="D132" s="62"/>
       <c r="E132" s="29"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C133" s="63" t="s">
-        <v>593</v>
-      </c>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="63" t="s">
+        <v>590</v>
+      </c>
+      <c r="C133" s="63"/>
       <c r="D133" s="62"/>
       <c r="E133" s="29"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="15">
         <v>4</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="B135" s="15" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C136" s="1" t="s">
+      <c r="C135" s="15"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="1" t="s">
+    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="122" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C138" s="1" t="s">
+      <c r="D137" s="130" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D138" s="122"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C139" s="1" t="s">
+      <c r="D138" s="130"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D139" s="122"/>
-      <c r="E139" s="101">
+      <c r="D139" s="130"/>
+      <c r="E139" s="100">
         <v>45008</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C140" s="1" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D140" s="122"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C141" s="1" t="s">
+      <c r="D140" s="130"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D141" s="122"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C142" s="1" t="s">
+      <c r="D141" s="130"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="122"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C143" s="1" t="s">
+      <c r="D142" s="130"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D143" s="122"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C144" s="1" t="s">
+      <c r="D143" s="130"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D144" s="122"/>
-    </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C146" s="56" t="s">
+      <c r="D144" s="130"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="56" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C147" s="31" t="s">
+      <c r="C146" s="56"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="31" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C148" s="1" t="s">
+      <c r="C147" s="31"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C149" s="1" t="s">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C150" s="1" t="s">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C151" s="1" t="s">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C152" s="1" t="s">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C154" s="31" t="s">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C155" s="6" t="s">
+      <c r="C154" s="31"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="C155" s="6"/>
       <c r="D155" s="6" t="s">
         <v>245</v>
       </c>
@@ -6757,10 +6945,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C156" s="6" t="s">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="s">
         <v>182</v>
       </c>
+      <c r="C156" s="6"/>
       <c r="D156" s="6" t="s">
         <v>181</v>
       </c>
@@ -6768,10 +6957,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C157" s="6" t="s">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="6" t="s">
         <v>157</v>
       </c>
+      <c r="C157" s="6"/>
       <c r="D157" s="6" t="s">
         <v>181</v>
       </c>
@@ -6779,10 +6969,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C158" s="6" t="s">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="s">
         <v>252</v>
       </c>
+      <c r="C158" s="6"/>
       <c r="D158" s="6" t="s">
         <v>253</v>
       </c>
@@ -6790,10 +6981,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C159" s="6" t="s">
+    <row r="159" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B159" s="6" t="s">
         <v>246</v>
       </c>
+      <c r="C159" s="6"/>
       <c r="D159" s="7" t="s">
         <v>247</v>
       </c>
@@ -6801,10 +6993,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C160" s="6" t="s">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="C160" s="6"/>
       <c r="D160" s="6" t="s">
         <v>181</v>
       </c>
@@ -6815,10 +7008,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="161" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C161" s="6" t="s">
+    <row r="161" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B161" s="6" t="s">
         <v>248</v>
       </c>
+      <c r="C161" s="6"/>
       <c r="D161" s="7" t="s">
         <v>249</v>
       </c>
@@ -6827,10 +7021,11 @@
         <v>461.46746654360862</v>
       </c>
     </row>
-    <row r="162" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C162" s="6" t="s">
+    <row r="162" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B162" s="6" t="s">
         <v>251</v>
       </c>
+      <c r="C162" s="6"/>
       <c r="D162" s="7" t="s">
         <v>254</v>
       </c>
@@ -6839,96 +7034,108 @@
         <v>20766.035994462389</v>
       </c>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C164" s="26" t="s">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="26" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="31" t="s">
+      <c r="C164" s="26"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="31" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="1" t="s">
+      <c r="C165" s="31"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="1" t="s">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="49">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="49">
         <v>1</v>
       </c>
+      <c r="C168" s="49"/>
       <c r="D168" s="49" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="49">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="49">
         <v>2</v>
       </c>
+      <c r="C169" s="49"/>
       <c r="D169" s="49" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="49">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="49">
         <v>3</v>
       </c>
+      <c r="C170" s="49"/>
       <c r="D170" s="49" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="49" t="s">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="49" t="s">
         <v>260</v>
       </c>
+      <c r="C172" s="49"/>
       <c r="D172" s="49"/>
       <c r="E172" s="49"/>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="49" t="s">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="49" t="s">
         <v>261</v>
       </c>
+      <c r="C173" s="49"/>
       <c r="D173" s="49"/>
       <c r="E173" s="49"/>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="49" t="s">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="49" t="s">
         <v>262</v>
       </c>
+      <c r="C174" s="49"/>
       <c r="D174" s="49"/>
       <c r="E174" s="49"/>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="49" t="s">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="49" t="s">
         <v>263</v>
       </c>
+      <c r="C175" s="49"/>
       <c r="D175" s="49"/>
       <c r="E175" s="49"/>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="49" t="s">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="49" t="s">
         <v>264</v>
       </c>
+      <c r="C176" s="49"/>
       <c r="D176" s="49"/>
       <c r="E176" s="49"/>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C177" s="50" t="s">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="50" t="s">
         <v>265</v>
       </c>
+      <c r="C177" s="50"/>
       <c r="D177" s="51"/>
       <c r="E177" s="51"/>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C178" s="51" t="s">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="51" t="s">
         <v>266</v>
       </c>
+      <c r="C178" s="51"/>
       <c r="D178" s="52" t="s">
         <v>267</v>
       </c>
@@ -6936,10 +7143,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C179" s="51">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="51">
         <v>1</v>
       </c>
+      <c r="C179" s="51"/>
       <c r="D179" s="51">
         <v>0</v>
       </c>
@@ -6947,10 +7155,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C180" s="51">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="51">
         <v>50</v>
       </c>
+      <c r="C180" s="51"/>
       <c r="D180" s="53">
         <v>0.3</v>
       </c>
@@ -6958,10 +7167,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C181" s="51">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="51">
         <v>51</v>
       </c>
+      <c r="C181" s="51"/>
       <c r="D181" s="53">
         <v>0.4</v>
       </c>
@@ -6969,10 +7179,11 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C182" s="51">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="51">
         <v>52</v>
       </c>
+      <c r="C182" s="51"/>
       <c r="D182" s="53">
         <v>0.5</v>
       </c>
@@ -6980,10 +7191,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C183" s="51">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="51">
         <v>53</v>
       </c>
+      <c r="C183" s="51"/>
       <c r="D183" s="53">
         <v>0.6</v>
       </c>
@@ -6991,10 +7203,11 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C184" s="51">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="51">
         <v>54</v>
       </c>
+      <c r="C184" s="51"/>
       <c r="D184" s="53">
         <v>0.7</v>
       </c>
@@ -7002,10 +7215,11 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C185" s="51">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="51">
         <v>55</v>
       </c>
+      <c r="C185" s="51"/>
       <c r="D185" s="54">
         <f>IF(YEAR('[1]חישוב זכויות פנסיה תקציבית'!D154)&lt;1966,100%,80%)</f>
         <v>1</v>
@@ -7014,10 +7228,11 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C186" s="51">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B186" s="51">
         <v>56</v>
       </c>
+      <c r="C186" s="51"/>
       <c r="D186" s="54">
         <f>IF(YEAR('[1]חישוב זכויות פנסיה תקציבית'!D154)&lt;1966,100%,90%)</f>
         <v>1</v>
@@ -7026,10 +7241,11 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C187" s="51">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B187" s="51">
         <v>57</v>
       </c>
+      <c r="C187" s="51"/>
       <c r="D187" s="53">
         <v>1</v>
       </c>
@@ -7037,15 +7253,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C189" s="31" t="s">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B189" s="31" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C190" s="6" t="s">
+      <c r="C189" s="31"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B190" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="C190" s="6"/>
       <c r="D190" s="6" t="s">
         <v>245</v>
       </c>
@@ -7053,10 +7271,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="3:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C191" s="6" t="s">
+    <row r="191" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B191" s="6" t="s">
         <v>271</v>
       </c>
+      <c r="C191" s="6"/>
       <c r="D191" s="7" t="s">
         <v>274</v>
       </c>
@@ -7064,10 +7283,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="192" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C192" s="6" t="s">
+    <row r="192" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B192" s="6" t="s">
         <v>276</v>
       </c>
+      <c r="C192" s="6"/>
       <c r="D192" s="7" t="s">
         <v>277</v>
       </c>
@@ -7079,10 +7299,11 @@
         <v>278</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C193" s="6" t="s">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="6" t="s">
         <v>279</v>
       </c>
+      <c r="C193" s="6"/>
       <c r="D193" s="6" t="s">
         <v>280</v>
       </c>
@@ -7090,10 +7311,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C194" s="6" t="s">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="6" t="s">
         <v>281</v>
       </c>
+      <c r="C194" s="6"/>
       <c r="D194" s="7" t="s">
         <v>282</v>
       </c>
@@ -7102,10 +7324,11 @@
         <v>344</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C195" s="6" t="s">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="6" t="s">
         <v>283</v>
       </c>
+      <c r="C195" s="6"/>
       <c r="D195" s="6" t="s">
         <v>284</v>
       </c>
@@ -7114,10 +7337,11 @@
         <v>0.46236559139784944</v>
       </c>
     </row>
-    <row r="196" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C196" s="6" t="s">
+    <row r="196" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B196" s="6" t="s">
         <v>285</v>
       </c>
+      <c r="C196" s="6"/>
       <c r="D196" s="7" t="s">
         <v>286</v>
       </c>
@@ -7125,10 +7349,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C197" s="6" t="s">
+    <row r="197" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B197" s="6" t="s">
         <v>287</v>
       </c>
+      <c r="C197" s="6"/>
       <c r="D197" s="7" t="s">
         <v>288</v>
       </c>
@@ -7137,10 +7362,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C198" s="6" t="s">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B198" s="6" t="s">
         <v>292</v>
       </c>
+      <c r="C198" s="6"/>
       <c r="D198" s="6" t="s">
         <v>290</v>
       </c>
@@ -7151,10 +7377,11 @@
         <v>289</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C199" s="6" t="s">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B199" s="6" t="s">
         <v>248</v>
       </c>
+      <c r="C199" s="6"/>
       <c r="D199" s="6" t="s">
         <v>291</v>
       </c>
@@ -7163,10 +7390,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="200" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C200" s="6" t="s">
+    <row r="200" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B200" s="6" t="s">
         <v>293</v>
       </c>
+      <c r="C200" s="6"/>
       <c r="D200" s="7" t="s">
         <v>294</v>
       </c>
@@ -7174,10 +7402,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C201" s="6" t="s">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B201" s="6" t="s">
         <v>295</v>
       </c>
+      <c r="C201" s="6"/>
       <c r="D201" s="6" t="s">
         <v>296</v>
       </c>
@@ -7186,53 +7415,61 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B202" s="62"/>
       <c r="C202" s="62"/>
       <c r="D202" s="62"/>
       <c r="E202" s="83"/>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C203" s="62" t="s">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B203" s="62" t="s">
         <v>456</v>
       </c>
+      <c r="C203" s="62"/>
       <c r="D203" s="62"/>
       <c r="E203" s="83"/>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C204" s="62" t="s">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="62" t="s">
         <v>463</v>
       </c>
+      <c r="C204" s="62"/>
       <c r="D204" s="62"/>
       <c r="E204" s="83"/>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C205" s="62" t="s">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="62" t="s">
         <v>464</v>
       </c>
+      <c r="C205" s="62"/>
       <c r="D205" s="62"/>
       <c r="E205" s="83"/>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C206" s="62" t="s">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="62" t="s">
         <v>465</v>
       </c>
+      <c r="C206" s="62"/>
       <c r="D206" s="62"/>
       <c r="E206" s="83"/>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="62"/>
       <c r="C207" s="62"/>
       <c r="D207" s="62"/>
       <c r="E207" s="83"/>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C208" s="31" t="s">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="31" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C209" s="6" t="s">
+      <c r="C208" s="31"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="C209" s="6"/>
       <c r="D209" s="6" t="s">
         <v>245</v>
       </c>
@@ -7240,10 +7477,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="210" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C210" s="6" t="s">
+    <row r="210" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B210" s="6" t="s">
         <v>271</v>
       </c>
+      <c r="C210" s="6"/>
       <c r="D210" s="7" t="s">
         <v>274</v>
       </c>
@@ -7251,10 +7489,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="211" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C211" s="6" t="s">
+    <row r="211" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B211" s="6" t="s">
         <v>467</v>
       </c>
+      <c r="C211" s="6"/>
       <c r="D211" s="7" t="s">
         <v>468</v>
       </c>
@@ -7262,10 +7501,11 @@
         <v>600</v>
       </c>
     </row>
-    <row r="212" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C212" s="6" t="s">
+    <row r="212" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B212" s="6" t="s">
         <v>469</v>
       </c>
+      <c r="C212" s="6"/>
       <c r="D212" s="7" t="s">
         <v>470</v>
       </c>
@@ -7273,10 +7513,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C213" s="6" t="s">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" s="6" t="s">
         <v>471</v>
       </c>
+      <c r="C213" s="6"/>
       <c r="D213" s="7" t="s">
         <v>472</v>
       </c>
@@ -7285,10 +7526,11 @@
         <v>900</v>
       </c>
     </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C214" s="6" t="s">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="6" t="s">
         <v>279</v>
       </c>
+      <c r="C214" s="6"/>
       <c r="D214" s="6" t="s">
         <v>280</v>
       </c>
@@ -7296,10 +7538,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C215" s="6" t="s">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="6" t="s">
         <v>281</v>
       </c>
+      <c r="C215" s="6"/>
       <c r="D215" s="7" t="s">
         <v>282</v>
       </c>
@@ -7308,10 +7551,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C216" s="6" t="s">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="6" t="s">
         <v>283</v>
       </c>
+      <c r="C216" s="6"/>
       <c r="D216" s="6" t="s">
         <v>284</v>
       </c>
@@ -7320,10 +7564,11 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="217" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C217" s="6" t="s">
+    <row r="217" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B217" s="6" t="s">
         <v>285</v>
       </c>
+      <c r="C217" s="6"/>
       <c r="D217" s="7" t="s">
         <v>286</v>
       </c>
@@ -7331,10 +7576,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C218" s="6" t="s">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="6" t="s">
         <v>473</v>
       </c>
+      <c r="C218" s="6"/>
       <c r="D218" s="7" t="s">
         <v>474</v>
       </c>
@@ -7342,10 +7588,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="219" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C219" s="6" t="s">
+    <row r="219" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B219" s="6" t="s">
         <v>475</v>
       </c>
+      <c r="C219" s="6"/>
       <c r="D219" s="7" t="s">
         <v>476</v>
       </c>
@@ -7354,10 +7601,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C220" s="6" t="s">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="6" t="s">
         <v>479</v>
       </c>
+      <c r="C220" s="6"/>
       <c r="D220" s="6" t="s">
         <v>290</v>
       </c>
@@ -7365,10 +7613,11 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C221" s="6" t="s">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="6" t="s">
         <v>481</v>
       </c>
+      <c r="C221" s="6"/>
       <c r="D221" s="7" t="s">
         <v>482</v>
       </c>
@@ -7377,10 +7626,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C222" s="6" t="s">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="6" t="s">
         <v>483</v>
       </c>
+      <c r="C222" s="6"/>
       <c r="D222" s="7" t="s">
         <v>484</v>
       </c>
@@ -7389,10 +7639,11 @@
         <v>27600</v>
       </c>
     </row>
-    <row r="223" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C223" s="6" t="s">
+    <row r="223" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B223" s="6" t="s">
         <v>477</v>
       </c>
+      <c r="C223" s="6"/>
       <c r="D223" s="84" t="s">
         <v>478</v>
       </c>
@@ -7401,10 +7652,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C224" s="6" t="s">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="6" t="s">
         <v>480</v>
       </c>
+      <c r="C224" s="6"/>
       <c r="D224" s="6" t="s">
         <v>290</v>
       </c>
@@ -7412,10 +7664,11 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C225" s="6" t="s">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B225" s="6" t="s">
         <v>248</v>
       </c>
+      <c r="C225" s="6"/>
       <c r="D225" s="6" t="s">
         <v>291</v>
       </c>
@@ -7424,10 +7677,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C226" s="6" t="s">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="6" t="s">
         <v>485</v>
       </c>
+      <c r="C226" s="6"/>
       <c r="D226" s="7" t="s">
         <v>484</v>
       </c>
@@ -7436,10 +7690,11 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C227" s="6" t="s">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B227" s="6" t="s">
         <v>486</v>
       </c>
+      <c r="C227" s="6"/>
       <c r="D227" s="7" t="s">
         <v>487</v>
       </c>
@@ -7448,10 +7703,11 @@
         <v>47600</v>
       </c>
     </row>
-    <row r="228" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C228" s="6" t="s">
+    <row r="228" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B228" s="6" t="s">
         <v>293</v>
       </c>
+      <c r="C228" s="6"/>
       <c r="D228" s="7" t="s">
         <v>294</v>
       </c>
@@ -7459,10 +7715,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C229" s="6" t="s">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B229" s="6" t="s">
         <v>295</v>
       </c>
+      <c r="C229" s="6"/>
       <c r="D229" s="6" t="s">
         <v>296</v>
       </c>
@@ -7471,67 +7728,77 @@
         <v>47600</v>
       </c>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B230" s="62"/>
       <c r="C230" s="62"/>
       <c r="D230" s="62"/>
       <c r="E230" s="83"/>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C232" s="26" t="s">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B232" s="26" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C233" s="31" t="s">
+      <c r="C232" s="26"/>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B233" s="31" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C234" s="49" t="s">
+      <c r="C233" s="31"/>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B234" s="49" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C235" s="49" t="s">
+      <c r="C234" s="49"/>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B235" s="49" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C236" s="49" t="s">
+      <c r="C235" s="49"/>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B236" s="49" t="s">
         <v>300</v>
       </c>
+      <c r="C236" s="49"/>
       <c r="D236" s="49" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C237" s="49" t="s">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B237" s="49" t="s">
         <v>302</v>
       </c>
+      <c r="C237" s="49"/>
       <c r="D237" s="49"/>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C239" s="49" t="s">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B239" s="49" t="s">
         <v>213</v>
       </c>
+      <c r="C239" s="49"/>
       <c r="D239" s="49"/>
       <c r="E239" s="49"/>
       <c r="F239" s="49"/>
       <c r="G239" s="49"/>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C240" s="49" t="s">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B240" s="49" t="s">
         <v>303</v>
       </c>
+      <c r="C240" s="49"/>
       <c r="D240" s="49"/>
       <c r="E240" s="49"/>
       <c r="F240" s="49"/>
       <c r="G240" s="49"/>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C241" s="49" t="s">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B241" s="49" t="s">
         <v>304</v>
       </c>
+      <c r="C241" s="49"/>
       <c r="D241" s="49" t="s">
         <v>305</v>
       </c>
@@ -7544,10 +7811,11 @@
       </c>
       <c r="G241" s="49"/>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C242" s="49" t="s">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B242" s="49" t="s">
         <v>307</v>
       </c>
+      <c r="C242" s="49"/>
       <c r="D242" s="49"/>
       <c r="E242" s="59">
         <v>0.76</v>
@@ -7555,7 +7823,8 @@
       <c r="F242" s="49"/>
       <c r="G242" s="49"/>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B243" s="49"/>
       <c r="C243" s="49"/>
       <c r="D243" s="49"/>
       <c r="E243" s="59">
@@ -7564,7 +7833,8 @@
       <c r="F243" s="49"/>
       <c r="G243" s="49"/>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B244" s="49"/>
       <c r="C244" s="49"/>
       <c r="D244" s="49"/>
       <c r="E244" s="59">
@@ -7576,7 +7846,8 @@
       </c>
       <c r="G244" s="49"/>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B245" s="49"/>
       <c r="C245" s="49"/>
       <c r="D245" s="49"/>
       <c r="E245" s="60">
@@ -7588,7 +7859,8 @@
       </c>
       <c r="G245" s="49"/>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B246" s="49"/>
       <c r="C246" s="49"/>
       <c r="D246" s="49" t="s">
         <v>310</v>
@@ -7601,7 +7873,8 @@
       </c>
       <c r="G246" s="49"/>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B247" s="49"/>
       <c r="C247" s="49"/>
       <c r="D247" s="49" t="s">
         <v>312</v>
@@ -7613,25 +7886,27 @@
       <c r="F247" s="49"/>
       <c r="G247" s="49"/>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C249" s="1" t="s">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C250" s="1" t="s">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C252" s="31" t="s">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B252" s="31" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C253" s="6" t="s">
+      <c r="C252" s="31"/>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B253" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="C253" s="6"/>
       <c r="D253" s="6" t="s">
         <v>245</v>
       </c>
@@ -7639,10 +7914,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C254" s="6" t="s">
+    <row r="254" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B254" s="6" t="s">
         <v>345</v>
       </c>
+      <c r="C254" s="6"/>
       <c r="D254" s="7" t="s">
         <v>346</v>
       </c>
@@ -7650,10 +7926,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="255" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C255" s="6" t="s">
+    <row r="255" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B255" s="6" t="s">
         <v>347</v>
       </c>
+      <c r="C255" s="6"/>
       <c r="D255" s="7" t="s">
         <v>348</v>
       </c>
@@ -7661,10 +7938,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C256" s="6" t="s">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B256" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="C256" s="6"/>
       <c r="D256" s="6" t="s">
         <v>349</v>
       </c>
@@ -7672,10 +7950,11 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="257" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C257" s="6" t="s">
+    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B257" s="6" t="s">
         <v>312</v>
       </c>
+      <c r="C257" s="6"/>
       <c r="D257" s="7" t="s">
         <v>350</v>
       </c>
@@ -7684,25 +7963,28 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="259" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C259" s="26" t="s">
+    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B259" s="26" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="260" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C260" s="31" t="s">
+      <c r="C259" s="26"/>
+    </row>
+    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B260" s="31" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="261" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C261" s="1" t="s">
+      <c r="C260" s="31"/>
+    </row>
+    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="262" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C262" s="44" t="s">
+    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B262" s="44" t="s">
         <v>352</v>
       </c>
+      <c r="C262" s="44"/>
       <c r="F262" s="49"/>
       <c r="G262" s="49"/>
       <c r="H262" s="49"/>
@@ -7712,8 +7994,8 @@
       <c r="L262" s="49"/>
       <c r="M262" s="49"/>
     </row>
-    <row r="263" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C263" s="1" t="s">
+    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
         <v>353</v>
       </c>
       <c r="F263" s="49"/>
@@ -7725,8 +8007,8 @@
       <c r="L263" s="49"/>
       <c r="M263" s="49"/>
     </row>
-    <row r="264" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C264" s="1" t="s">
+    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F264" s="49"/>
@@ -7738,8 +8020,8 @@
       <c r="L264" s="49"/>
       <c r="M264" s="49"/>
     </row>
-    <row r="265" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C265" s="1" t="s">
+    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
         <v>355</v>
       </c>
       <c r="F265" s="49"/>
@@ -7751,10 +8033,11 @@
       <c r="L265" s="49"/>
       <c r="M265" s="49"/>
     </row>
-    <row r="266" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C266" s="25" t="s">
+    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B266" s="25" t="s">
         <v>360</v>
       </c>
+      <c r="C266" s="25"/>
       <c r="E266" s="33"/>
       <c r="F266" s="66"/>
       <c r="G266" s="49"/>
@@ -7765,10 +8048,11 @@
       <c r="L266" s="49"/>
       <c r="M266" s="49"/>
     </row>
-    <row r="267" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C267" s="25" t="s">
+    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B267" s="25" t="s">
         <v>361</v>
       </c>
+      <c r="C267" s="25"/>
       <c r="E267" s="33"/>
       <c r="F267" s="66"/>
       <c r="G267" s="49"/>
@@ -7780,10 +8064,11 @@
       <c r="L267" s="49"/>
       <c r="M267" s="49"/>
     </row>
-    <row r="268" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C268" s="25" t="s">
+    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B268" s="25" t="s">
         <v>357</v>
       </c>
+      <c r="C268" s="25"/>
       <c r="E268" s="1" t="s">
         <v>362</v>
       </c>
@@ -7796,8 +8081,8 @@
       <c r="L268" s="49"/>
       <c r="M268" s="49"/>
     </row>
-    <row r="269" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C269" s="1" t="s">
+    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
         <v>358</v>
       </c>
       <c r="F269" s="49"/>
@@ -7809,10 +8094,11 @@
       <c r="L269" s="49"/>
       <c r="M269" s="49"/>
     </row>
-    <row r="270" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C270" s="33" t="s">
+    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B270" s="33" t="s">
         <v>359</v>
       </c>
+      <c r="C270" s="33"/>
       <c r="F270" s="49"/>
       <c r="G270" s="49"/>
       <c r="H270" s="49"/>
@@ -7822,150 +8108,151 @@
       <c r="L270" s="49"/>
       <c r="M270" s="49"/>
     </row>
-    <row r="271" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C271" s="1" t="s">
+    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
         <v>367</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="272" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C272" s="1" t="s">
+    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
         <v>394</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C273" s="1" t="s">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
         <v>393</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C274" s="1" t="s">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C275" s="1" t="s">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C276" s="1" t="s">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C277" s="1" t="s">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
         <v>369</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C278" s="1" t="s">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
         <v>372</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C279" s="1" t="s">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C280" s="1" t="s">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C281" s="1" t="s">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C282" s="1" t="s">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
         <v>382</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C284" s="1" t="s">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C285" s="1" t="s">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C286" s="1" t="s">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C287" s="1" t="s">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C288" s="1" t="s">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C290" s="1" t="s">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C291" s="1" t="s">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C292" s="1" t="s">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C293" s="44" t="s">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B293" s="44" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C294" s="1" t="s">
+      <c r="C293" s="44"/>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B294" s="1" t="s">
         <v>401</v>
       </c>
       <c r="D294" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C295" s="1" t="s">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295" s="1" t="s">
         <v>363</v>
       </c>
       <c r="D295" s="1">
         <v>12000</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C296" s="1" t="s">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
         <v>405</v>
       </c>
       <c r="D296" s="1">
@@ -7973,48 +8260,48 @@
         <v>5388</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C297" s="1" t="s">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B297" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D297" s="1">
         <v>2237</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C298" s="1" t="s">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C299" s="1" t="s">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B299" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D299" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C300" s="1" t="s">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B300" s="1" t="s">
         <v>406</v>
       </c>
       <c r="D300" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C301" s="1" t="s">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301" s="1" t="s">
         <v>410</v>
       </c>
       <c r="D301" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C302" s="1" t="s">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302" s="1" t="s">
         <v>408</v>
       </c>
       <c r="D302" s="64">
@@ -8022,8 +8309,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C303" s="1" t="s">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303" s="1" t="s">
         <v>407</v>
       </c>
       <c r="D303" s="14">
@@ -8031,8 +8318,8 @@
         <v>5317.708333333333</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C304" s="1" t="s">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D304" s="64">
@@ -8040,8 +8327,8 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="305" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C305" s="1" t="s">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B305" s="1" t="s">
         <v>369</v>
       </c>
       <c r="D305" s="1">
@@ -8049,8 +8336,8 @@
         <v>8339.375</v>
       </c>
     </row>
-    <row r="306" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C306" s="1" t="s">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B306" s="1" t="s">
         <v>370</v>
       </c>
       <c r="D306" s="14">
@@ -8058,8 +8345,8 @@
         <v>3021.666666666667</v>
       </c>
     </row>
-    <row r="307" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C307" s="1" t="s">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B307" s="1" t="s">
         <v>412</v>
       </c>
       <c r="D307" s="1">
@@ -8067,24 +8354,24 @@
         <v>1813.0000000000005</v>
       </c>
     </row>
-    <row r="308" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C308" s="1" t="s">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
         <v>413</v>
       </c>
       <c r="D308" s="77">
         <v>7.3090000000000002</v>
       </c>
     </row>
-    <row r="309" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C309" s="1" t="s">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B309" s="1" t="s">
         <v>414</v>
       </c>
       <c r="D309" s="77">
         <v>2.093</v>
       </c>
     </row>
-    <row r="310" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C310" s="1" t="s">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B310" s="1" t="s">
         <v>415</v>
       </c>
       <c r="D310" s="14">
@@ -8092,8 +8379,8 @@
         <v>265024.34000000003</v>
       </c>
     </row>
-    <row r="311" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C311" s="1" t="s">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B311" s="1" t="s">
         <v>416</v>
       </c>
       <c r="D311" s="14">
@@ -8101,8 +8388,8 @@
         <v>45535.308000000012</v>
       </c>
     </row>
-    <row r="312" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C312" s="1" t="s">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B312" s="1" t="s">
         <v>382</v>
       </c>
       <c r="D312" s="14">
@@ -8110,8 +8397,8 @@
         <v>310559.64800000004</v>
       </c>
     </row>
-    <row r="314" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C314" s="1" t="s">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B314" s="1" t="s">
         <v>417</v>
       </c>
       <c r="D314" s="14">
@@ -8119,8 +8406,8 @@
         <v>127625</v>
       </c>
     </row>
-    <row r="315" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C315" s="1" t="s">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
         <v>418</v>
       </c>
       <c r="D315" s="14">
@@ -8128,20 +8415,22 @@
         <v>127625</v>
       </c>
     </row>
-    <row r="317" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C317" s="1" t="s">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B317" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="319" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C319" s="31" t="s">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B319" s="31" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="320" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C320" s="6" t="s">
+      <c r="C319" s="31"/>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B320" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="C320" s="6"/>
       <c r="D320" s="6" t="s">
         <v>245</v>
       </c>
@@ -8149,10 +8438,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="321" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C321" s="6" t="s">
+    <row r="321" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B321" s="6" t="s">
         <v>421</v>
       </c>
+      <c r="C321" s="6"/>
       <c r="D321" s="7" t="s">
         <v>422</v>
       </c>
@@ -8160,73 +8450,79 @@
         <v>275</v>
       </c>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C322" s="6" t="s">
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B322" s="6" t="s">
         <v>423</v>
       </c>
+      <c r="C322" s="6"/>
       <c r="D322" s="7" t="s">
         <v>426</v>
       </c>
       <c r="E322" s="6"/>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C323" s="6" t="s">
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B323" s="6" t="s">
         <v>424</v>
       </c>
+      <c r="C323" s="6"/>
       <c r="D323" s="7" t="s">
         <v>426</v>
       </c>
       <c r="E323" s="6"/>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C324" s="6" t="s">
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B324" s="6" t="s">
         <v>425</v>
       </c>
+      <c r="C324" s="6"/>
       <c r="D324" s="7" t="s">
         <v>426</v>
       </c>
       <c r="E324" s="6"/>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C325" s="6" t="s">
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B325" s="6" t="s">
         <v>427</v>
       </c>
+      <c r="C325" s="6"/>
       <c r="D325" s="7" t="s">
         <v>428</v>
       </c>
       <c r="E325" s="6"/>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C327" s="78" t="s">
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B327" s="78" t="s">
         <v>429</v>
       </c>
+      <c r="C327" s="78"/>
       <c r="D327" s="78"/>
       <c r="E327" s="78"/>
       <c r="F327" s="78"/>
       <c r="G327" s="78"/>
     </row>
-    <row r="328" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C329" s="107" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="330" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C330" s="33" t="s">
+    <row r="328" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="106" t="s">
+        <v>591</v>
+      </c>
+      <c r="C329" s="106"/>
+    </row>
+    <row r="330" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="33" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B331" s="33" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D332" s="33" t="s">
         <v>595</v>
-      </c>
-    </row>
-    <row r="331" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C331" s="33" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="332" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C332" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="D332" s="33" t="s">
-        <v>598</v>
       </c>
       <c r="E332" s="33" t="s">
         <v>60</v>
@@ -8238,71 +8534,73 @@
         <v>62</v>
       </c>
     </row>
-    <row r="333" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C333" s="33" t="s">
+    <row r="333" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D333" s="108">
+      <c r="D333" s="107">
         <v>9500</v>
       </c>
-      <c r="E333" s="109">
+      <c r="E333" s="108">
         <v>34700</v>
       </c>
-      <c r="F333" s="109">
+      <c r="F333" s="108">
         <v>39447</v>
       </c>
-      <c r="G333" s="108">
+      <c r="G333" s="107">
         <f>(F333-E333)/365</f>
         <v>13.005479452054795</v>
       </c>
     </row>
-    <row r="334" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C334" s="33" t="s">
-        <v>597</v>
-      </c>
-      <c r="D334" s="108">
+    <row r="334" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="D334" s="107">
         <v>18000</v>
       </c>
-      <c r="E334" s="109">
+      <c r="E334" s="108">
         <v>39448</v>
       </c>
-      <c r="F334" s="109">
+      <c r="F334" s="108">
         <v>45291</v>
       </c>
-      <c r="G334" s="108">
+      <c r="G334" s="107">
         <f>(F334-E334)/365</f>
         <v>16.008219178082193</v>
       </c>
     </row>
-    <row r="335" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G335" s="110">
+    <row r="335" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G335" s="109">
         <f>SUM(G333:G334)</f>
         <v>29.013698630136986</v>
       </c>
     </row>
-    <row r="336" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C336" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="D336" s="110">
+    <row r="336" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="D336" s="109">
         <f>D333*G333/G335+D334*G334/G335</f>
         <v>14189.848914069877</v>
       </c>
       <c r="E336" s="33" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="337" spans="3:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C337" s="31" t="s">
-        <v>601</v>
-      </c>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="C337" s="31"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="3:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C338" s="6" t="s">
+    <row r="338" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="C338" s="6"/>
       <c r="D338" s="6" t="s">
         <v>245</v>
       </c>
@@ -8310,10 +8608,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="339" spans="3:5" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C339" s="6" t="s">
+    <row r="339" spans="2:5" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B339" s="6" t="s">
         <v>421</v>
       </c>
+      <c r="C339" s="6"/>
       <c r="D339" s="7" t="s">
         <v>422</v>
       </c>
@@ -8321,21 +8620,23 @@
         <v>275</v>
       </c>
     </row>
-    <row r="340" spans="3:5" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="C340" s="6" t="s">
-        <v>602</v>
-      </c>
+    <row r="340" spans="2:5" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B340" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C340" s="6"/>
       <c r="D340" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="E340" s="112">
+        <v>600</v>
+      </c>
+      <c r="E340" s="111">
         <v>14189.85</v>
       </c>
     </row>
-    <row r="341" spans="3:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C341" s="6" t="s">
+    <row r="341" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="6" t="s">
         <v>423</v>
       </c>
+      <c r="C341" s="6"/>
       <c r="D341" s="7" t="s">
         <v>426</v>
       </c>
@@ -8344,10 +8645,11 @@
         <v>170278.2</v>
       </c>
     </row>
-    <row r="342" spans="3:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C342" s="6" t="s">
+    <row r="342" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="6" t="s">
         <v>424</v>
       </c>
+      <c r="C342" s="6"/>
       <c r="D342" s="7" t="s">
         <v>426</v>
       </c>
@@ -8356,58 +8658,65 @@
         <v>170278.2</v>
       </c>
     </row>
-    <row r="343" spans="3:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C343" s="6" t="s">
+    <row r="343" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="6" t="s">
         <v>425</v>
       </c>
+      <c r="C343" s="6"/>
       <c r="D343" s="7" t="s">
         <v>426</v>
       </c>
       <c r="E343" s="6"/>
     </row>
-    <row r="344" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C344" s="6" t="s">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B344" s="6" t="s">
         <v>427</v>
       </c>
+      <c r="C344" s="6"/>
       <c r="D344" s="7" t="s">
         <v>428</v>
       </c>
       <c r="E344" s="6"/>
     </row>
-    <row r="345" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B345" s="62"/>
       <c r="C345" s="62"/>
-      <c r="D345" s="111"/>
+      <c r="D345" s="110"/>
       <c r="E345" s="62"/>
     </row>
-    <row r="346" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B346" s="62"/>
       <c r="C346" s="62"/>
-      <c r="D346" s="111"/>
+      <c r="D346" s="110"/>
       <c r="E346" s="62"/>
     </row>
-    <row r="347" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C347" s="26" t="s">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B347" s="26" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="348" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C348" s="1" t="s">
+      <c r="C347" s="26"/>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B348" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="349" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C349" s="1" t="s">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B349" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="351" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C351" s="31" t="s">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B351" s="31" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="352" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C352" s="6" t="s">
+      <c r="C351" s="31"/>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B352" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="C352" s="6"/>
       <c r="D352" s="6" t="s">
         <v>245</v>
       </c>
@@ -8415,10 +8724,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="353" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C353" s="6" t="s">
+    <row r="353" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B353" s="6" t="s">
         <v>435</v>
       </c>
+      <c r="C353" s="6"/>
       <c r="D353" s="7" t="s">
         <v>436</v>
       </c>
@@ -8426,10 +8736,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="354" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C354" s="6" t="s">
+    <row r="354" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B354" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="C354" s="6"/>
       <c r="D354" s="7" t="s">
         <v>438</v>
       </c>
@@ -8437,10 +8748,11 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="355" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C355" s="6" t="s">
+    <row r="355" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B355" s="6" t="s">
         <v>439</v>
       </c>
+      <c r="C355" s="6"/>
       <c r="D355" s="7" t="s">
         <v>440</v>
       </c>
@@ -8449,15 +8761,17 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="357" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C357" s="26" t="s">
+    <row r="357" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B357" s="26" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="358" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C358" s="49" t="s">
+      <c r="C357" s="26"/>
+    </row>
+    <row r="358" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B358" s="49" t="s">
         <v>442</v>
       </c>
+      <c r="C358" s="49"/>
       <c r="D358" s="79"/>
       <c r="E358" s="49"/>
       <c r="F358" s="49"/>
@@ -8471,10 +8785,11 @@
       <c r="N358" s="49"/>
       <c r="O358" s="49"/>
     </row>
-    <row r="359" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C359" s="49" t="s">
+    <row r="359" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B359" s="49" t="s">
         <v>443</v>
       </c>
+      <c r="C359" s="49"/>
       <c r="D359" s="79"/>
       <c r="E359" s="49"/>
       <c r="F359" s="49"/>
@@ -8488,10 +8803,11 @@
       <c r="N359" s="49"/>
       <c r="O359" s="49"/>
     </row>
-    <row r="360" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C360" s="49" t="s">
+    <row r="360" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B360" s="49" t="s">
         <v>444</v>
       </c>
+      <c r="C360" s="49"/>
       <c r="D360" s="79"/>
       <c r="E360" s="82" t="s">
         <v>445</v>
@@ -8507,10 +8823,11 @@
       <c r="N360" s="49"/>
       <c r="O360" s="49"/>
     </row>
-    <row r="361" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C361" s="49" t="s">
+    <row r="361" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B361" s="49" t="s">
         <v>446</v>
       </c>
+      <c r="C361" s="49"/>
       <c r="D361" s="49">
         <v>1603</v>
       </c>
@@ -8528,10 +8845,11 @@
       <c r="N361" s="49"/>
       <c r="O361" s="49"/>
     </row>
-    <row r="362" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C362" s="49" t="s">
+    <row r="362" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B362" s="49" t="s">
         <v>43</v>
       </c>
+      <c r="C362" s="49"/>
       <c r="D362" s="49">
         <v>2237</v>
       </c>
@@ -8549,10 +8867,11 @@
       <c r="N362" s="49"/>
       <c r="O362" s="49"/>
     </row>
-    <row r="363" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C363" s="49" t="s">
+    <row r="363" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B363" s="49" t="s">
         <v>447</v>
       </c>
+      <c r="C363" s="49"/>
       <c r="D363" s="79"/>
       <c r="E363" s="49"/>
       <c r="F363" s="49"/>
@@ -8566,10 +8885,11 @@
       <c r="N363" s="49"/>
       <c r="O363" s="49"/>
     </row>
-    <row r="364" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C364" s="49" t="s">
+    <row r="364" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B364" s="49" t="s">
         <v>448</v>
       </c>
+      <c r="C364" s="49"/>
       <c r="D364" s="79"/>
       <c r="E364" s="49"/>
       <c r="F364" s="49"/>
@@ -8583,10 +8903,11 @@
       <c r="N364" s="49"/>
       <c r="O364" s="49"/>
     </row>
-    <row r="365" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C365" s="49" t="s">
+    <row r="365" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B365" s="49" t="s">
         <v>449</v>
       </c>
+      <c r="C365" s="49"/>
       <c r="D365" s="79"/>
       <c r="E365" s="49"/>
       <c r="F365" s="49"/>
@@ -8600,10 +8921,11 @@
       <c r="N365" s="49"/>
       <c r="O365" s="49"/>
     </row>
-    <row r="366" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C366" s="49" t="s">
-        <v>570</v>
-      </c>
+    <row r="366" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B366" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="C366" s="49"/>
       <c r="D366" s="79"/>
       <c r="E366" s="49"/>
       <c r="F366" s="49"/>
@@ -8617,15 +8939,16 @@
       <c r="N366" s="49"/>
       <c r="O366" s="49"/>
     </row>
-    <row r="367" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C367" s="49" t="s">
+    <row r="367" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B367" s="49" t="s">
         <v>450</v>
       </c>
+      <c r="C367" s="49"/>
       <c r="D367" s="49">
         <v>2237</v>
       </c>
       <c r="E367" s="80" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F367" s="49"/>
       <c r="G367" s="49"/>
@@ -8638,10 +8961,11 @@
       <c r="N367" s="49"/>
       <c r="O367" s="49"/>
     </row>
-    <row r="368" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C368" s="49" t="s">
-        <v>568</v>
-      </c>
+    <row r="368" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B368" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="C368" s="49"/>
       <c r="D368" s="49">
         <v>2237</v>
       </c>
@@ -8659,7 +8983,8 @@
       <c r="N368" s="49"/>
       <c r="O368" s="49"/>
     </row>
-    <row r="369" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B369" s="49"/>
       <c r="C369" s="49"/>
       <c r="D369" s="79"/>
       <c r="E369" s="49"/>
@@ -8674,10 +8999,11 @@
       <c r="N369" s="49"/>
       <c r="O369" s="49"/>
     </row>
-    <row r="370" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C370" s="49" t="s">
+    <row r="370" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B370" s="49" t="s">
         <v>452</v>
       </c>
+      <c r="C370" s="49"/>
       <c r="D370" s="79"/>
       <c r="E370" s="49"/>
       <c r="F370" s="49"/>
@@ -8693,7 +9019,8 @@
       <c r="N370" s="49"/>
       <c r="O370" s="49"/>
     </row>
-    <row r="371" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B371" s="49"/>
       <c r="C371" s="49"/>
       <c r="D371" s="79"/>
       <c r="E371" s="49"/>
@@ -8708,15 +9035,17 @@
       <c r="N371" s="49"/>
       <c r="O371" s="49"/>
     </row>
-    <row r="372" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C372" s="31" t="s">
+    <row r="372" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B372" s="31" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="373" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C373" s="6" t="s">
+      <c r="C372" s="31"/>
+    </row>
+    <row r="373" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B373" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="C373" s="6"/>
       <c r="D373" s="6" t="s">
         <v>245</v>
       </c>
@@ -8724,10 +9053,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C374" s="6" t="s">
+    <row r="374" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B374" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="C374" s="6"/>
       <c r="D374" s="7" t="s">
         <v>167</v>
       </c>
@@ -8735,10 +9065,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="375" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C375" s="6" t="s">
+    <row r="375" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B375" s="6" t="s">
         <v>490</v>
       </c>
+      <c r="C375" s="6"/>
       <c r="D375" s="7" t="s">
         <v>492</v>
       </c>
@@ -8746,10 +9077,11 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="376" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C376" s="6" t="s">
+    <row r="376" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B376" s="6" t="s">
         <v>491</v>
       </c>
+      <c r="C376" s="6"/>
       <c r="D376" s="7" t="s">
         <v>492</v>
       </c>
@@ -8757,10 +9089,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="3:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="C377" s="6" t="s">
+    <row r="377" spans="2:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="B377" s="6" t="s">
         <v>493</v>
       </c>
+      <c r="C377" s="6"/>
       <c r="D377" s="7" t="s">
         <v>494</v>
       </c>
@@ -8771,12 +9104,13 @@
         <v>496</v>
       </c>
     </row>
-    <row r="378" spans="3:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="C378" s="6" t="s">
+    <row r="378" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="B378" s="6" t="s">
         <v>495</v>
       </c>
+      <c r="C378" s="6"/>
       <c r="D378" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E378" s="6">
         <f>2237*E375</f>
@@ -8786,35 +9120,41 @@
         <v>496</v>
       </c>
     </row>
-    <row r="381" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C381" s="26" t="s">
+    <row r="381" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B381" s="26" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="382" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C382" s="49" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="383" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C383" s="49" t="s">
+      <c r="C381" s="26"/>
+    </row>
+    <row r="382" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B382" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="C382" s="49"/>
+    </row>
+    <row r="383" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B383" s="49" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="384" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C384" s="49" t="s">
+      <c r="C383" s="49"/>
+    </row>
+    <row r="384" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B384" s="49" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="387" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C387" s="31" t="s">
+      <c r="C384" s="49"/>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B387" s="31" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="388" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C388" s="6" t="s">
+      <c r="C387" s="31"/>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B388" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="C388" s="6"/>
       <c r="D388" s="6" t="s">
         <v>245</v>
       </c>
@@ -8822,10 +9162,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="389" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C389" s="6" t="s">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B389" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="C389" s="6"/>
       <c r="D389" s="7" t="s">
         <v>167</v>
       </c>
@@ -8833,10 +9174,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="390" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C390" s="6" t="s">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B390" s="6" t="s">
         <v>491</v>
       </c>
+      <c r="C390" s="6"/>
       <c r="D390" s="7" t="s">
         <v>492</v>
       </c>
@@ -8844,10 +9186,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="3:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="C391" s="6" t="s">
+    <row r="391" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B391" s="6" t="s">
         <v>500</v>
       </c>
+      <c r="C391" s="6"/>
       <c r="D391" s="7" t="s">
         <v>505</v>
       </c>
@@ -8855,42 +9198,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C392" s="7" t="s">
+    <row r="392" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B392" s="7" t="s">
         <v>506</v>
       </c>
+      <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="6"/>
     </row>
-    <row r="394" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C394" s="56" t="s">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B394" s="56" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="395" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C395" s="31" t="s">
+      <c r="C394" s="56"/>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B395" s="31" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="396" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C396" s="1" t="s">
+      <c r="C395" s="31"/>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B396" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="397" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C397" s="1" t="s">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B397" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="399" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C399" s="31" t="s">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B399" s="31" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="400" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C400" s="6" t="s">
+      <c r="C399" s="31"/>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B400" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="C400" s="6"/>
       <c r="D400" s="6" t="s">
         <v>245</v>
       </c>
@@ -8898,10 +9246,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C401" s="6" t="s">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B401" s="6" t="s">
         <v>511</v>
       </c>
+      <c r="C401" s="6"/>
       <c r="D401" s="7" t="s">
         <v>492</v>
       </c>
@@ -8909,10 +9258,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C402" s="6" t="s">
+    <row r="402" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B402" s="6" t="s">
         <v>410</v>
       </c>
+      <c r="C402" s="6"/>
       <c r="D402" s="7" t="s">
         <v>516</v>
       </c>
@@ -8920,10 +9270,11 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C403" s="6" t="s">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B403" s="6" t="s">
         <v>512</v>
       </c>
+      <c r="C403" s="6"/>
       <c r="D403" s="7" t="s">
         <v>513</v>
       </c>
@@ -8931,10 +9282,11 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C404" s="6" t="s">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B404" s="6" t="s">
         <v>514</v>
       </c>
+      <c r="C404" s="6"/>
       <c r="D404" s="7" t="s">
         <v>515</v>
       </c>
@@ -8943,29 +9295,33 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B407" s="15"/>
-      <c r="C407" s="85" t="s">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="15"/>
+      <c r="B407" s="85" t="s">
         <v>517</v>
       </c>
+      <c r="C407" s="85"/>
       <c r="E407" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B408" s="15"/>
-      <c r="C408" s="86" t="s">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="15"/>
+      <c r="B408" s="86" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B409" s="15"/>
+      <c r="C408" s="86"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="15"/>
+      <c r="B409" s="86"/>
       <c r="C409" s="86"/>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C410" s="6" t="s">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B410" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="C410" s="6"/>
       <c r="D410" s="6" t="s">
         <v>195</v>
       </c>
@@ -8973,10 +9329,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C411" s="6" t="s">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B411" s="6" t="s">
         <v>519</v>
       </c>
+      <c r="C411" s="6"/>
       <c r="D411" s="6" t="s">
         <v>520</v>
       </c>
@@ -10681,7 +11038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:N202"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A95" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B109" sqref="B109:D119"/>
     </sheetView>
   </sheetViews>
@@ -10765,10 +11122,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -10792,13 +11149,13 @@
         <v>172</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>181</v>
@@ -10822,10 +11179,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11053,12 +11410,12 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="56" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -11068,7 +11425,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -11081,7 +11438,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -11097,13 +11454,13 @@
     </row>
     <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -11122,7 +11479,7 @@
         <v>410</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D57" s="40">
         <v>0.25</v>
@@ -11130,10 +11487,10 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D58" s="47">
         <v>12000</v>
@@ -11141,30 +11498,30 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="104">
+      <c r="D59" s="103">
         <v>0.06</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="D60" s="106">
+      <c r="D60" s="105">
         <f>D56*D57*D58*0.28</f>
         <v>1680.0000000000002</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -11180,13 +11537,13 @@
     </row>
     <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -11205,7 +11562,7 @@
         <v>410</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D66" s="40">
         <v>0.25</v>
@@ -11213,10 +11570,10 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D67" s="47">
         <v>12000</v>
@@ -11224,32 +11581,32 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="104">
+      <c r="D68" s="103">
         <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D69" s="105">
+        <v>579</v>
+      </c>
+      <c r="D69" s="104">
         <v>30000</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D70" s="48">
         <f>D65*D67*D66-D69</f>
@@ -11268,12 +11625,12 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="56" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="31" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -11363,7 +11720,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>181</v>
@@ -11398,7 +11755,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="26" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
@@ -11408,7 +11765,7 @@
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="31" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -11704,7 +12061,7 @@
         <v>292</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D130" s="6">
         <v>11500</v>
@@ -11755,7 +12112,7 @@
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="26" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
@@ -11765,7 +12122,7 @@
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
@@ -11797,10 +12154,10 @@
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D143" s="6">
         <v>8000</v>
@@ -11820,7 +12177,7 @@
     </row>
     <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="26" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.25">
@@ -11954,7 +12311,7 @@
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="49" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C154" s="79"/>
       <c r="D154" s="49"/>
@@ -11971,7 +12328,7 @@
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="49" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C155" s="79"/>
       <c r="D155" s="49"/>
@@ -11994,7 +12351,7 @@
         <v>2237</v>
       </c>
       <c r="D156" s="80" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E156" s="49"/>
       <c r="F156" s="49"/>
@@ -12009,14 +12366,14 @@
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="49" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C157" s="49">
         <f>2237*2/12</f>
         <v>372.83333333333331</v>
       </c>
       <c r="D157" s="49" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E157" s="49"/>
       <c r="F157" s="49"/>
@@ -12115,8 +12472,8 @@
       <c r="D164" s="40">
         <v>0.8</v>
       </c>
-      <c r="F164" s="102" t="s">
-        <v>571</v>
+      <c r="F164" s="101" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
@@ -12149,7 +12506,7 @@
         <v>495</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D167" s="6">
         <f>2237*D164</f>
@@ -12166,7 +12523,7 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="49" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
@@ -12219,7 +12576,7 @@
     </row>
     <row r="180" spans="2:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>505</v>
@@ -12229,7 +12586,7 @@
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="103" t="s">
+      <c r="B181" s="102" t="s">
         <v>506</v>
       </c>
       <c r="C181" s="7"/>
@@ -12282,7 +12639,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\שרגא יהודית\source\repos\‏‏תיקיה חדשה\RetirementSimulator\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F028CEB4-2233-4F2D-A895-52047174D67B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99FC081-6514-46AF-9A75-0A0E50FC2EF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="668">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -2368,6 +2368,27 @@
   </si>
   <si>
     <t>TotalEstimatedAllowanceAmount</t>
+  </si>
+  <si>
+    <t>SalaryDetermines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeterminedSalaryByCollectiveAgreement   </t>
+  </si>
+  <si>
+    <t>WorkingPeriodInACollectiveAgreement</t>
+  </si>
+  <si>
+    <t>SeniorPaidWorkPeriod</t>
+  </si>
+  <si>
+    <t>AnnuityPercentageInACollectiveAgreement</t>
+  </si>
+  <si>
+    <t>PensionPercentageInSeniorSalaries</t>
+  </si>
+  <si>
+    <t>Continuity of rights agreement</t>
   </si>
 </sst>
 </file>
@@ -2718,7 +2739,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2966,15 +2987,6 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2989,6 +3001,17 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3368,10 +3391,10 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3397,16 +3420,16 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="88"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="142" t="s">
         <v>605</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -4351,7 +4374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:F20"/>
     </sheetView>
   </sheetViews>
@@ -5061,13 +5084,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:M19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
     <col min="2" max="10" width="18" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.75" style="1"/>
     <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
@@ -5387,8 +5410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5436,15 +5459,15 @@
       <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="144" t="s">
         <v>602</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="113" t="s">
@@ -5587,13 +5610,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="129" t="s">
         <v>532</v>
       </c>
-      <c r="C23" s="134" t="s">
+      <c r="C23" s="131" t="s">
         <v>647</v>
       </c>
-      <c r="D23" s="133" t="s">
+      <c r="D23" s="130" t="s">
         <v>533</v>
       </c>
     </row>
@@ -5635,7 +5658,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>60</v>
       </c>
@@ -5810,10 +5833,10 @@
       <c r="G39" s="29"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="137" t="s">
+      <c r="C40" s="134" t="s">
         <v>649</v>
       </c>
       <c r="D40" s="48">
@@ -5822,10 +5845,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="137" t="s">
+      <c r="C41" s="134" t="s">
         <v>651</v>
       </c>
       <c r="D41" s="48">
@@ -5834,10 +5857,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="137" t="s">
+      <c r="C42" s="134" t="s">
         <v>652</v>
       </c>
       <c r="D42" s="48">
@@ -5846,22 +5869,22 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="137" t="s">
+      <c r="C43" s="134" t="s">
         <v>653</v>
       </c>
-      <c r="D43" s="138">
+      <c r="D43" s="135">
         <f>E33</f>
         <v>1.998631074606434</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="137" t="s">
+      <c r="B44" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="137" t="s">
+      <c r="C44" s="134" t="s">
         <v>654</v>
       </c>
       <c r="D44" s="55">
@@ -5882,13 +5905,13 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="141" t="s">
+      <c r="B47" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="142" t="s">
+      <c r="C47" s="139" t="s">
         <v>647</v>
       </c>
-      <c r="D47" s="140" t="s">
+      <c r="D47" s="137" t="s">
         <v>535</v>
       </c>
       <c r="E47" s="1">
@@ -5896,10 +5919,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="135" t="s">
+      <c r="B48" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="136" t="s">
+      <c r="C48" s="133" t="s">
         <v>651</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -5910,10 +5933,10 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="139" t="s">
+      <c r="B49" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="139" t="s">
+      <c r="C49" s="136" t="s">
         <v>654</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -5925,10 +5948,10 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="143" t="s">
+      <c r="B50" s="140" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="143" t="s">
+      <c r="C50" s="140" t="s">
         <v>655</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -5940,10 +5963,10 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="143" t="s">
+      <c r="C51" s="140" t="s">
         <v>656</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -5958,10 +5981,10 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="143" t="s">
+      <c r="B52" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="143" t="s">
+      <c r="C52" s="140" t="s">
         <v>658</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -5973,10 +5996,10 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="143" t="s">
+      <c r="B53" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="143" t="s">
+      <c r="C53" s="140" t="s">
         <v>659</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -5988,10 +6011,10 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="143" t="s">
+      <c r="B54" s="140" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="143" t="s">
+      <c r="C54" s="140" t="s">
         <v>660</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -6104,10 +6127,12 @@
       <c r="C71" s="15"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="112" t="s">
+      <c r="B72" s="141" t="s">
         <v>225</v>
       </c>
-      <c r="C72" s="112"/>
+      <c r="C72" s="141" t="s">
+        <v>661</v>
+      </c>
       <c r="D72" s="6" t="s">
         <v>195</v>
       </c>
@@ -6116,10 +6141,12 @@
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="112" t="s">
+      <c r="B73" s="141" t="s">
         <v>226</v>
       </c>
-      <c r="C73" s="112"/>
+      <c r="C73" s="141" t="s">
+        <v>662</v>
+      </c>
       <c r="D73" s="6" t="s">
         <v>195</v>
       </c>
@@ -6128,10 +6155,12 @@
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="112" t="s">
+      <c r="B74" s="145" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="112"/>
+      <c r="C74" s="145" t="s">
+        <v>651</v>
+      </c>
       <c r="D74" s="6" t="s">
         <v>178</v>
       </c>
@@ -6140,10 +6169,12 @@
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="112" t="s">
+      <c r="B75" s="114" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="112"/>
+      <c r="C75" s="114" t="s">
+        <v>663</v>
+      </c>
       <c r="D75" s="6" t="s">
         <v>229</v>
       </c>
@@ -6152,10 +6183,12 @@
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="112" t="s">
+      <c r="B76" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="112"/>
+      <c r="C76" s="114" t="s">
+        <v>664</v>
+      </c>
       <c r="D76" s="6" t="s">
         <v>230</v>
       </c>
@@ -6164,10 +6197,12 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="112" t="s">
+      <c r="B77" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="112"/>
+      <c r="C77" s="114" t="s">
+        <v>654</v>
+      </c>
       <c r="D77" s="6" t="s">
         <v>179</v>
       </c>
@@ -6176,10 +6211,12 @@
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="112" t="s">
+      <c r="B78" s="114" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="112"/>
+      <c r="C78" s="114" t="s">
+        <v>655</v>
+      </c>
       <c r="D78" s="6" t="s">
         <v>197</v>
       </c>
@@ -6189,10 +6226,12 @@
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="112" t="s">
+      <c r="B79" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="112"/>
+      <c r="C79" s="114" t="s">
+        <v>665</v>
+      </c>
       <c r="D79" s="6" t="s">
         <v>233</v>
       </c>
@@ -6202,10 +6241,12 @@
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="112" t="s">
+      <c r="B80" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="C80" s="112"/>
+      <c r="C80" s="114" t="s">
+        <v>666</v>
+      </c>
       <c r="D80" s="6" t="s">
         <v>234</v>
       </c>
@@ -6215,23 +6256,27 @@
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="112" t="s">
+      <c r="B81" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="C81" s="112"/>
+      <c r="C81" s="114" t="s">
+        <v>658</v>
+      </c>
       <c r="D81" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81">
         <f>E72*E79+E73*E80</f>
         <v>11600</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="112" t="s">
+      <c r="B82" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="C82" s="112"/>
+      <c r="C82" s="114" t="s">
+        <v>659</v>
+      </c>
       <c r="D82" s="6" t="s">
         <v>236</v>
       </c>
@@ -6241,10 +6286,12 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="112" t="s">
+      <c r="B83" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="C83" s="112"/>
+      <c r="C83" s="114" t="s">
+        <v>660</v>
+      </c>
       <c r="D83" s="6" t="s">
         <v>205</v>
       </c>
@@ -6263,7 +6310,9 @@
       <c r="B85" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="C85" s="31"/>
+      <c r="C85" s="31" t="s">
+        <v>667</v>
+      </c>
       <c r="D85" s="62"/>
       <c r="E85" s="29"/>
     </row>
@@ -6841,7 +6890,7 @@
       <c r="B137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="130" t="s">
+      <c r="D137" s="143" t="s">
         <v>545</v>
       </c>
     </row>
@@ -6849,13 +6898,13 @@
       <c r="B138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D138" s="130"/>
+      <c r="D138" s="143"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D139" s="130"/>
+      <c r="D139" s="143"/>
       <c r="E139" s="100">
         <v>45008</v>
       </c>
@@ -6864,31 +6913,31 @@
       <c r="B140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D140" s="130"/>
+      <c r="D140" s="143"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D141" s="130"/>
+      <c r="D141" s="143"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="130"/>
+      <c r="D142" s="143"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D143" s="130"/>
+      <c r="D143" s="143"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D144" s="130"/>
+      <c r="D144" s="143"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="56" t="s">

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\יומטוביאן מרים\source\repos\RetirementSimulator\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99FC081-6514-46AF-9A75-0A0E50FC2EF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7BFC02-B69A-410D-A4FC-2A47DEFCEC9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2739,7 +2739,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3002,6 +3002,7 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3011,7 +3012,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3420,16 +3421,16 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="88"/>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="143" t="s">
         <v>605</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -5102,7 +5103,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>522</v>
       </c>
@@ -5410,8 +5411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5459,15 +5460,15 @@
       <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="145" t="s">
         <v>602</v>
       </c>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="113" t="s">
@@ -6155,10 +6156,10 @@
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="145" t="s">
+      <c r="B74" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="145" t="s">
+      <c r="C74" s="142" t="s">
         <v>651</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -6372,7 +6373,7 @@
         <v>107</v>
       </c>
       <c r="C92" s="6"/>
-      <c r="D92" s="92" t="s">
+      <c r="D92" s="137" t="s">
         <v>535</v>
       </c>
       <c r="E92" s="1">
@@ -6430,7 +6431,7 @@
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="146" t="s">
         <v>318</v>
       </c>
       <c r="C97" s="6"/>
@@ -6442,7 +6443,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="146" t="s">
         <v>321</v>
       </c>
       <c r="C98" s="6"/>
@@ -6611,7 +6612,7 @@
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="146" t="s">
         <v>325</v>
       </c>
       <c r="C112" s="6"/>
@@ -6623,7 +6624,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="146" t="s">
         <v>204</v>
       </c>
       <c r="C113" s="6"/>
@@ -6636,7 +6637,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="146" t="s">
         <v>328</v>
       </c>
       <c r="C114" s="6"/>
@@ -6652,7 +6653,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="146" t="s">
         <v>331</v>
       </c>
       <c r="C115" s="6"/>
@@ -6782,7 +6783,7 @@
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="146" t="s">
         <v>334</v>
       </c>
       <c r="C126" s="6"/>
@@ -6794,7 +6795,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="146" t="s">
         <v>335</v>
       </c>
       <c r="C127" s="6"/>
@@ -6806,7 +6807,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="146" t="s">
         <v>338</v>
       </c>
       <c r="C128" s="6"/>
@@ -6819,7 +6820,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="146" t="s">
         <v>340</v>
       </c>
       <c r="C129" s="6"/>
@@ -6832,7 +6833,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="146" t="s">
         <v>328</v>
       </c>
       <c r="C130" s="6"/>
@@ -6890,7 +6891,7 @@
       <c r="B137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="143" t="s">
+      <c r="D137" s="144" t="s">
         <v>545</v>
       </c>
     </row>
@@ -6898,13 +6899,13 @@
       <c r="B138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D138" s="143"/>
+      <c r="D138" s="144"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D139" s="143"/>
+      <c r="D139" s="144"/>
       <c r="E139" s="100">
         <v>45008</v>
       </c>
@@ -6913,31 +6914,31 @@
       <c r="B140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D140" s="143"/>
+      <c r="D140" s="144"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D141" s="143"/>
+      <c r="D141" s="144"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="143"/>
+      <c r="D142" s="144"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D143" s="143"/>
+      <c r="D143" s="144"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D144" s="143"/>
+      <c r="D144" s="144"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="56" t="s">

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\יומטוביאן מרים\source\repos\RetirementSimulator\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\שרגא יהודית\source\repos\RetirementSimulator\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7BFC02-B69A-410D-A4FC-2A47DEFCEC9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18360357-91C6-4066-A6B4-38C31556828E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="674">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -1320,12 +1320,6 @@
     <t>במקרה זו אחוז הקצבה עלה על 70% ולכן זה יוגבל ב-70%</t>
   </si>
   <si>
-    <t>סכום הקצבה המשוערת לאחר התאמה ל-70%</t>
-  </si>
-  <si>
-    <t>חישוב של 70% מהמשכורת הקובעת *3.82%</t>
-  </si>
-  <si>
     <t>שורה זו תופיע רק במקרה בו שיעור הקצבה בסה"כ עלה על 70%</t>
   </si>
   <si>
@@ -2389,6 +2383,30 @@
   </si>
   <si>
     <t>Continuity of rights agreement</t>
+  </si>
+  <si>
+    <t>salaryDeterminesv</t>
+  </si>
+  <si>
+    <t>TotalEstimatedAllowanceAmountLimitedTo70Percent</t>
+  </si>
+  <si>
+    <t>AllowanceIsPaidFromTheIDFAndOrTheSecurityForces</t>
+  </si>
+  <si>
+    <t>NumberOfVacationDaysToBeRedeemed</t>
+  </si>
+  <si>
+    <t>ADay'sWorth</t>
+  </si>
+  <si>
+    <t>משכורת קובעת הגבוהה</t>
+  </si>
+  <si>
+    <t>חישוב של 70% מהמשכורת הקובעת *1.0382%</t>
+  </si>
+  <si>
+    <t>סכום הקצבה המשוערת לאחר התאמה ל-70%  וכולל וספת יוקר</t>
   </si>
 </sst>
 </file>
@@ -3003,6 +3021,7 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3012,7 +3031,6 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3362,7 +3380,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="115" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -3378,7 +3396,7 @@
         <v>114</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -3392,10 +3410,10 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,32 +3433,32 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="117" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C1" s="117"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="88"/>
-      <c r="B2" s="143" t="s">
-        <v>605</v>
-      </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
+      <c r="B2" s="144" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>22</v>
@@ -3466,13 +3484,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B4" s="116" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>23</v>
@@ -3496,13 +3514,13 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>24</v>
@@ -3526,13 +3544,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B6" s="116" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>76</v>
@@ -3554,13 +3572,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B7" s="116" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>78</v>
@@ -3582,13 +3600,13 @@
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="116" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>78</v>
@@ -3612,13 +3630,13 @@
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B9" s="116" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>28</v>
@@ -3642,13 +3660,13 @@
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B10" s="116" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>28</v>
@@ -3672,25 +3690,25 @@
     </row>
     <row r="11" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B11" s="118" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E11" s="7">
         <v>12000</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>13</v>
@@ -3699,18 +3717,18 @@
         <v>12000</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B12" s="119" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>78</v>
@@ -3734,13 +3752,13 @@
     </row>
     <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="87" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B13" s="118" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>120</v>
@@ -3762,13 +3780,13 @@
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="87" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B14" s="118" t="s">
         <v>123</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>124</v>
@@ -3792,13 +3810,13 @@
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="87" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B15" s="120" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>130</v>
@@ -3822,13 +3840,13 @@
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B16" s="120" t="s">
         <v>208</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>130</v>
@@ -3850,13 +3868,13 @@
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="87" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B17" s="121" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>132</v>
@@ -3878,13 +3896,13 @@
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="87" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B18" s="121" t="s">
         <v>133</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>132</v>
@@ -3902,13 +3920,13 @@
     </row>
     <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="87" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B19" s="118" t="s">
         <v>137</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>138</v>
@@ -3932,13 +3950,13 @@
     </row>
     <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B20" s="118" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>28</v>
@@ -3962,7 +3980,7 @@
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B21" s="116" t="s">
         <v>20</v>
@@ -3980,13 +3998,13 @@
     </row>
     <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B22" s="116" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>30</v>
@@ -4012,13 +4030,13 @@
     </row>
     <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B23" s="116" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>30</v>
@@ -4042,13 +4060,13 @@
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B24" s="116" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>30</v>
@@ -4072,13 +4090,13 @@
     </row>
     <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B25" s="116" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>28</v>
@@ -4102,13 +4120,13 @@
     </row>
     <row r="26" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B26" s="116" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>30</v>
@@ -4134,7 +4152,7 @@
     </row>
     <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B27" s="116" t="s">
         <v>53</v>
@@ -4152,13 +4170,13 @@
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B28" s="116" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>30</v>
@@ -4180,13 +4198,13 @@
     </row>
     <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B29" s="116" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>28</v>
@@ -4204,13 +4222,13 @@
     </row>
     <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>28</v>
@@ -4219,7 +4237,7 @@
         <v>45</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>11</v>
@@ -4234,22 +4252,22 @@
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="97" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C31" s="92" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D31" s="90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E31" s="96">
         <v>0.06</v>
       </c>
       <c r="F31" s="90" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G31" s="92" t="s">
         <v>11</v>
@@ -4267,13 +4285,13 @@
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="97" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B32" s="118" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C32" s="92" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D32" s="90" t="s">
         <v>109</v>
@@ -4282,7 +4300,7 @@
         <v>200000</v>
       </c>
       <c r="F32" s="92" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G32" s="92" t="s">
         <v>11</v>
@@ -4294,7 +4312,7 @@
         <v>200000</v>
       </c>
       <c r="J32" s="99" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L32" s="100">
         <v>45008</v>
@@ -4302,22 +4320,22 @@
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="97" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B33" s="123" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C33" s="122" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D33" s="90" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E33" s="92" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G33" s="92" t="s">
         <v>11</v>
@@ -4375,7 +4393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:F20"/>
     </sheetView>
   </sheetViews>
@@ -4560,7 +4578,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -5085,8 +5103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:M19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,13 +5123,13 @@
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>22</v>
@@ -5137,13 +5155,13 @@
     </row>
     <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B6" s="118" t="s">
         <v>107</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>109</v>
@@ -5167,35 +5185,35 @@
     </row>
     <row r="7" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="93" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>109</v>
       </c>
       <c r="E7" s="91"/>
       <c r="F7" s="90" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G7" s="92" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I7" s="95">
         <v>2000</v>
       </c>
       <c r="J7" s="90" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M7" s="94" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -5213,13 +5231,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B9" s="127" t="s">
         <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>149</v>
@@ -5242,13 +5260,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B10" s="127" t="s">
         <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>151</v>
@@ -5268,39 +5286,39 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B12" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>638</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B13" s="128" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>149</v>
@@ -5317,13 +5335,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B15" s="127" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>149</v>
@@ -5346,13 +5364,13 @@
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B16" s="127" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>158</v>
@@ -5372,13 +5390,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B17" s="127" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>151</v>
@@ -5398,7 +5416,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C19" s="76"/>
     </row>
@@ -5411,16 +5429,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="1"/>
     <col min="7" max="7" width="33.75" style="1" customWidth="1"/>
@@ -5446,7 +5464,7 @@
         <v>165</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>166</v>
@@ -5460,15 +5478,15 @@
       <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="145" t="s">
-        <v>602</v>
-      </c>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
+      <c r="G6" s="146" t="s">
+        <v>600</v>
+      </c>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="113" t="s">
@@ -5520,7 +5538,7 @@
         <v>168</v>
       </c>
       <c r="C12" s="114" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D12" s="112" t="s">
         <v>169</v>
@@ -5528,11 +5546,11 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="113" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C13" s="113"/>
       <c r="D13" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -5549,7 +5567,7 @@
         <v>170</v>
       </c>
       <c r="C15" s="114" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D15" s="112" t="s">
         <v>171</v>
@@ -5603,7 +5621,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="113" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C22" s="113"/>
       <c r="D22" s="6" t="s">
@@ -5612,13 +5630,13 @@
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="129" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C23" s="131" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D23" s="130" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5653,10 +5671,10 @@
         <v>186</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5838,7 +5856,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="134" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D40" s="48">
         <f>E37</f>
@@ -5850,7 +5868,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="134" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D41" s="48">
         <f>SUMIFS(E30:E36,F30:F36,"&gt;0.3329")</f>
@@ -5862,7 +5880,7 @@
         <v>96</v>
       </c>
       <c r="C42" s="134" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D42" s="48">
         <f>E32</f>
@@ -5874,7 +5892,7 @@
         <v>97</v>
       </c>
       <c r="C43" s="134" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D43" s="135">
         <f>E33</f>
@@ -5886,7 +5904,7 @@
         <v>99</v>
       </c>
       <c r="C44" s="134" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D44" s="55">
         <f>G37/D41</f>
@@ -5910,10 +5928,10 @@
         <v>107</v>
       </c>
       <c r="C47" s="139" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D47" s="137" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E47" s="1">
         <v>10000</v>
@@ -5924,7 +5942,7 @@
         <v>177</v>
       </c>
       <c r="C48" s="133" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>178</v>
@@ -5938,7 +5956,7 @@
         <v>99</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>179</v>
@@ -5953,7 +5971,7 @@
         <v>196</v>
       </c>
       <c r="C50" s="140" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>197</v>
@@ -5968,10 +5986,10 @@
         <v>198</v>
       </c>
       <c r="C51" s="140" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E51" s="30">
         <f>E50*E49</f>
@@ -5986,10 +6004,10 @@
         <v>200</v>
       </c>
       <c r="C52" s="140" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E52" s="14">
         <f>E51*E47</f>
@@ -6001,7 +6019,7 @@
         <v>203</v>
       </c>
       <c r="C53" s="140" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>202</v>
@@ -6016,7 +6034,7 @@
         <v>204</v>
       </c>
       <c r="C54" s="140" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>205</v>
@@ -6132,7 +6150,7 @@
         <v>225</v>
       </c>
       <c r="C72" s="141" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>195</v>
@@ -6146,7 +6164,7 @@
         <v>226</v>
       </c>
       <c r="C73" s="141" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>195</v>
@@ -6160,7 +6178,7 @@
         <v>177</v>
       </c>
       <c r="C74" s="142" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>178</v>
@@ -6174,7 +6192,7 @@
         <v>227</v>
       </c>
       <c r="C75" s="114" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>229</v>
@@ -6188,7 +6206,7 @@
         <v>228</v>
       </c>
       <c r="C76" s="114" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>230</v>
@@ -6202,7 +6220,7 @@
         <v>99</v>
       </c>
       <c r="C77" s="114" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>179</v>
@@ -6216,7 +6234,7 @@
         <v>196</v>
       </c>
       <c r="C78" s="114" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>197</v>
@@ -6231,7 +6249,7 @@
         <v>231</v>
       </c>
       <c r="C79" s="114" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>233</v>
@@ -6246,7 +6264,7 @@
         <v>232</v>
       </c>
       <c r="C80" s="114" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>234</v>
@@ -6261,7 +6279,7 @@
         <v>200</v>
       </c>
       <c r="C81" s="114" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>235</v>
@@ -6276,7 +6294,7 @@
         <v>203</v>
       </c>
       <c r="C82" s="114" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>236</v>
@@ -6291,7 +6309,7 @@
         <v>204</v>
       </c>
       <c r="C83" s="114" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>205</v>
@@ -6312,7 +6330,7 @@
         <v>314</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D85" s="62"/>
       <c r="E85" s="29"/>
@@ -6374,7 +6392,7 @@
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="137" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E92" s="1">
         <v>10000</v>
@@ -6431,10 +6449,12 @@
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="146" t="s">
+      <c r="B97" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="C97" s="6"/>
+      <c r="C97" s="113" t="s">
+        <v>626</v>
+      </c>
       <c r="D97" s="6" t="s">
         <v>320</v>
       </c>
@@ -6443,10 +6463,12 @@
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="146" t="s">
+      <c r="B98" s="116" t="s">
         <v>321</v>
       </c>
-      <c r="C98" s="6"/>
+      <c r="C98" s="116" t="s">
+        <v>654</v>
+      </c>
       <c r="D98" s="6" t="s">
         <v>322</v>
       </c>
@@ -6525,11 +6547,13 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C105" s="6"/>
+        <v>671</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>666</v>
+      </c>
       <c r="D105" s="92" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E105" s="1">
         <v>10000</v>
@@ -6589,7 +6613,9 @@
       <c r="B110" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C110" s="6"/>
+      <c r="C110" s="6" t="s">
+        <v>656</v>
+      </c>
       <c r="D110" s="6" t="s">
         <v>201</v>
       </c>
@@ -6602,7 +6628,9 @@
       <c r="B111" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C111" s="6"/>
+      <c r="C111" s="6" t="s">
+        <v>657</v>
+      </c>
       <c r="D111" s="6" t="s">
         <v>202</v>
       </c>
@@ -6612,10 +6640,12 @@
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="146" t="s">
+      <c r="B112" s="113" t="s">
         <v>325</v>
       </c>
-      <c r="C112" s="6"/>
+      <c r="C112" s="113" t="s">
+        <v>626</v>
+      </c>
       <c r="D112" s="6" t="s">
         <v>326</v>
       </c>
@@ -6624,10 +6654,12 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="146" t="s">
+      <c r="B113" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="C113" s="6"/>
+      <c r="C113" s="116" t="s">
+        <v>658</v>
+      </c>
       <c r="D113" s="6" t="s">
         <v>327</v>
       </c>
@@ -6637,10 +6669,12 @@
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="146" t="s">
+      <c r="B114" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="C114" s="6"/>
+      <c r="C114" s="113" t="s">
+        <v>654</v>
+      </c>
       <c r="D114" s="6" t="s">
         <v>329</v>
       </c>
@@ -6653,19 +6687,21 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="146" t="s">
+      <c r="B115" s="143" t="s">
+        <v>673</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E115" s="29">
+        <f>E105*E116%</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="E115" s="29">
-        <f>E105*70%*1.0382</f>
-        <v>7267.4</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
@@ -6676,7 +6712,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="63" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C117" s="63"/>
       <c r="D117" s="62"/>
@@ -6700,7 +6736,7 @@
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="92" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E119" s="1">
         <v>10000</v>
@@ -6783,10 +6819,12 @@
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="146" t="s">
-        <v>334</v>
-      </c>
-      <c r="C126" s="6"/>
+      <c r="B126" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="C126" s="113" t="s">
+        <v>627</v>
+      </c>
       <c r="D126" s="6" t="s">
         <v>326</v>
       </c>
@@ -6795,24 +6833,28 @@
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="146" t="s">
-        <v>335</v>
-      </c>
-      <c r="C127" s="6"/>
+      <c r="B127" s="113" t="s">
+        <v>333</v>
+      </c>
+      <c r="C127" s="113" t="s">
+        <v>626</v>
+      </c>
       <c r="D127" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E127" s="39">
         <v>0.3</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="146" t="s">
-        <v>338</v>
-      </c>
-      <c r="C128" s="6"/>
+      <c r="B128" s="116" t="s">
+        <v>336</v>
+      </c>
+      <c r="C128" s="116" t="s">
+        <v>668</v>
+      </c>
       <c r="D128" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E128" s="14">
         <f>E126*E127</f>
@@ -6820,12 +6862,14 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="146" t="s">
-        <v>340</v>
-      </c>
-      <c r="C129" s="6"/>
+      <c r="B129" s="116" t="s">
+        <v>338</v>
+      </c>
+      <c r="C129" s="116" t="s">
+        <v>658</v>
+      </c>
       <c r="D129" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E129" s="29">
         <f>E128+E125+E124</f>
@@ -6833,19 +6877,21 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="146" t="s">
+      <c r="B130" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="C130" s="6"/>
+      <c r="C130" s="116" t="s">
+        <v>654</v>
+      </c>
       <c r="D130" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E130" s="30">
         <f>(E124+E128)/E126</f>
         <v>0.57899999999999996</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -6854,12 +6900,12 @@
       <c r="D131" s="62"/>
       <c r="E131" s="29"/>
       <c r="F131" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" s="63" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C132" s="63"/>
       <c r="D132" s="62"/>
@@ -6867,7 +6913,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" s="63" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C133" s="63"/>
       <c r="D133" s="62"/>
@@ -6891,21 +6937,21 @@
       <c r="B137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="144" t="s">
-        <v>545</v>
+      <c r="D137" s="145" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D138" s="144"/>
+      <c r="D138" s="145"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D139" s="144"/>
+      <c r="D139" s="145"/>
       <c r="E139" s="100">
         <v>45008</v>
       </c>
@@ -6914,31 +6960,31 @@
       <c r="B140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D140" s="144"/>
+      <c r="D140" s="145"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D141" s="144"/>
+      <c r="D141" s="145"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="144"/>
+      <c r="D142" s="145"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D143" s="144"/>
+      <c r="D143" s="145"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D144" s="144"/>
+      <c r="D144" s="145"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="56" t="s">
@@ -6996,10 +7042,12 @@
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="C156" s="6"/>
+      <c r="C156" s="113" t="s">
+        <v>640</v>
+      </c>
       <c r="D156" s="6" t="s">
         <v>181</v>
       </c>
@@ -7008,10 +7056,12 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="6"/>
+      <c r="C157" s="113" t="s">
+        <v>641</v>
+      </c>
       <c r="D157" s="6" t="s">
         <v>181</v>
       </c>
@@ -7020,10 +7070,12 @@
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="113" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="6"/>
+      <c r="C158" s="113" t="s">
+        <v>642</v>
+      </c>
       <c r="D158" s="6" t="s">
         <v>253</v>
       </c>
@@ -7031,23 +7083,30 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B159" s="6" t="s">
+    <row r="159" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B159" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="C159" s="6"/>
+      <c r="C159" s="116" t="s">
+        <v>669</v>
+      </c>
       <c r="D159" s="7" t="s">
         <v>247</v>
       </c>
       <c r="E159" s="6">
         <v>45</v>
       </c>
+      <c r="F159" s="1">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="C160" s="6"/>
+      <c r="C160" s="113" t="s">
+        <v>659</v>
+      </c>
       <c r="D160" s="6" t="s">
         <v>181</v>
       </c>
@@ -7055,14 +7114,16 @@
         <v>10000</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="C161" s="6"/>
+      <c r="C161" s="116" t="s">
+        <v>670</v>
+      </c>
       <c r="D161" s="7" t="s">
         <v>249</v>
       </c>
@@ -7473,7 +7534,7 @@
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="62" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C203" s="62"/>
       <c r="D203" s="62"/>
@@ -7481,7 +7542,7 @@
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="62" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C204" s="62"/>
       <c r="D204" s="62"/>
@@ -7489,7 +7550,7 @@
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="62" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C205" s="62"/>
       <c r="D205" s="62"/>
@@ -7497,7 +7558,7 @@
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="62" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C206" s="62"/>
       <c r="D206" s="62"/>
@@ -7511,7 +7572,7 @@
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C208" s="31"/>
     </row>
@@ -7541,11 +7602,11 @@
     </row>
     <row r="211" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E211" s="6">
         <v>600</v>
@@ -7553,11 +7614,11 @@
     </row>
     <row r="212" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E212" s="6">
         <v>300</v>
@@ -7565,11 +7626,11 @@
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E213" s="6">
         <f>E212+E211</f>
@@ -7628,11 +7689,11 @@
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E218" s="47">
         <v>300</v>
@@ -7640,11 +7701,11 @@
     </row>
     <row r="219" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E219" s="47">
         <f>E218/30*6</f>
@@ -7653,7 +7714,7 @@
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="6" t="s">
@@ -7665,11 +7726,11 @@
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E221" s="47">
         <f>E220/25</f>
@@ -7678,11 +7739,11 @@
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E222" s="47">
         <f>E221*E219</f>
@@ -7691,11 +7752,11 @@
     </row>
     <row r="223" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B223" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="84" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E223" s="48">
         <f>(E214-E218)/30*6</f>
@@ -7704,7 +7765,7 @@
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="6" t="s">
@@ -7729,11 +7790,11 @@
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E226" s="48">
         <f>E225*E223</f>
@@ -7742,11 +7803,11 @@
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E227" s="48">
         <f>E226+E222</f>
@@ -7943,12 +8004,12 @@
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C252" s="31"/>
     </row>
@@ -7966,11 +8027,11 @@
     </row>
     <row r="254" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B254" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>275</v>
@@ -7978,11 +8039,11 @@
     </row>
     <row r="255" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B255" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E255" s="6">
         <v>3</v>
@@ -7994,7 +8055,7 @@
       </c>
       <c r="C256" s="6"/>
       <c r="D256" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E256" s="6">
         <v>11500</v>
@@ -8006,7 +8067,7 @@
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E257" s="6">
         <f>E256*E255</f>
@@ -8015,7 +8076,7 @@
     </row>
     <row r="259" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B259" s="26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C259" s="26"/>
     </row>
@@ -8027,12 +8088,12 @@
     </row>
     <row r="261" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="262" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B262" s="44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C262" s="44"/>
       <c r="F262" s="49"/>
@@ -8046,7 +8107,7 @@
     </row>
     <row r="263" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F263" s="49"/>
       <c r="G263" s="49"/>
@@ -8059,7 +8120,7 @@
     </row>
     <row r="264" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F264" s="49"/>
       <c r="G264" s="49"/>
@@ -8072,7 +8133,7 @@
     </row>
     <row r="265" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F265" s="49"/>
       <c r="G265" s="49"/>
@@ -8085,7 +8146,7 @@
     </row>
     <row r="266" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B266" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C266" s="25"/>
       <c r="E266" s="33"/>
@@ -8100,14 +8161,14 @@
     </row>
     <row r="267" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B267" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C267" s="25"/>
       <c r="E267" s="33"/>
       <c r="F267" s="66"/>
       <c r="G267" s="49"/>
       <c r="H267" s="49" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I267" s="49"/>
       <c r="J267" s="49"/>
@@ -8116,11 +8177,11 @@
     </row>
     <row r="268" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B268" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C268" s="25"/>
       <c r="E268" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F268" s="49"/>
       <c r="G268" s="49"/>
@@ -8133,7 +8194,7 @@
     </row>
     <row r="269" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F269" s="49"/>
       <c r="G269" s="49"/>
@@ -8146,7 +8207,7 @@
     </row>
     <row r="270" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B270" s="33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C270" s="33"/>
       <c r="F270" s="49"/>
@@ -8160,26 +8221,26 @@
     </row>
     <row r="271" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="272" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
@@ -8189,105 +8250,105 @@
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="44" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C293" s="44"/>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D294" s="1">
         <v>10000</v>
@@ -8295,7 +8356,7 @@
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D295" s="1">
         <v>12000</v>
@@ -8303,7 +8364,7 @@
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D296" s="1">
         <f>12*449</f>
@@ -8323,12 +8384,12 @@
         <v>81</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D299" s="1">
         <v>52</v>
@@ -8336,7 +8397,7 @@
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D300" s="1">
         <v>25</v>
@@ -8344,7 +8405,7 @@
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D301" s="39">
         <v>1</v>
@@ -8352,7 +8413,7 @@
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D302" s="64">
         <f>D300*2%*D301</f>
@@ -8361,7 +8422,7 @@
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D303" s="14">
         <f>D302*(D294+1/12*D296+1/12*D297)</f>
@@ -8370,7 +8431,7 @@
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D304" s="64">
         <f>D302+(60-D299)*2%*D301</f>
@@ -8379,7 +8440,7 @@
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D305" s="1">
         <f>D304*(D295+1/12*D296+1/12*D297)</f>
@@ -8388,7 +8449,7 @@
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D306" s="14">
         <f>D305-D303</f>
@@ -8397,7 +8458,7 @@
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D307" s="1">
         <f>D305*0.6-D303*0.6</f>
@@ -8406,7 +8467,7 @@
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D308" s="77">
         <v>7.3090000000000002</v>
@@ -8414,7 +8475,7 @@
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D309" s="77">
         <v>2.093</v>
@@ -8422,7 +8483,7 @@
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D310" s="14">
         <f>D308*12*D306</f>
@@ -8431,7 +8492,7 @@
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D311" s="14">
         <f>D309*D307*12</f>
@@ -8440,7 +8501,7 @@
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D312" s="14">
         <f>D311+D310</f>
@@ -8449,7 +8510,7 @@
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D314" s="14">
         <f>(D294+1/12*D296+1/12*D297)*12</f>
@@ -8458,7 +8519,7 @@
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D315" s="14">
         <f>(D294+1/12*D296+1/12*D297)*0.5*24</f>
@@ -8467,12 +8528,12 @@
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B319" s="31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C319" s="31"/>
     </row>
@@ -8490,11 +8551,11 @@
     </row>
     <row r="321" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B321" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C321" s="6"/>
       <c r="D321" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E321" s="6" t="s">
         <v>275</v>
@@ -8502,47 +8563,47 @@
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C322" s="6"/>
       <c r="D322" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E322" s="6"/>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C323" s="6"/>
       <c r="D323" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E323" s="6"/>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B324" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C324" s="6"/>
       <c r="D324" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E324" s="6"/>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E325" s="6"/>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="78" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C327" s="78"/>
       <c r="D327" s="78"/>
@@ -8553,18 +8614,18 @@
     <row r="328" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="329" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B329" s="106" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C329" s="106"/>
     </row>
     <row r="330" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B330" s="33" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="331" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="33" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="332" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8572,7 +8633,7 @@
         <v>174</v>
       </c>
       <c r="D332" s="33" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E332" s="33" t="s">
         <v>60</v>
@@ -8604,7 +8665,7 @@
     </row>
     <row r="334" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B334" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D334" s="107">
         <v>18000</v>
@@ -8628,19 +8689,19 @@
     </row>
     <row r="336" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B336" s="33" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D336" s="109">
         <f>D333*G333/G335+D334*G334/G335</f>
         <v>14189.848914069877</v>
       </c>
       <c r="E336" s="33" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="337" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B337" s="31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C337" s="31"/>
       <c r="D337" s="1"/>
@@ -8660,11 +8721,11 @@
     </row>
     <row r="339" spans="2:5" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C339" s="6"/>
       <c r="D339" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E339" s="6" t="s">
         <v>275</v>
@@ -8672,11 +8733,11 @@
     </row>
     <row r="340" spans="2:5" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B340" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C340" s="6"/>
       <c r="D340" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E340" s="111">
         <v>14189.85</v>
@@ -8684,11 +8745,11 @@
     </row>
     <row r="341" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B341" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C341" s="6"/>
       <c r="D341" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E341" s="6">
         <f>E340*12</f>
@@ -8697,11 +8758,11 @@
     </row>
     <row r="342" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B342" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C342" s="6"/>
       <c r="D342" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E342" s="6">
         <f>E340*24/2</f>
@@ -8710,21 +8771,21 @@
     </row>
     <row r="343" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B343" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C343" s="6"/>
       <c r="D343" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E343" s="6"/>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B344" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C344" s="6"/>
       <c r="D344" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E344" s="6"/>
     </row>
@@ -8742,23 +8803,23 @@
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B347" s="26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C347" s="26"/>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B351" s="31" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C351" s="31"/>
     </row>
@@ -8776,11 +8837,11 @@
     </row>
     <row r="353" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B353" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C353" s="6"/>
       <c r="D353" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E353" s="6" t="s">
         <v>145</v>
@@ -8788,11 +8849,11 @@
     </row>
     <row r="354" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B354" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C354" s="6"/>
       <c r="D354" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E354" s="6">
         <v>8000</v>
@@ -8800,11 +8861,11 @@
     </row>
     <row r="355" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B355" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E355" s="6">
         <f>E354*1</f>
@@ -8813,13 +8874,13 @@
     </row>
     <row r="357" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B357" s="26" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C357" s="26"/>
     </row>
     <row r="358" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B358" s="49" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C358" s="49"/>
       <c r="D358" s="79"/>
@@ -8837,7 +8898,7 @@
     </row>
     <row r="359" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B359" s="49" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C359" s="49"/>
       <c r="D359" s="79"/>
@@ -8855,12 +8916,12 @@
     </row>
     <row r="360" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B360" s="49" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C360" s="49"/>
       <c r="D360" s="79"/>
       <c r="E360" s="82" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F360" s="49"/>
       <c r="G360" s="49"/>
@@ -8875,14 +8936,14 @@
     </row>
     <row r="361" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B361" s="49" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C361" s="49"/>
       <c r="D361" s="49">
         <v>1603</v>
       </c>
       <c r="E361" s="49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F361" s="49"/>
       <c r="G361" s="49"/>
@@ -8904,7 +8965,7 @@
         <v>2237</v>
       </c>
       <c r="E362" s="49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F362" s="49"/>
       <c r="G362" s="49"/>
@@ -8919,7 +8980,7 @@
     </row>
     <row r="363" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B363" s="49" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C363" s="49"/>
       <c r="D363" s="79"/>
@@ -8937,7 +8998,7 @@
     </row>
     <row r="364" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B364" s="49" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C364" s="49"/>
       <c r="D364" s="79"/>
@@ -8955,7 +9016,7 @@
     </row>
     <row r="365" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B365" s="49" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C365" s="49"/>
       <c r="D365" s="79"/>
@@ -8973,7 +9034,7 @@
     </row>
     <row r="366" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B366" s="49" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C366" s="49"/>
       <c r="D366" s="79"/>
@@ -8991,14 +9052,14 @@
     </row>
     <row r="367" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B367" s="49" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C367" s="49"/>
       <c r="D367" s="49">
         <v>2237</v>
       </c>
       <c r="E367" s="80" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F367" s="49"/>
       <c r="G367" s="49"/>
@@ -9013,14 +9074,14 @@
     </row>
     <row r="368" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B368" s="49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C368" s="49"/>
       <c r="D368" s="49">
         <v>2237</v>
       </c>
       <c r="E368" s="49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F368" s="49"/>
       <c r="G368" s="49"/>
@@ -9051,7 +9112,7 @@
     </row>
     <row r="370" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B370" s="49" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C370" s="49"/>
       <c r="D370" s="79"/>
@@ -9059,7 +9120,7 @@
       <c r="F370" s="49"/>
       <c r="G370" s="49"/>
       <c r="H370" s="81" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I370" s="49"/>
       <c r="J370" s="49"/>
@@ -9087,7 +9148,7 @@
     </row>
     <row r="372" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B372" s="31" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C372" s="31"/>
     </row>
@@ -9117,11 +9178,11 @@
     </row>
     <row r="375" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B375" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C375" s="6"/>
       <c r="D375" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E375" s="40">
         <v>0.8</v>
@@ -9129,11 +9190,11 @@
     </row>
     <row r="376" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B376" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C376" s="6"/>
       <c r="D376" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E376" s="40">
         <v>1</v>
@@ -9141,62 +9202,62 @@
     </row>
     <row r="377" spans="2:15" ht="105" x14ac:dyDescent="0.25">
       <c r="B377" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C377" s="6"/>
       <c r="D377" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E377" s="6">
         <v>0</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="378" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B378" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C378" s="6"/>
       <c r="D378" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E378" s="6">
         <f>2237*E375</f>
         <v>1789.6000000000001</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="381" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B381" s="26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C381" s="26"/>
     </row>
     <row r="382" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B382" s="49" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C382" s="49"/>
     </row>
     <row r="383" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B383" s="49" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C383" s="49"/>
     </row>
     <row r="384" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B384" s="49" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C384" s="49"/>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" s="31" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C387" s="31"/>
     </row>
@@ -9226,11 +9287,11 @@
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C390" s="6"/>
       <c r="D390" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E390" s="40">
         <v>1</v>
@@ -9238,11 +9299,11 @@
     </row>
     <row r="391" spans="2:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B391" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C391" s="6"/>
       <c r="D391" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E391" s="6">
         <v>0</v>
@@ -9250,7 +9311,7 @@
     </row>
     <row r="392" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B392" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
@@ -9258,7 +9319,7 @@
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" s="56" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C394" s="56"/>
     </row>
@@ -9270,17 +9331,17 @@
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" s="31" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C399" s="31"/>
     </row>
@@ -9298,11 +9359,11 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B401" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C401" s="6"/>
       <c r="D401" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E401" s="6">
         <v>2</v>
@@ -9310,11 +9371,11 @@
     </row>
     <row r="402" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B402" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C402" s="6"/>
       <c r="D402" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E402" s="40">
         <v>0.25</v>
@@ -9322,11 +9383,11 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B403" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E403" s="47">
         <v>12000</v>
@@ -9334,11 +9395,11 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B404" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C404" s="6"/>
       <c r="D404" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E404" s="47">
         <f>E403*E401*E402</f>
@@ -9348,7 +9409,7 @@
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="15"/>
       <c r="B407" s="85" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C407" s="85"/>
       <c r="E407" s="1" t="s">
@@ -9358,7 +9419,7 @@
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="15"/>
       <c r="B408" s="86" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C408" s="86"/>
     </row>
@@ -9381,11 +9442,11 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B411" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C411" s="6"/>
       <c r="D411" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E411" s="1">
         <f>E410*3</f>
@@ -9428,16 +9489,16 @@
         <v>266</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C2" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" s="69" t="s">
         <v>373</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>374</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -9446,13 +9507,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="70" t="s">
         <v>376</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11072,7 +11133,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="71" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -11172,10 +11233,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11199,13 +11260,13 @@
         <v>172</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>181</v>
@@ -11229,10 +11290,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11460,12 +11521,12 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="56" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -11475,12 +11536,12 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -11488,7 +11549,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -11504,21 +11565,21 @@
     </row>
     <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
@@ -11526,10 +11587,10 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D57" s="40">
         <v>0.25</v>
@@ -11537,10 +11598,10 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D58" s="47">
         <v>12000</v>
@@ -11548,7 +11609,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>167</v>
@@ -11559,10 +11620,10 @@
     </row>
     <row r="60" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D60" s="105">
         <f>D56*D57*D58*0.28</f>
@@ -11571,7 +11632,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -11587,21 +11648,21 @@
     </row>
     <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D65" s="6">
         <v>15</v>
@@ -11609,10 +11670,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D66" s="40">
         <v>0.25</v>
@@ -11620,10 +11681,10 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D67" s="47">
         <v>12000</v>
@@ -11631,7 +11692,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>167</v>
@@ -11642,10 +11703,10 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D69" s="104">
         <v>30000</v>
@@ -11653,10 +11714,10 @@
     </row>
     <row r="70" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D70" s="48">
         <f>D65*D67*D66-D69</f>
@@ -11675,12 +11736,12 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="56" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -11770,7 +11831,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>181</v>
@@ -11805,7 +11866,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
@@ -11815,7 +11876,7 @@
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -12111,7 +12172,7 @@
         <v>292</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D130" s="6">
         <v>11500</v>
@@ -12162,22 +12223,22 @@
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="26" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="31" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
@@ -12193,10 +12254,10 @@
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>145</v>
@@ -12204,10 +12265,10 @@
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D143" s="6">
         <v>8000</v>
@@ -12215,10 +12276,10 @@
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D144" s="6">
         <f>D143*1</f>
@@ -12227,12 +12288,12 @@
     </row>
     <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="26" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="49" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C147" s="79"/>
       <c r="D147" s="49"/>
@@ -12249,7 +12310,7 @@
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="49" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C148" s="79"/>
       <c r="D148" s="49"/>
@@ -12266,11 +12327,11 @@
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="49" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C149" s="79"/>
       <c r="D149" s="82" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E149" s="49"/>
       <c r="F149" s="49"/>
@@ -12285,13 +12346,13 @@
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="49" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C150" s="49">
         <v>1603</v>
       </c>
       <c r="D150" s="49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E150" s="49"/>
       <c r="F150" s="49"/>
@@ -12312,7 +12373,7 @@
         <v>2237</v>
       </c>
       <c r="D151" s="49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E151" s="49"/>
       <c r="F151" s="49"/>
@@ -12327,7 +12388,7 @@
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="49" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C152" s="79"/>
       <c r="D152" s="49"/>
@@ -12344,7 +12405,7 @@
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="49" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C153" s="79"/>
       <c r="D153" s="49"/>
@@ -12361,7 +12422,7 @@
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="49" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C154" s="79"/>
       <c r="D154" s="49"/>
@@ -12378,7 +12439,7 @@
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="49" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C155" s="79"/>
       <c r="D155" s="49"/>
@@ -12395,13 +12456,13 @@
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="49" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C156" s="49">
         <v>2237</v>
       </c>
       <c r="D156" s="80" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E156" s="49"/>
       <c r="F156" s="49"/>
@@ -12416,14 +12477,14 @@
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C157" s="49">
         <f>2237*2/12</f>
         <v>372.83333333333331</v>
       </c>
       <c r="D157" s="49" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E157" s="49"/>
       <c r="F157" s="49"/>
@@ -12453,14 +12514,14 @@
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="49" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C159" s="79"/>
       <c r="D159" s="49"/>
       <c r="E159" s="49"/>
       <c r="F159" s="49"/>
       <c r="G159" s="81" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H159" s="49"/>
       <c r="I159" s="49"/>
@@ -12487,7 +12548,7 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="31" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
@@ -12514,24 +12575,24 @@
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="D164" s="40">
         <v>0.8</v>
       </c>
       <c r="F164" s="101" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D165" s="40">
         <v>1</v>
@@ -12539,56 +12600,56 @@
     </row>
     <row r="166" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D166" s="6">
         <v>0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B167" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D167" s="6">
         <f>2237*D164</f>
         <v>1789.6000000000001</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="49" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="49" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="49" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="31" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
@@ -12615,10 +12676,10 @@
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D179" s="40">
         <v>1</v>
@@ -12626,10 +12687,10 @@
     </row>
     <row r="180" spans="2:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D180" s="6">
         <v>0</v>
@@ -12637,7 +12698,7 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="102" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="6"/>
@@ -12648,7 +12709,7 @@
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="15"/>
       <c r="B196" s="85" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>14</v>
@@ -12657,7 +12718,7 @@
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="15"/>
       <c r="B197" s="86" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -12677,10 +12738,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D200" s="1">
         <f>D199*3</f>
@@ -12689,7 +12750,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\שרגא יהודית\source\repos\RetirementSimulator\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\RetirementSimulator\RetirementSimulator\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18360357-91C6-4066-A6B4-38C31556828E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,13 +33,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michal</author>
     <author>Esti</author>
   </authors>
   <commentList>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B185" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B185" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B186" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="B186" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B266" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="B266" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H370" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="H370" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,13 +167,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Esti</author>
     <author>Michal</author>
   </authors>
   <commentList>
-    <comment ref="B117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="B117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B118" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="B118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G159" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="G159" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="674">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -2412,7 +2411,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
@@ -3035,7 +3034,7 @@
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="הערה" xfId="4" builtinId="10"/>
     <cellStyle name="טוב" xfId="5" builtinId="26"/>
@@ -3347,32 +3346,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -3406,29 +3405,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="89" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" style="89" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.8984375" style="1" customWidth="1"/>
     <col min="7" max="8" width="23" style="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="10" max="10" width="21.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3437,7 +3436,7 @@
       </c>
       <c r="C1" s="117"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88"/>
       <c r="B2" s="144" t="s">
         <v>603</v>
@@ -3450,7 +3449,7 @@
       <c r="H2" s="144"/>
       <c r="I2" s="144"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>520</v>
       </c>
@@ -3512,7 +3511,7 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
         <v>521</v>
       </c>
@@ -3598,7 +3597,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>521</v>
       </c>
@@ -3628,7 +3627,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
         <v>521</v>
       </c>
@@ -3658,7 +3657,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
         <v>521</v>
       </c>
@@ -3688,7 +3687,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
         <v>522</v>
       </c>
@@ -3720,7 +3719,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
         <v>523</v>
       </c>
@@ -3750,7 +3749,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A13" s="87" t="s">
         <v>524</v>
       </c>
@@ -3778,7 +3777,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="87" t="s">
         <v>524</v>
       </c>
@@ -3808,7 +3807,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="87" t="s">
         <v>524</v>
       </c>
@@ -3838,7 +3837,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
         <v>524</v>
       </c>
@@ -3866,7 +3865,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="87" t="s">
         <v>524</v>
       </c>
@@ -3894,7 +3893,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="87" t="s">
         <v>524</v>
       </c>
@@ -3918,7 +3917,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="87" t="s">
         <v>524</v>
       </c>
@@ -3948,7 +3947,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
         <v>524</v>
       </c>
@@ -3978,7 +3977,7 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
         <v>521</v>
       </c>
@@ -3996,7 +3995,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="87" t="s">
         <v>521</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="87" t="s">
         <v>521</v>
       </c>
@@ -4058,7 +4057,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="87" t="s">
         <v>521</v>
       </c>
@@ -4088,7 +4087,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A25" s="87" t="s">
         <v>521</v>
       </c>
@@ -4118,7 +4117,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
         <v>521</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="69" x14ac:dyDescent="0.25">
       <c r="A27" s="87" t="s">
         <v>521</v>
       </c>
@@ -4168,7 +4167,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="87" t="s">
         <v>521</v>
       </c>
@@ -4196,7 +4195,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="69" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
         <v>521</v>
       </c>
@@ -4220,7 +4219,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
         <v>521</v>
       </c>
@@ -4250,7 +4249,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A31" s="97" t="s">
         <v>542</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="97" t="s">
         <v>540</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="97" t="s">
         <v>540</v>
       </c>
@@ -4390,24 +4389,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1"/>
-    <col min="6" max="6" width="28.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="1"/>
+    <col min="6" max="6" width="28.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="87.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
@@ -4420,7 +4419,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>60</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="17"/>
@@ -4665,7 +4664,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
     </row>
-    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>60</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="19">
         <v>32874</v>
       </c>
@@ -4702,7 +4701,7 @@
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="19">
         <v>33604</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>9.0020533880903493</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
         <v>36892</v>
       </c>
@@ -4737,7 +4736,7 @@
       </c>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="19">
         <v>37257</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="19">
         <v>39458</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="19">
         <v>42370</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="29">
         <f>SUM(D22:D28)</f>
         <v>33.998631074606436</v>
@@ -4823,7 +4822,7 @@
         <v>28.200958247775496</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="29"/>
       <c r="F30" s="29"/>
     </row>
@@ -4903,7 +4902,7 @@
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
     </row>
-    <row r="41" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>60</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="19">
         <v>32874</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>1.5978082191780822</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="19">
         <v>33604</v>
       </c>
@@ -5100,20 +5099,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
     <col min="2" max="10" width="18" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" style="1"/>
+    <col min="12" max="12" width="8.69921875" style="1"/>
     <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.75" style="1"/>
+    <col min="14" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5121,7 +5120,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>520</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
         <v>521</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A7" s="93" t="s">
         <v>524</v>
       </c>
@@ -5290,7 +5289,7 @@
       </c>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>592</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>592</v>
       </c>
@@ -5362,7 +5361,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>521</v>
       </c>
@@ -5426,23 +5425,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1"/>
-    <col min="7" max="7" width="33.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="42.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="1"/>
+    <col min="7" max="7" width="33.69921875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5609,7 +5608,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" ht="7.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="113" t="s">
         <v>184</v>
@@ -5628,7 +5627,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B23" s="129" t="s">
         <v>530</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>60</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="19">
         <v>32874</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>1.5989048596851472</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="19">
         <v>33604</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>9.0020533880903493</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="19">
         <v>36892</v>
       </c>
@@ -5752,7 +5751,7 @@
       </c>
       <c r="G32" s="48"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="19">
         <v>37257</v>
       </c>
@@ -5769,7 +5768,7 @@
       </c>
       <c r="G33" s="48"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="19">
         <v>37987</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="19">
         <v>39458</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="19">
         <v>42370</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E37" s="29">
         <f>SUM(E30:E36)</f>
         <v>33.998631074606436</v>
@@ -5839,7 +5838,7 @@
         <v>28.200958247775496</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E38" s="29"/>
       <c r="G38" s="29"/>
     </row>
@@ -6109,7 +6108,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>12000</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>25000</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="E70" s="1">
         <f>SUM(E68:E69)</f>
         <v>13600</v>
@@ -6319,7 +6318,7 @@
         <v>11737.52</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B84" s="62"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
@@ -6519,7 +6518,7 @@
         <v>6831.3559999999998</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B102" s="62"/>
       <c r="C102" s="62"/>
       <c r="D102" s="62"/>
@@ -6704,7 +6703,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B116" s="62"/>
       <c r="C116" s="62"/>
       <c r="D116" s="62"/>
@@ -7083,7 +7082,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B159" s="116" t="s">
         <v>246</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B161" s="116" t="s">
         <v>248</v>
       </c>
@@ -7132,7 +7131,7 @@
         <v>461.46746654360862</v>
       </c>
     </row>
-    <row r="162" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B162" s="6" t="s">
         <v>251</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B168" s="49">
         <v>1</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B169" s="49">
         <v>2</v>
       </c>
@@ -7185,7 +7184,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B170" s="49">
         <v>3</v>
       </c>
@@ -7194,7 +7193,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B172" s="49" t="s">
         <v>260</v>
       </c>
@@ -7202,7 +7201,7 @@
       <c r="D172" s="49"/>
       <c r="E172" s="49"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B173" s="49" t="s">
         <v>261</v>
       </c>
@@ -7210,7 +7209,7 @@
       <c r="D173" s="49"/>
       <c r="E173" s="49"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B174" s="49" t="s">
         <v>262</v>
       </c>
@@ -7218,7 +7217,7 @@
       <c r="D174" s="49"/>
       <c r="E174" s="49"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B175" s="49" t="s">
         <v>263</v>
       </c>
@@ -7226,7 +7225,7 @@
       <c r="D175" s="49"/>
       <c r="E175" s="49"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B176" s="49" t="s">
         <v>264</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B191" s="6" t="s">
         <v>271</v>
       </c>
@@ -7394,7 +7393,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="192" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B192" s="6" t="s">
         <v>276</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>0.46236559139784944</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B196" s="6" t="s">
         <v>285</v>
       </c>
@@ -7460,7 +7459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="6" t="s">
         <v>287</v>
       </c>
@@ -7501,7 +7500,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="200" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
         <v>293</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="210" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B210" s="6" t="s">
         <v>271</v>
       </c>
@@ -7600,7 +7599,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="211" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B211" s="6" t="s">
         <v>465</v>
       </c>
@@ -7612,7 +7611,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="212" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
         <v>467</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="217" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B217" s="6" t="s">
         <v>285</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="6" t="s">
         <v>473</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>27600</v>
       </c>
     </row>
-    <row r="223" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B223" s="6" t="s">
         <v>475</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>47600</v>
       </c>
     </row>
-    <row r="228" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B228" s="6" t="s">
         <v>293</v>
       </c>
@@ -7857,19 +7856,19 @@
       </c>
       <c r="C233" s="31"/>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B234" s="49" t="s">
         <v>298</v>
       </c>
       <c r="C234" s="49"/>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B235" s="49" t="s">
         <v>299</v>
       </c>
       <c r="C235" s="49"/>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B236" s="49" t="s">
         <v>300</v>
       </c>
@@ -7878,14 +7877,14 @@
         <v>301</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B237" s="49" t="s">
         <v>302</v>
       </c>
       <c r="C237" s="49"/>
       <c r="D237" s="49"/>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B239" s="49" t="s">
         <v>213</v>
       </c>
@@ -7895,7 +7894,7 @@
       <c r="F239" s="49"/>
       <c r="G239" s="49"/>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B240" s="49" t="s">
         <v>303</v>
       </c>
@@ -7905,7 +7904,7 @@
       <c r="F240" s="49"/>
       <c r="G240" s="49"/>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B241" s="49" t="s">
         <v>304</v>
       </c>
@@ -7922,7 +7921,7 @@
       </c>
       <c r="G241" s="49"/>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B242" s="49" t="s">
         <v>307</v>
       </c>
@@ -7934,7 +7933,7 @@
       <c r="F242" s="49"/>
       <c r="G242" s="49"/>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B243" s="49"/>
       <c r="C243" s="49"/>
       <c r="D243" s="49"/>
@@ -7944,7 +7943,7 @@
       <c r="F243" s="49"/>
       <c r="G243" s="49"/>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B244" s="49"/>
       <c r="C244" s="49"/>
       <c r="D244" s="49"/>
@@ -7957,7 +7956,7 @@
       </c>
       <c r="G244" s="49"/>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B245" s="49"/>
       <c r="C245" s="49"/>
       <c r="D245" s="49"/>
@@ -7970,7 +7969,7 @@
       </c>
       <c r="G245" s="49"/>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B246" s="49"/>
       <c r="C246" s="49"/>
       <c r="D246" s="49" t="s">
@@ -7984,7 +7983,7 @@
       </c>
       <c r="G246" s="49"/>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B247" s="49"/>
       <c r="C247" s="49"/>
       <c r="D247" s="49" t="s">
@@ -8025,7 +8024,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="6" t="s">
         <v>343</v>
       </c>
@@ -8037,7 +8036,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="255" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B255" s="6" t="s">
         <v>345</v>
       </c>
@@ -8091,7 +8090,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B262" s="44" t="s">
         <v>350</v>
       </c>
@@ -8105,7 +8104,7 @@
       <c r="L262" s="49"/>
       <c r="M262" s="49"/>
     </row>
-    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B263" s="1" t="s">
         <v>351</v>
       </c>
@@ -8118,7 +8117,7 @@
       <c r="L263" s="49"/>
       <c r="M263" s="49"/>
     </row>
-    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B264" s="1" t="s">
         <v>352</v>
       </c>
@@ -8131,7 +8130,7 @@
       <c r="L264" s="49"/>
       <c r="M264" s="49"/>
     </row>
-    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B265" s="1" t="s">
         <v>353</v>
       </c>
@@ -8144,7 +8143,7 @@
       <c r="L265" s="49"/>
       <c r="M265" s="49"/>
     </row>
-    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B266" s="25" t="s">
         <v>358</v>
       </c>
@@ -8159,7 +8158,7 @@
       <c r="L266" s="49"/>
       <c r="M266" s="49"/>
     </row>
-    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B267" s="25" t="s">
         <v>359</v>
       </c>
@@ -8175,7 +8174,7 @@
       <c r="L267" s="49"/>
       <c r="M267" s="49"/>
     </row>
-    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B268" s="25" t="s">
         <v>355</v>
       </c>
@@ -8192,7 +8191,7 @@
       <c r="L268" s="49"/>
       <c r="M268" s="49"/>
     </row>
-    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B269" s="1" t="s">
         <v>356</v>
       </c>
@@ -8205,7 +8204,7 @@
       <c r="L269" s="49"/>
       <c r="M269" s="49"/>
     </row>
-    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B270" s="33" t="s">
         <v>357</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="321" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="6" t="s">
         <v>419</v>
       </c>
@@ -8719,7 +8718,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="339" spans="2:5" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="6" t="s">
         <v>419</v>
       </c>
@@ -8731,7 +8730,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="340" spans="2:5" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:5" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B340" s="6" t="s">
         <v>597</v>
       </c>
@@ -8878,7 +8877,7 @@
       </c>
       <c r="C357" s="26"/>
     </row>
-    <row r="358" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B358" s="49" t="s">
         <v>440</v>
       </c>
@@ -8896,7 +8895,7 @@
       <c r="N358" s="49"/>
       <c r="O358" s="49"/>
     </row>
-    <row r="359" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B359" s="49" t="s">
         <v>441</v>
       </c>
@@ -8914,7 +8913,7 @@
       <c r="N359" s="49"/>
       <c r="O359" s="49"/>
     </row>
-    <row r="360" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B360" s="49" t="s">
         <v>442</v>
       </c>
@@ -8934,7 +8933,7 @@
       <c r="N360" s="49"/>
       <c r="O360" s="49"/>
     </row>
-    <row r="361" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B361" s="49" t="s">
         <v>444</v>
       </c>
@@ -8956,7 +8955,7 @@
       <c r="N361" s="49"/>
       <c r="O361" s="49"/>
     </row>
-    <row r="362" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B362" s="49" t="s">
         <v>43</v>
       </c>
@@ -8978,7 +8977,7 @@
       <c r="N362" s="49"/>
       <c r="O362" s="49"/>
     </row>
-    <row r="363" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B363" s="49" t="s">
         <v>445</v>
       </c>
@@ -8996,7 +8995,7 @@
       <c r="N363" s="49"/>
       <c r="O363" s="49"/>
     </row>
-    <row r="364" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B364" s="49" t="s">
         <v>446</v>
       </c>
@@ -9014,7 +9013,7 @@
       <c r="N364" s="49"/>
       <c r="O364" s="49"/>
     </row>
-    <row r="365" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B365" s="49" t="s">
         <v>447</v>
       </c>
@@ -9032,7 +9031,7 @@
       <c r="N365" s="49"/>
       <c r="O365" s="49"/>
     </row>
-    <row r="366" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B366" s="49" t="s">
         <v>565</v>
       </c>
@@ -9050,7 +9049,7 @@
       <c r="N366" s="49"/>
       <c r="O366" s="49"/>
     </row>
-    <row r="367" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B367" s="49" t="s">
         <v>448</v>
       </c>
@@ -9072,7 +9071,7 @@
       <c r="N367" s="49"/>
       <c r="O367" s="49"/>
     </row>
-    <row r="368" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B368" s="49" t="s">
         <v>563</v>
       </c>
@@ -9094,7 +9093,7 @@
       <c r="N368" s="49"/>
       <c r="O368" s="49"/>
     </row>
-    <row r="369" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B369" s="49"/>
       <c r="C369" s="49"/>
       <c r="D369" s="79"/>
@@ -9110,7 +9109,7 @@
       <c r="N369" s="49"/>
       <c r="O369" s="49"/>
     </row>
-    <row r="370" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B370" s="49" t="s">
         <v>450</v>
       </c>
@@ -9130,7 +9129,7 @@
       <c r="N370" s="49"/>
       <c r="O370" s="49"/>
     </row>
-    <row r="371" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B371" s="49"/>
       <c r="C371" s="49"/>
       <c r="D371" s="79"/>
@@ -9200,7 +9199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:15" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B377" s="6" t="s">
         <v>491</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="378" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:15" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B378" s="6" t="s">
         <v>493</v>
       </c>
@@ -9237,19 +9236,19 @@
       </c>
       <c r="C381" s="26"/>
     </row>
-    <row r="382" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B382" s="49" t="s">
         <v>568</v>
       </c>
       <c r="C382" s="49"/>
     </row>
-    <row r="383" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B383" s="49" t="s">
         <v>496</v>
       </c>
       <c r="C383" s="49"/>
     </row>
-    <row r="384" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B384" s="49" t="s">
         <v>502</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:5" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B391" s="6" t="s">
         <v>498</v>
       </c>
@@ -9309,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B392" s="7" t="s">
         <v>504</v>
       </c>
@@ -9369,7 +9368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B402" s="6" t="s">
         <v>408</v>
       </c>
@@ -9465,7 +9464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -9475,16 +9474,16 @@
       <selection pane="bottomRight" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="67"/>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>266</v>
       </c>
@@ -9501,7 +9500,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="69"/>
       <c r="B3" s="70">
         <v>1</v>
@@ -9516,7 +9515,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="71">
         <v>18</v>
       </c>
@@ -9533,7 +9532,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="71">
         <v>18.5</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="71">
         <v>19</v>
       </c>
@@ -9567,7 +9566,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="71">
         <v>19.5</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>20</v>
       </c>
@@ -9601,7 +9600,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
         <v>20.5</v>
       </c>
@@ -9618,7 +9617,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <v>21</v>
       </c>
@@ -9635,7 +9634,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="71">
         <v>21.5</v>
       </c>
@@ -9652,7 +9651,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
         <v>22</v>
       </c>
@@ -9669,7 +9668,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="71">
         <v>22.5</v>
       </c>
@@ -9686,7 +9685,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="71">
         <v>23</v>
       </c>
@@ -9703,7 +9702,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="71">
         <v>23.5</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
         <v>24</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="71">
         <v>24.5</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <v>25</v>
       </c>
@@ -9771,7 +9770,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <v>25.5</v>
       </c>
@@ -9788,7 +9787,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="71">
         <v>26</v>
       </c>
@@ -9805,7 +9804,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="71">
         <v>26.5</v>
       </c>
@@ -9822,7 +9821,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <v>27</v>
       </c>
@@ -9839,7 +9838,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="71">
         <v>27.5</v>
       </c>
@@ -9856,7 +9855,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="71">
         <v>28</v>
       </c>
@@ -9873,7 +9872,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="71">
         <v>28.5</v>
       </c>
@@ -9890,7 +9889,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="71">
         <v>29</v>
       </c>
@@ -9907,7 +9906,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="71">
         <v>29.5</v>
       </c>
@@ -9924,7 +9923,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="71">
         <v>30</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="71">
         <v>30.5</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="71">
         <v>31</v>
       </c>
@@ -9975,7 +9974,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="71">
         <v>31.5</v>
       </c>
@@ -9992,7 +9991,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="71">
         <v>32</v>
       </c>
@@ -10009,7 +10008,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="71">
         <v>32.5</v>
       </c>
@@ -10026,7 +10025,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="71">
         <v>33</v>
       </c>
@@ -10043,7 +10042,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="71">
         <v>33.5</v>
       </c>
@@ -10060,7 +10059,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="71">
         <v>34</v>
       </c>
@@ -10077,7 +10076,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="71">
         <v>34.5</v>
       </c>
@@ -10094,7 +10093,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="71">
         <v>35</v>
       </c>
@@ -10111,7 +10110,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="71">
         <v>35.5</v>
       </c>
@@ -10128,7 +10127,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="71">
         <v>36</v>
       </c>
@@ -10145,7 +10144,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="71">
         <v>36.5</v>
       </c>
@@ -10162,7 +10161,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="71">
         <v>37</v>
       </c>
@@ -10179,7 +10178,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="71">
         <v>37.5</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="71">
         <v>38</v>
       </c>
@@ -10213,7 +10212,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="71">
         <v>38.5</v>
       </c>
@@ -10230,7 +10229,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="71">
         <v>39</v>
       </c>
@@ -10247,7 +10246,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="71">
         <v>39.5</v>
       </c>
@@ -10264,7 +10263,7 @@
         <v>0.314</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="71">
         <v>40</v>
       </c>
@@ -10281,7 +10280,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="71">
         <v>40.5</v>
       </c>
@@ -10298,7 +10297,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="71">
         <v>41</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="71">
         <v>41.5</v>
       </c>
@@ -10332,7 +10331,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="71">
         <v>42</v>
       </c>
@@ -10349,7 +10348,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="71">
         <v>42.5</v>
       </c>
@@ -10366,7 +10365,7 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="71">
         <v>43</v>
       </c>
@@ -10383,7 +10382,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="71">
         <v>43.5</v>
       </c>
@@ -10400,7 +10399,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="71">
         <v>44</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="71">
         <v>44.5</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="71">
         <v>45</v>
       </c>
@@ -10451,7 +10450,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="71">
         <v>45.5</v>
       </c>
@@ -10468,7 +10467,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="71">
         <v>46</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="71">
         <v>46.5</v>
       </c>
@@ -10502,7 +10501,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="71">
         <v>47</v>
       </c>
@@ -10519,7 +10518,7 @@
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="71">
         <v>47.5</v>
       </c>
@@ -10536,7 +10535,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="71">
         <v>48</v>
       </c>
@@ -10553,7 +10552,7 @@
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="71">
         <v>48.5</v>
       </c>
@@ -10570,7 +10569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="71">
         <v>49</v>
       </c>
@@ -10587,7 +10586,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="71">
         <v>49.5</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="71">
         <v>50</v>
       </c>
@@ -10621,7 +10620,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="71">
         <v>50.5</v>
       </c>
@@ -10638,7 +10637,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="71">
         <v>51</v>
       </c>
@@ -10655,7 +10654,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="71">
         <v>51.5</v>
       </c>
@@ -10672,7 +10671,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="71">
         <v>52</v>
       </c>
@@ -10689,7 +10688,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="71">
         <v>52.5</v>
       </c>
@@ -10706,7 +10705,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="71">
         <v>53</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="71">
         <v>53.5</v>
       </c>
@@ -10740,7 +10739,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="71">
         <v>54</v>
       </c>
@@ -10757,7 +10756,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="71">
         <v>54.5</v>
       </c>
@@ -10774,7 +10773,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="71">
         <v>55</v>
       </c>
@@ -10791,7 +10790,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="71">
         <v>55.5</v>
       </c>
@@ -10808,7 +10807,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="71">
         <v>56</v>
       </c>
@@ -10825,7 +10824,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="71">
         <v>56.5</v>
       </c>
@@ -10842,7 +10841,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="71">
         <v>57</v>
       </c>
@@ -10859,7 +10858,7 @@
         <v>0.80300000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="71">
         <v>57.5</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="71">
         <v>58</v>
       </c>
@@ -10893,7 +10892,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="71">
         <v>58.5</v>
       </c>
@@ -10910,7 +10909,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="71">
         <v>59</v>
       </c>
@@ -10927,7 +10926,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="71">
         <v>59.5</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="71">
         <v>60</v>
       </c>
@@ -10961,7 +10960,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="71">
         <v>60.5</v>
       </c>
@@ -10978,7 +10977,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="71">
         <v>61</v>
       </c>
@@ -10995,7 +10994,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="71">
         <v>61.5</v>
       </c>
@@ -11012,7 +11011,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="71">
         <v>62</v>
       </c>
@@ -11029,7 +11028,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="71">
         <v>62.5</v>
       </c>
@@ -11046,7 +11045,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="71">
         <v>63</v>
       </c>
@@ -11063,7 +11062,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="71">
         <v>63.5</v>
       </c>
@@ -11080,7 +11079,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="71">
         <v>64</v>
       </c>
@@ -11097,7 +11096,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="71">
         <v>64.5</v>
       </c>
@@ -11114,7 +11113,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="71">
         <v>65</v>
       </c>
@@ -11131,7 +11130,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="71" t="s">
         <v>377</v>
       </c>
@@ -11146,20 +11145,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N202"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B109" sqref="B109:D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="42.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11263,7 +11262,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="7.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>545</v>
@@ -11313,7 +11312,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>60</v>
       </c>
@@ -11563,7 +11562,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>573</v>
       </c>
@@ -11618,7 +11617,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>580</v>
       </c>
@@ -11646,7 +11645,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>573</v>
       </c>
@@ -11712,7 +11711,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>580</v>
       </c>
@@ -11818,7 +11817,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>246</v>
       </c>
@@ -11840,7 +11839,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>248</v>
       </c>
@@ -11852,7 +11851,7 @@
         <v>461.46746654360862</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
         <v>251</v>
       </c>
@@ -11889,7 +11888,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B100" s="49">
         <v>1</v>
       </c>
@@ -11897,7 +11896,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B101" s="49">
         <v>2</v>
       </c>
@@ -11905,7 +11904,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B102" s="49">
         <v>3</v>
       </c>
@@ -11913,35 +11912,35 @@
         <v>258</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B104" s="49" t="s">
         <v>260</v>
       </c>
       <c r="C104" s="49"/>
       <c r="D104" s="49"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B105" s="49" t="s">
         <v>261</v>
       </c>
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B106" s="49" t="s">
         <v>262</v>
       </c>
       <c r="C106" s="49"/>
       <c r="D106" s="49"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B107" s="49" t="s">
         <v>263</v>
       </c>
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B108" s="49" t="s">
         <v>264</v>
       </c>
@@ -12083,7 +12082,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" ht="69" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
         <v>271</v>
       </c>
@@ -12094,7 +12093,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" ht="69" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
         <v>276</v>
       </c>
@@ -12144,7 +12143,7 @@
         <v>0.46236559139784944</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
         <v>285</v>
       </c>
@@ -12155,7 +12154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
         <v>287</v>
       </c>
@@ -12193,7 +12192,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
         <v>293</v>
       </c>
@@ -12291,7 +12290,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B147" s="49" t="s">
         <v>440</v>
       </c>
@@ -12308,7 +12307,7 @@
       <c r="M147" s="49"/>
       <c r="N147" s="49"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B148" s="49" t="s">
         <v>441</v>
       </c>
@@ -12325,7 +12324,7 @@
       <c r="M148" s="49"/>
       <c r="N148" s="49"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B149" s="49" t="s">
         <v>442</v>
       </c>
@@ -12344,7 +12343,7 @@
       <c r="M149" s="49"/>
       <c r="N149" s="49"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B150" s="49" t="s">
         <v>444</v>
       </c>
@@ -12365,7 +12364,7 @@
       <c r="M150" s="49"/>
       <c r="N150" s="49"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B151" s="49" t="s">
         <v>43</v>
       </c>
@@ -12386,7 +12385,7 @@
       <c r="M151" s="49"/>
       <c r="N151" s="49"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B152" s="49" t="s">
         <v>445</v>
       </c>
@@ -12403,7 +12402,7 @@
       <c r="M152" s="49"/>
       <c r="N152" s="49"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B153" s="49" t="s">
         <v>446</v>
       </c>
@@ -12420,7 +12419,7 @@
       <c r="M153" s="49"/>
       <c r="N153" s="49"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B154" s="49" t="s">
         <v>560</v>
       </c>
@@ -12437,7 +12436,7 @@
       <c r="M154" s="49"/>
       <c r="N154" s="49"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B155" s="49" t="s">
         <v>561</v>
       </c>
@@ -12454,7 +12453,7 @@
       <c r="M155" s="49"/>
       <c r="N155" s="49"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B156" s="49" t="s">
         <v>448</v>
       </c>
@@ -12475,7 +12474,7 @@
       <c r="M156" s="49"/>
       <c r="N156" s="49"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B157" s="49" t="s">
         <v>563</v>
       </c>
@@ -12497,7 +12496,7 @@
       <c r="M157" s="49"/>
       <c r="N157" s="49"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B158" s="49"/>
       <c r="C158" s="79"/>
       <c r="D158" s="49"/>
@@ -12512,7 +12511,7 @@
       <c r="M158" s="49"/>
       <c r="N158" s="49"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B159" s="49" t="s">
         <v>450</v>
       </c>
@@ -12531,7 +12530,7 @@
       <c r="M159" s="49"/>
       <c r="N159" s="49"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B160" s="49"/>
       <c r="C160" s="79"/>
       <c r="D160" s="49"/>
@@ -12598,7 +12597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
         <v>491</v>
       </c>
@@ -12612,7 +12611,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B167" s="6" t="s">
         <v>493</v>
       </c>
@@ -12632,17 +12631,17 @@
         <v>495</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B171" s="49" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B172" s="49" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B173" s="49" t="s">
         <v>502</v>
       </c>
@@ -12685,7 +12684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
         <v>569</v>
       </c>

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="675">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -2407,6 +2407,9 @@
   <si>
     <t>סכום הקצבה המשוערת לאחר התאמה ל-70%  וכולל וספת יוקר</t>
   </si>
+  <si>
+    <t>תקציבית נכתב בריאקט</t>
+  </si>
 </sst>
 </file>
 
@@ -2419,7 +2422,7 @@
     <numFmt numFmtId="166" formatCode="0.000_)"/>
     <numFmt numFmtId="167" formatCode="&quot;₪&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2591,8 +2594,16 @@
       <name val="David"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2666,6 +2677,17 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -2747,7 +2769,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2755,8 +2777,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2974,11 +2998,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3030,14 +3050,25 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
+    <cellStyle name="20% - הדגשה6" xfId="8" builtinId="50"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="הערה" xfId="4" builtinId="10"/>
     <cellStyle name="טוב" xfId="5" builtinId="26"/>
+    <cellStyle name="ניטראלי" xfId="7" builtinId="28"/>
     <cellStyle name="רע" xfId="6" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3361,12 +3392,12 @@
     <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3408,11 +3439,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3430,24 +3461,27 @@
     <col min="13" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="117" t="s">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B1" s="147" t="s">
         <v>613</v>
       </c>
-      <c r="C1" s="117"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="148" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88"/>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="142" t="s">
         <v>603</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3485,7 +3519,7 @@
       <c r="A4" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="146" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3515,7 +3549,7 @@
       <c r="A5" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="146" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3545,7 +3579,7 @@
       <c r="A6" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="146" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3573,7 +3607,7 @@
       <c r="A7" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="146" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3601,7 +3635,7 @@
       <c r="A8" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="146" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3631,7 +3665,7 @@
       <c r="A9" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="146" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3661,7 +3695,7 @@
       <c r="A10" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="146" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3691,7 +3725,7 @@
       <c r="A11" s="87" t="s">
         <v>522</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="145" t="s">
         <v>361</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3723,7 +3757,7 @@
       <c r="A12" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="149" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="87" t="s">
@@ -3753,7 +3787,7 @@
       <c r="A13" s="87" t="s">
         <v>524</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="117" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -3781,7 +3815,7 @@
       <c r="A14" s="87" t="s">
         <v>524</v>
       </c>
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="117" t="s">
         <v>123</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3811,7 +3845,7 @@
       <c r="A15" s="87" t="s">
         <v>524</v>
       </c>
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="118" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -3841,7 +3875,7 @@
       <c r="A16" s="87" t="s">
         <v>524</v>
       </c>
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="118" t="s">
         <v>208</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -3869,7 +3903,7 @@
       <c r="A17" s="87" t="s">
         <v>524</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="119" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="38" t="s">
@@ -3897,7 +3931,7 @@
       <c r="A18" s="87" t="s">
         <v>524</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="119" t="s">
         <v>133</v>
       </c>
       <c r="C18" s="38" t="s">
@@ -3921,7 +3955,7 @@
       <c r="A19" s="87" t="s">
         <v>524</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="117" t="s">
         <v>137</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -3951,7 +3985,7 @@
       <c r="A20" s="87" t="s">
         <v>524</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="117" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -4253,7 +4287,7 @@
       <c r="A31" s="97" t="s">
         <v>542</v>
       </c>
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="117" t="s">
         <v>535</v>
       </c>
       <c r="C31" s="92" t="s">
@@ -4286,7 +4320,7 @@
       <c r="A32" s="97" t="s">
         <v>540</v>
       </c>
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="117" t="s">
         <v>537</v>
       </c>
       <c r="C32" s="92" t="s">
@@ -4321,10 +4355,10 @@
       <c r="A33" s="97" t="s">
         <v>540</v>
       </c>
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="121" t="s">
         <v>579</v>
       </c>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="120" t="s">
         <v>633</v>
       </c>
       <c r="D33" s="90" t="s">
@@ -5156,10 +5190,10 @@
       <c r="A6" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="122" t="s">
         <v>634</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -5186,7 +5220,7 @@
       <c r="A7" s="93" t="s">
         <v>524</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="123" t="s">
         <v>525</v>
       </c>
       <c r="C7" s="90" t="s">
@@ -5232,7 +5266,7 @@
       <c r="A9" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="125" t="s">
         <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -5261,7 +5295,7 @@
       <c r="A10" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="125" t="s">
         <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -5293,7 +5327,7 @@
       <c r="A12" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="124" t="s">
         <v>456</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -5313,7 +5347,7 @@
       <c r="A13" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="126" t="s">
         <v>459</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -5336,7 +5370,7 @@
       <c r="A15" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="125" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -5365,7 +5399,7 @@
       <c r="A16" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="125" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5391,7 +5425,7 @@
       <c r="A17" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="125" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -5428,7 +5462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
@@ -5477,15 +5511,15 @@
       <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="146" t="s">
+      <c r="G6" s="144" t="s">
         <v>600</v>
       </c>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="113" t="s">
@@ -5628,13 +5662,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="127" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="129" t="s">
         <v>645</v>
       </c>
-      <c r="D23" s="130" t="s">
+      <c r="D23" s="128" t="s">
         <v>531</v>
       </c>
     </row>
@@ -5851,10 +5885,10 @@
       <c r="G39" s="29"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="132" t="s">
         <v>647</v>
       </c>
       <c r="D40" s="48">
@@ -5863,10 +5897,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="134" t="s">
+      <c r="B41" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="134" t="s">
+      <c r="C41" s="132" t="s">
         <v>649</v>
       </c>
       <c r="D41" s="48">
@@ -5875,10 +5909,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="134" t="s">
+      <c r="B42" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="134" t="s">
+      <c r="C42" s="132" t="s">
         <v>650</v>
       </c>
       <c r="D42" s="48">
@@ -5887,22 +5921,22 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="134" t="s">
+      <c r="B43" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="134" t="s">
+      <c r="C43" s="132" t="s">
         <v>651</v>
       </c>
-      <c r="D43" s="135">
+      <c r="D43" s="133">
         <f>E33</f>
         <v>1.998631074606434</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="134" t="s">
+      <c r="B44" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="134" t="s">
+      <c r="C44" s="132" t="s">
         <v>652</v>
       </c>
       <c r="D44" s="55">
@@ -5923,13 +5957,13 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="138" t="s">
+      <c r="B47" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="139" t="s">
+      <c r="C47" s="137" t="s">
         <v>645</v>
       </c>
-      <c r="D47" s="137" t="s">
+      <c r="D47" s="135" t="s">
         <v>533</v>
       </c>
       <c r="E47" s="1">
@@ -5937,10 +5971,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="132" t="s">
+      <c r="B48" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="133" t="s">
+      <c r="C48" s="131" t="s">
         <v>649</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -5951,10 +5985,10 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="136" t="s">
+      <c r="B49" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="136" t="s">
+      <c r="C49" s="134" t="s">
         <v>652</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -5966,10 +6000,10 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="140" t="s">
+      <c r="B50" s="138" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="140" t="s">
+      <c r="C50" s="138" t="s">
         <v>653</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -5981,10 +6015,10 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="140" t="s">
+      <c r="B51" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="140" t="s">
+      <c r="C51" s="138" t="s">
         <v>654</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -5999,10 +6033,10 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="140" t="s">
+      <c r="B52" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="140" t="s">
+      <c r="C52" s="138" t="s">
         <v>656</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -6014,10 +6048,10 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="140" t="s">
+      <c r="B53" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="140" t="s">
+      <c r="C53" s="138" t="s">
         <v>657</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -6029,10 +6063,10 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="140" t="s">
+      <c r="C54" s="138" t="s">
         <v>658</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -6145,10 +6179,10 @@
       <c r="C71" s="15"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="141" t="s">
+      <c r="B72" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="C72" s="141" t="s">
+      <c r="C72" s="139" t="s">
         <v>659</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -6159,10 +6193,10 @@
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="141" t="s">
+      <c r="B73" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="C73" s="141" t="s">
+      <c r="C73" s="139" t="s">
         <v>660</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -6173,10 +6207,10 @@
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="142" t="s">
+      <c r="B74" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="142" t="s">
+      <c r="C74" s="140" t="s">
         <v>649</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -6390,7 +6424,7 @@
         <v>107</v>
       </c>
       <c r="C92" s="6"/>
-      <c r="D92" s="137" t="s">
+      <c r="D92" s="135" t="s">
         <v>533</v>
       </c>
       <c r="E92" s="1">
@@ -6686,7 +6720,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="143" t="s">
+      <c r="B115" s="141" t="s">
         <v>673</v>
       </c>
       <c r="C115" s="6" t="s">
@@ -6703,7 +6737,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="62"/>
       <c r="C116" s="62"/>
       <c r="D116" s="62"/>
@@ -6936,7 +6970,7 @@
       <c r="B137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="145" t="s">
+      <c r="D137" s="143" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6944,13 +6978,13 @@
       <c r="B138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D138" s="145"/>
+      <c r="D138" s="143"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D139" s="145"/>
+      <c r="D139" s="143"/>
       <c r="E139" s="100">
         <v>45008</v>
       </c>
@@ -6959,31 +6993,31 @@
       <c r="B140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D140" s="145"/>
+      <c r="D140" s="143"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D141" s="145"/>
+      <c r="D141" s="143"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="145"/>
+      <c r="D142" s="143"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D143" s="145"/>
+      <c r="D143" s="143"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D144" s="145"/>
+      <c r="D144" s="143"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="56" t="s">

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="691">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -2410,6 +2410,54 @@
   <si>
     <t>תקציבית נכתב בריאקט</t>
   </si>
+  <si>
+    <t>הודעה מוקדמת</t>
+  </si>
+  <si>
+    <t>TotalRedemptionOfVacationDays</t>
+  </si>
+  <si>
+    <t>IsEntitled</t>
+  </si>
+  <si>
+    <t>AccumulationOfSickDays</t>
+  </si>
+  <si>
+    <t>חלקיות הממוצעת של העובד בכול תקופת העבודה</t>
+  </si>
+  <si>
+    <t>AveragePartTimeJobDuringTheEntireWorkPeriod</t>
+  </si>
+  <si>
+    <t>Sick days used</t>
+  </si>
+  <si>
+    <t>UtilizationPercentage</t>
+  </si>
+  <si>
+    <t>DaysForCompensationEvery30Days</t>
+  </si>
+  <si>
+    <t>DaysToMaturity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ערך יום </t>
+  </si>
+  <si>
+    <t>ADaysWorthOfSickness</t>
+  </si>
+  <si>
+    <t>CompensationPercentage</t>
+  </si>
+  <si>
+    <t>DeterminedSalaryIncludingRecoveryAndClothing</t>
+  </si>
+  <si>
+    <t>AmountToBePaidCompensationForUnusedSickDays</t>
+  </si>
+  <si>
+    <t>נמצא גם בפנסיה צוברת וגם בתקציבית</t>
+  </si>
 </sst>
 </file>
 
@@ -2422,7 +2470,7 @@
     <numFmt numFmtId="166" formatCode="0.000_)"/>
     <numFmt numFmtId="167" formatCode="&quot;₪&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2602,6 +2650,15 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -2769,7 +2826,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2779,8 +2836,9 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3041,6 +3099,15 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3050,17 +3117,9 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="7" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="9"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="20% - הדגשה6" xfId="8" builtinId="50"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3068,6 +3127,7 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="הערה" xfId="4" builtinId="10"/>
     <cellStyle name="טוב" xfId="5" builtinId="26"/>
+    <cellStyle name="טקסט הסברי" xfId="9" builtinId="53"/>
     <cellStyle name="ניטראלי" xfId="7" builtinId="28"/>
     <cellStyle name="רע" xfId="6" builtinId="27"/>
   </cellStyles>
@@ -3439,11 +3499,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3462,26 +3522,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="144" t="s">
         <v>613</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="148" t="s">
+      <c r="C1" s="144"/>
+      <c r="D1" s="145" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88"/>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="147" t="s">
         <v>603</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3519,7 +3579,7 @@
       <c r="A4" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="143" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3549,7 +3609,7 @@
       <c r="A5" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="143" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3579,7 +3639,7 @@
       <c r="A6" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="143" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3607,7 +3667,7 @@
       <c r="A7" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="143" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3635,7 +3695,7 @@
       <c r="A8" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="143" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3665,7 +3725,7 @@
       <c r="A9" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="143" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3695,7 +3755,7 @@
       <c r="A10" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="143" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3725,7 +3785,7 @@
       <c r="A11" s="87" t="s">
         <v>522</v>
       </c>
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="142" t="s">
         <v>361</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3757,7 +3817,7 @@
       <c r="A12" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="146" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="87" t="s">
@@ -5136,8 +5196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5462,8 +5522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5511,15 +5571,15 @@
       <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="149" t="s">
         <v>600</v>
       </c>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="113" t="s">
@@ -5942,6 +6002,14 @@
       <c r="D44" s="55">
         <f>G37/D41</f>
         <v>0.90968824516470903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -6970,7 +7038,7 @@
       <c r="B137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="143" t="s">
+      <c r="D137" s="148" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6978,13 +7046,13 @@
       <c r="B138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D138" s="143"/>
+      <c r="D138" s="148"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D139" s="143"/>
+      <c r="D139" s="148"/>
       <c r="E139" s="100">
         <v>45008</v>
       </c>
@@ -6993,31 +7061,31 @@
       <c r="B140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D140" s="143"/>
+      <c r="D140" s="148"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D141" s="143"/>
+        <v>675</v>
+      </c>
+      <c r="D141" s="148"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="143"/>
+      <c r="D142" s="148"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D143" s="143"/>
+      <c r="D143" s="148"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D144" s="143"/>
+      <c r="D144" s="148"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="56" t="s">
@@ -7166,10 +7234,12 @@
       </c>
     </row>
     <row r="162" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="C162" s="6"/>
+      <c r="C162" s="116" t="s">
+        <v>676</v>
+      </c>
       <c r="D162" s="7" t="s">
         <v>254</v>
       </c>
@@ -7416,10 +7486,12 @@
       </c>
     </row>
     <row r="191" spans="2:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="C191" s="6"/>
+      <c r="C191" s="116" t="s">
+        <v>677</v>
+      </c>
       <c r="D191" s="7" t="s">
         <v>274</v>
       </c>
@@ -7428,10 +7500,12 @@
       </c>
     </row>
     <row r="192" spans="2:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="116" t="s">
         <v>276</v>
       </c>
-      <c r="C192" s="6"/>
+      <c r="C192" s="116" t="s">
+        <v>678</v>
+      </c>
       <c r="D192" s="7" t="s">
         <v>277</v>
       </c>
@@ -7443,11 +7517,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B193" s="6" t="s">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="C193" s="6"/>
+      <c r="C193" s="113" t="s">
+        <v>637</v>
+      </c>
       <c r="D193" s="6" t="s">
         <v>280</v>
       </c>
@@ -7455,11 +7531,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B194" s="6" t="s">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="C194" s="6"/>
+      <c r="C194" s="116" t="s">
+        <v>681</v>
+      </c>
       <c r="D194" s="7" t="s">
         <v>282</v>
       </c>
@@ -7468,11 +7546,13 @@
         <v>344</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B195" s="6" t="s">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="116" t="s">
         <v>283</v>
       </c>
-      <c r="C195" s="6"/>
+      <c r="C195" s="116" t="s">
+        <v>682</v>
+      </c>
       <c r="D195" s="6" t="s">
         <v>284</v>
       </c>
@@ -7481,11 +7561,13 @@
         <v>0.46236559139784944</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B196" s="6" t="s">
+    <row r="196" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B196" s="116" t="s">
         <v>285</v>
       </c>
-      <c r="C196" s="6"/>
+      <c r="C196" s="116" t="s">
+        <v>683</v>
+      </c>
       <c r="D196" s="7" t="s">
         <v>286</v>
       </c>
@@ -7493,11 +7575,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B197" s="6" t="s">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="116" t="s">
         <v>287</v>
       </c>
-      <c r="C197" s="6"/>
+      <c r="C197" s="116" t="s">
+        <v>684</v>
+      </c>
       <c r="D197" s="7" t="s">
         <v>288</v>
       </c>
@@ -7506,11 +7590,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C198" s="6"/>
+      <c r="C198" s="6" t="s">
+        <v>688</v>
+      </c>
       <c r="D198" s="6" t="s">
         <v>290</v>
       </c>
@@ -7521,11 +7607,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B199" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C199" s="6"/>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="116" t="s">
+        <v>685</v>
+      </c>
+      <c r="C199" s="116" t="s">
+        <v>686</v>
+      </c>
       <c r="D199" s="6" t="s">
         <v>291</v>
       </c>
@@ -7534,23 +7622,31 @@
         <v>460</v>
       </c>
     </row>
-    <row r="200" spans="2:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" ht="42" x14ac:dyDescent="0.3">
       <c r="B200" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C200" s="6"/>
+      <c r="C200" s="6" t="s">
+        <v>687</v>
+      </c>
       <c r="D200" s="7" t="s">
         <v>294</v>
       </c>
       <c r="E200" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B201" s="6" t="s">
+      <c r="F200" s="150" t="s">
+        <v>690</v>
+      </c>
+      <c r="G200" s="150"/>
+    </row>
+    <row r="201" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B201" s="116" t="s">
         <v>295</v>
       </c>
-      <c r="C201" s="6"/>
+      <c r="C201" s="116" t="s">
+        <v>689</v>
+      </c>
       <c r="D201" s="6" t="s">
         <v>296</v>
       </c>
@@ -7558,14 +7654,18 @@
         <f>E200*E197*E199</f>
         <v>36800</v>
       </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F201" s="150" t="s">
+        <v>690</v>
+      </c>
+      <c r="G201" s="150"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="62"/>
       <c r="C202" s="62"/>
       <c r="D202" s="62"/>
       <c r="E202" s="83"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="62" t="s">
         <v>454</v>
       </c>
@@ -7573,7 +7673,7 @@
       <c r="D203" s="62"/>
       <c r="E203" s="83"/>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="62" t="s">
         <v>461</v>
       </c>
@@ -7581,7 +7681,7 @@
       <c r="D204" s="62"/>
       <c r="E204" s="83"/>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="62" t="s">
         <v>462</v>
       </c>
@@ -7589,7 +7689,7 @@
       <c r="D205" s="62"/>
       <c r="E205" s="83"/>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="62" t="s">
         <v>463</v>
       </c>
@@ -7597,13 +7697,13 @@
       <c r="D206" s="62"/>
       <c r="E206" s="83"/>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="62"/>
       <c r="C207" s="62"/>
       <c r="D207" s="62"/>
       <c r="E207" s="83"/>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="31" t="s">
         <v>464</v>
       </c>
@@ -7906,8 +8006,7 @@
       <c r="B236" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="C236" s="49"/>
-      <c r="D236" s="49" t="s">
+      <c r="C236" s="49" t="s">
         <v>301</v>
       </c>
     </row>

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="707">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -2457,6 +2457,54 @@
   </si>
   <si>
     <t>נמצא גם בפנסיה צוברת וגם בתקציבית</t>
+  </si>
+  <si>
+    <t>IsEntitledToAGrant</t>
+  </si>
+  <si>
+    <t>AmountOfExcessYears</t>
+  </si>
+  <si>
+    <t>TotalSurplusYearsGrant</t>
+  </si>
+  <si>
+    <t>לטפל בזה</t>
+  </si>
+  <si>
+    <t>IsEntitledToARetirementGrant</t>
+  </si>
+  <si>
+    <t>OptionASalaryForYear</t>
+  </si>
+  <si>
+    <t>OptionBHalfSalaryForAYearOfWork</t>
+  </si>
+  <si>
+    <t>עד כאן בC#</t>
+  </si>
+  <si>
+    <t>TotalAllowanceCapitalizationAmount</t>
+  </si>
+  <si>
+    <t>TotalPaymentAdvanceNotice</t>
+  </si>
+  <si>
+    <t>Part-time job last year</t>
+  </si>
+  <si>
+    <t>Part-time job current year</t>
+  </si>
+  <si>
+    <t>PartTimeJobCurrentYear</t>
+  </si>
+  <si>
+    <t>PartTimeJobLastYear</t>
+  </si>
+  <si>
+    <t>ClothingForCurrentYear</t>
+  </si>
+  <si>
+    <t>ClothingForLastYear</t>
   </si>
 </sst>
 </file>
@@ -2838,7 +2886,7 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3108,6 +3156,7 @@
     <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3117,7 +3166,8 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - הדגשה6" xfId="8" builtinId="50"/>
@@ -3500,10 +3550,10 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3532,16 +3582,16 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88"/>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="148" t="s">
         <v>603</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4484,10 +4534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H53"/>
+  <dimension ref="A2:H53"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F20"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4503,17 +4553,17 @@
     <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>60</v>
       </c>
@@ -4530,7 +4580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
         <v>32874</v>
       </c>
@@ -4551,7 +4601,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
         <v>33604</v>
       </c>
@@ -4572,7 +4622,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
         <v>36892</v>
       </c>
@@ -4593,7 +4643,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>37257</v>
       </c>
@@ -4611,7 +4661,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>37622</v>
       </c>
@@ -4632,7 +4682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>39458</v>
       </c>
@@ -4653,7 +4703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
         <v>42370</v>
       </c>
@@ -4674,7 +4724,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="17"/>
@@ -4686,7 +4736,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="17"/>
@@ -4696,7 +4746,7 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
@@ -4708,7 +4758,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="17"/>
@@ -4720,7 +4770,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="152" t="s">
+        <v>702</v>
+      </c>
       <c r="B16" s="24" t="s">
         <v>70</v>
       </c>
@@ -4739,7 +4792,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="152" t="s">
+        <v>701</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
@@ -4750,7 +4806,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
         <v>93</v>
       </c>
@@ -4758,7 +4814,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
     </row>
-    <row r="21" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>60</v>
       </c>
@@ -4775,7 +4831,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="19">
         <v>32874</v>
       </c>
@@ -4795,7 +4851,7 @@
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="19">
         <v>33604</v>
       </c>
@@ -4814,7 +4870,7 @@
         <v>9.0020533880903493</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
         <v>36892</v>
       </c>
@@ -4830,7 +4886,7 @@
       </c>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="19">
         <v>37257</v>
       </c>
@@ -4846,7 +4902,7 @@
       </c>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="19">
         <v>37987</v>
       </c>
@@ -4868,7 +4924,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="19">
         <v>39458</v>
       </c>
@@ -4887,7 +4943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="19">
         <v>42370</v>
       </c>
@@ -4906,7 +4962,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="29">
         <f>SUM(D22:D28)</f>
         <v>33.998631074606436</v>
@@ -4916,18 +4972,18 @@
         <v>28.200958247775496</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="29"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
         <v>90</v>
       </c>
       <c r="D31" s="29"/>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="33" t="s">
         <v>92</v>
       </c>
@@ -5196,7 +5252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5522,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B383" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D392" sqref="D392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5571,15 +5627,15 @@
       <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="150" t="s">
         <v>600</v>
       </c>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="113" t="s">
@@ -7038,7 +7094,7 @@
       <c r="B137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="148" t="s">
+      <c r="D137" s="149" t="s">
         <v>543</v>
       </c>
     </row>
@@ -7046,13 +7102,13 @@
       <c r="B138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D138" s="148"/>
+      <c r="D138" s="149"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D139" s="148"/>
+      <c r="D139" s="149"/>
       <c r="E139" s="100">
         <v>45008</v>
       </c>
@@ -7061,31 +7117,31 @@
       <c r="B140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D140" s="148"/>
+      <c r="D140" s="149"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D141" s="148"/>
+      <c r="D141" s="149"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="148"/>
+      <c r="D142" s="149"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D143" s="148"/>
+      <c r="D143" s="149"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D144" s="148"/>
+      <c r="D144" s="149"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="56" t="s">
@@ -7591,10 +7647,10 @@
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="116" t="s">
         <v>292</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C198" s="116" t="s">
         <v>688</v>
       </c>
       <c r="D198" s="6" t="s">
@@ -7623,10 +7679,10 @@
       </c>
     </row>
     <row r="200" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="116" t="s">
         <v>293</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="116" t="s">
         <v>687</v>
       </c>
       <c r="D200" s="7" t="s">
@@ -7635,10 +7691,10 @@
       <c r="E200" s="40">
         <v>1</v>
       </c>
-      <c r="F200" s="150" t="s">
+      <c r="F200" s="147" t="s">
         <v>690</v>
       </c>
-      <c r="G200" s="150"/>
+      <c r="G200" s="147"/>
     </row>
     <row r="201" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B201" s="116" t="s">
@@ -7654,10 +7710,10 @@
         <f>E200*E197*E199</f>
         <v>36800</v>
       </c>
-      <c r="F201" s="150" t="s">
+      <c r="F201" s="147" t="s">
         <v>690</v>
       </c>
-      <c r="G201" s="150"/>
+      <c r="G201" s="147"/>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="62"/>
@@ -8037,7 +8093,7 @@
       <c r="F240" s="49"/>
       <c r="G240" s="49"/>
     </row>
-    <row r="241" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B241" s="49" t="s">
         <v>304</v>
       </c>
@@ -8054,7 +8110,7 @@
       </c>
       <c r="G241" s="49"/>
     </row>
-    <row r="242" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B242" s="49" t="s">
         <v>307</v>
       </c>
@@ -8066,7 +8122,7 @@
       <c r="F242" s="49"/>
       <c r="G242" s="49"/>
     </row>
-    <row r="243" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B243" s="49"/>
       <c r="C243" s="49"/>
       <c r="D243" s="49"/>
@@ -8076,7 +8132,7 @@
       <c r="F243" s="49"/>
       <c r="G243" s="49"/>
     </row>
-    <row r="244" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B244" s="49"/>
       <c r="C244" s="49"/>
       <c r="D244" s="49"/>
@@ -8089,7 +8145,7 @@
       </c>
       <c r="G244" s="49"/>
     </row>
-    <row r="245" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B245" s="49"/>
       <c r="C245" s="49"/>
       <c r="D245" s="49"/>
@@ -8102,7 +8158,7 @@
       </c>
       <c r="G245" s="49"/>
     </row>
-    <row r="246" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B246" s="49"/>
       <c r="C246" s="49"/>
       <c r="D246" s="49" t="s">
@@ -8116,7 +8172,7 @@
       </c>
       <c r="G246" s="49"/>
     </row>
-    <row r="247" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B247" s="49"/>
       <c r="C247" s="49"/>
       <c r="D247" s="49" t="s">
@@ -8129,23 +8185,29 @@
       <c r="F247" s="49"/>
       <c r="G247" s="49"/>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="151" t="s">
+        <v>694</v>
+      </c>
       <c r="B249" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="151" t="s">
+        <v>694</v>
+      </c>
       <c r="B250" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B252" s="31" t="s">
         <v>486</v>
       </c>
       <c r="C252" s="31"/>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B253" s="6" t="s">
         <v>165</v>
       </c>
@@ -8157,11 +8219,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B254" s="6" t="s">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B254" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="C254" s="6"/>
+      <c r="C254" s="116" t="s">
+        <v>691</v>
+      </c>
       <c r="D254" s="7" t="s">
         <v>344</v>
       </c>
@@ -8169,11 +8233,13 @@
         <v>275</v>
       </c>
     </row>
-    <row r="255" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B255" s="6" t="s">
+    <row r="255" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B255" s="116" t="s">
         <v>345</v>
       </c>
-      <c r="C255" s="6"/>
+      <c r="C255" s="116" t="s">
+        <v>692</v>
+      </c>
       <c r="D255" s="7" t="s">
         <v>346</v>
       </c>
@@ -8181,11 +8247,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B256" s="6" t="s">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B256" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="C256" s="6"/>
+      <c r="C256" s="116" t="s">
+        <v>688</v>
+      </c>
       <c r="D256" s="6" t="s">
         <v>347</v>
       </c>
@@ -8194,10 +8262,12 @@
       </c>
     </row>
     <row r="257" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="C257" s="6"/>
+      <c r="C257" s="116" t="s">
+        <v>693</v>
+      </c>
       <c r="D257" s="7" t="s">
         <v>348</v>
       </c>
@@ -8311,8 +8381,7 @@
       <c r="B268" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="C268" s="25"/>
-      <c r="E268" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>360</v>
       </c>
       <c r="F268" s="49"/>
@@ -8355,7 +8424,7 @@
       <c r="B271" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>394</v>
       </c>
     </row>
@@ -8363,96 +8432,99 @@
       <c r="B272" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="C277" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="151" t="s">
+        <v>698</v>
+      </c>
       <c r="B279" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="C280" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="C282" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
         <v>387</v>
       </c>
@@ -8682,10 +8754,12 @@
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B321" s="6" t="s">
+      <c r="B321" s="116" t="s">
         <v>419</v>
       </c>
-      <c r="C321" s="6"/>
+      <c r="C321" s="116" t="s">
+        <v>695</v>
+      </c>
       <c r="D321" s="7" t="s">
         <v>420</v>
       </c>
@@ -8694,20 +8768,24 @@
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B322" s="6" t="s">
+      <c r="B322" s="116" t="s">
         <v>421</v>
       </c>
-      <c r="C322" s="6"/>
+      <c r="C322" s="116" t="s">
+        <v>696</v>
+      </c>
       <c r="D322" s="7" t="s">
         <v>424</v>
       </c>
       <c r="E322" s="6"/>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B323" s="6" t="s">
+      <c r="B323" s="116" t="s">
         <v>422</v>
       </c>
-      <c r="C323" s="6"/>
+      <c r="C323" s="116" t="s">
+        <v>697</v>
+      </c>
       <c r="D323" s="7" t="s">
         <v>424</v>
       </c>
@@ -8724,10 +8802,12 @@
       <c r="E324" s="6"/>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B325" s="6" t="s">
+      <c r="B325" s="116" t="s">
         <v>425</v>
       </c>
-      <c r="C325" s="6"/>
+      <c r="C325" s="116" t="s">
+        <v>699</v>
+      </c>
       <c r="D325" s="7" t="s">
         <v>426</v>
       </c>
@@ -8968,10 +9048,12 @@
       </c>
     </row>
     <row r="353" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B353" s="6" t="s">
+      <c r="B353" s="113" t="s">
         <v>433</v>
       </c>
-      <c r="C353" s="6"/>
+      <c r="C353" s="113" t="s">
+        <v>611</v>
+      </c>
       <c r="D353" s="7" t="s">
         <v>434</v>
       </c>
@@ -8980,10 +9062,12 @@
       </c>
     </row>
     <row r="354" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B354" s="6" t="s">
+      <c r="B354" s="116" t="s">
         <v>435</v>
       </c>
-      <c r="C354" s="6"/>
+      <c r="C354" s="116" t="s">
+        <v>688</v>
+      </c>
       <c r="D354" s="7" t="s">
         <v>436</v>
       </c>
@@ -8992,10 +9076,12 @@
       </c>
     </row>
     <row r="355" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B355" s="6" t="s">
+      <c r="B355" s="116" t="s">
         <v>437</v>
       </c>
-      <c r="C355" s="6"/>
+      <c r="C355" s="116" t="s">
+        <v>700</v>
+      </c>
       <c r="D355" s="7" t="s">
         <v>438</v>
       </c>
@@ -9051,8 +9137,7 @@
         <v>442</v>
       </c>
       <c r="C360" s="49"/>
-      <c r="D360" s="79"/>
-      <c r="E360" s="82" t="s">
+      <c r="D360" s="82" t="s">
         <v>443</v>
       </c>
       <c r="F360" s="49"/>
@@ -9070,11 +9155,10 @@
       <c r="B361" s="49" t="s">
         <v>444</v>
       </c>
-      <c r="C361" s="49"/>
-      <c r="D361" s="49">
+      <c r="C361" s="49">
         <v>1603</v>
       </c>
-      <c r="E361" s="49" t="s">
+      <c r="D361" s="49" t="s">
         <v>452</v>
       </c>
       <c r="F361" s="49"/>
@@ -9092,11 +9176,10 @@
       <c r="B362" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C362" s="49"/>
-      <c r="D362" s="49">
+      <c r="C362" s="49">
         <v>2237</v>
       </c>
-      <c r="E362" s="49" t="s">
+      <c r="D362" s="49" t="s">
         <v>452</v>
       </c>
       <c r="F362" s="49"/>
@@ -9186,11 +9269,10 @@
       <c r="B367" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="C367" s="49"/>
-      <c r="D367" s="49">
+      <c r="C367" s="49">
         <v>2237</v>
       </c>
-      <c r="E367" s="80" t="s">
+      <c r="D367" s="80" t="s">
         <v>562</v>
       </c>
       <c r="F367" s="49"/>
@@ -9208,11 +9290,10 @@
       <c r="B368" s="49" t="s">
         <v>563</v>
       </c>
-      <c r="C368" s="49"/>
-      <c r="D368" s="49">
+      <c r="C368" s="49">
         <v>2237</v>
       </c>
-      <c r="E368" s="49" t="s">
+      <c r="D368" s="49" t="s">
         <v>449</v>
       </c>
       <c r="F368" s="49"/>
@@ -9297,10 +9378,12 @@
       </c>
     </row>
     <row r="374" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B374" s="6" t="s">
+      <c r="B374" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C374" s="6"/>
+      <c r="C374" s="113" t="s">
+        <v>615</v>
+      </c>
       <c r="D374" s="7" t="s">
         <v>167</v>
       </c>
@@ -9309,10 +9392,12 @@
       </c>
     </row>
     <row r="375" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B375" s="6" t="s">
+      <c r="B375" s="113" t="s">
         <v>488</v>
       </c>
-      <c r="C375" s="6"/>
+      <c r="C375" s="113" t="s">
+        <v>703</v>
+      </c>
       <c r="D375" s="7" t="s">
         <v>490</v>
       </c>
@@ -9321,10 +9406,12 @@
       </c>
     </row>
     <row r="376" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B376" s="6" t="s">
+      <c r="B376" s="113" t="s">
         <v>489</v>
       </c>
-      <c r="C376" s="6"/>
+      <c r="C376" s="113" t="s">
+        <v>704</v>
+      </c>
       <c r="D376" s="7" t="s">
         <v>490</v>
       </c>
@@ -9333,10 +9420,12 @@
       </c>
     </row>
     <row r="377" spans="2:15" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B377" s="6" t="s">
+      <c r="B377" s="113" t="s">
         <v>491</v>
       </c>
-      <c r="C377" s="6"/>
+      <c r="C377" s="113" t="s">
+        <v>705</v>
+      </c>
       <c r="D377" s="7" t="s">
         <v>492</v>
       </c>
@@ -9348,10 +9437,12 @@
       </c>
     </row>
     <row r="378" spans="2:15" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B378" s="6" t="s">
+      <c r="B378" s="113" t="s">
         <v>493</v>
       </c>
-      <c r="C378" s="6"/>
+      <c r="C378" s="113" t="s">
+        <v>706</v>
+      </c>
       <c r="D378" s="7" t="s">
         <v>567</v>
       </c>
@@ -9601,10 +9692,10 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I85" sqref="I85"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11281,8 +11372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N202"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109:D119"/>
+    <sheetView rightToLeft="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -5578,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O411"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B383" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D392" sqref="D392"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
+++ b/server/סימולטור פרישה - אפיון מעודכן (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>Esti</author>
   </authors>
   <commentList>
-    <comment ref="B46" authorId="0" shapeId="0">
+    <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B185" authorId="1" shapeId="0">
+    <comment ref="B186" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B186" authorId="1" shapeId="0">
+    <comment ref="B187" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B266" authorId="0" shapeId="0">
+    <comment ref="B267" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H370" authorId="0" shapeId="0">
+    <comment ref="H371" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="717">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -2506,6 +2506,57 @@
   <si>
     <t>ClothingForLastYear</t>
   </si>
+  <si>
+    <t>recovery</t>
+  </si>
+  <si>
+    <t>RecoveryForPreviousYear</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="David"/>
+        <family val="2"/>
+      </rPr>
+      <t>חישוב: לבדוק האם שולם עבור שנה קודמת או לא</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+אם משולם באופן חודשי - אין השלמה
+אם משולם באופן שנתי - תלוי באיזה חודש משולם ובאיזה חודש הפרישה.
+לדוגמה: אם משולם בדר"כ בחודש ינואר עבור שנה קודמת
+והעובד פורש בחודש יולי - אז עבור שנה קודמת כבר שולם (בחודש ינואר) ויש לשלם רק עבור שנה נוכחית
+התשלום: לפי מספר ימי הבראה לתשלום במסך 2, כפול חלקיות המשרה בשנה קודמת / נוכחית</t>
+    </r>
+  </si>
+  <si>
+    <t>recovery note</t>
+  </si>
+  <si>
+    <t>workingPeriodForCompensation</t>
+  </si>
+  <si>
+    <t>חלקיות משרה משוקללת מחושבת עבור תקופת עבודה של פחות מ-1/3 משרה</t>
+  </si>
+  <si>
+    <t>WeightedPartTimeJob</t>
+  </si>
+  <si>
+    <t>CompensationToBePaid</t>
+  </si>
+  <si>
+    <t>איך בודקים אם יש לו שארים?</t>
+  </si>
+  <si>
+    <t>TreeMonthsSalaryForHeirs</t>
+  </si>
 </sst>
 </file>
 
@@ -2518,7 +2569,7 @@
     <numFmt numFmtId="166" formatCode="0.000_)"/>
     <numFmt numFmtId="167" formatCode="&quot;₪&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2707,6 +2758,13 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="David"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -2886,7 +2944,7 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3157,6 +3215,8 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3166,8 +3226,12 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - הדגשה6" xfId="8" builtinId="50"/>
@@ -3550,10 +3614,10 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3582,16 +3646,16 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88"/>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="150" t="s">
         <v>603</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4771,7 +4835,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="149" t="s">
         <v>702</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -4793,7 +4857,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="149" t="s">
         <v>701</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4831,7 +4895,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="19">
         <v>32874</v>
       </c>
@@ -4851,7 +4915,7 @@
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="19">
         <v>33604</v>
       </c>
@@ -4870,7 +4934,7 @@
         <v>9.0020533880903493</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
         <v>36892</v>
       </c>
@@ -4886,7 +4950,7 @@
       </c>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="19">
         <v>37257</v>
       </c>
@@ -4924,7 +4988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="19">
         <v>39458</v>
       </c>
@@ -4943,7 +5007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="19">
         <v>42370</v>
       </c>
@@ -4962,7 +5026,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" s="29">
         <f>SUM(D22:D28)</f>
         <v>33.998631074606436</v>
@@ -4972,7 +5036,7 @@
         <v>28.200958247775496</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30" s="29"/>
       <c r="F30" s="29"/>
     </row>
@@ -5069,7 +5133,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="19">
         <v>32874</v>
       </c>
@@ -5088,7 +5152,7 @@
         <v>1.5978082191780822</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="19">
         <v>33604</v>
       </c>
@@ -5253,7 +5317,7 @@
   <dimension ref="A3:M19"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5576,10 +5640,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O411"/>
+  <dimension ref="A2:O412"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A393" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B412" sqref="B412:C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5627,15 +5691,15 @@
       <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="150" t="s">
+      <c r="G6" s="152" t="s">
         <v>600</v>
       </c>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="113" t="s">
@@ -6069,1669 +6133,1669 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
+      <c r="B46" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
         <v>3</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B47" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="E46" s="1" t="s">
+      <c r="C47" s="57"/>
+      <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="136" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="137" t="s">
+      <c r="C48" s="137" t="s">
         <v>645</v>
       </c>
-      <c r="D47" s="135" t="s">
+      <c r="D48" s="135" t="s">
         <v>533</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E48" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="130" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="131" t="s">
+      <c r="C49" s="131" t="s">
         <v>649</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E49" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="134" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="134" t="s">
+      <c r="C50" s="134" t="s">
         <v>652</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E50" s="46">
         <f>D44</f>
         <v>0.90968824516470903</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="138" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="138" t="s">
-        <v>653</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="30">
-        <f>E48*2%</f>
-        <v>0.62</v>
-      </c>
-    </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="138" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C51" s="138" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>655</v>
+        <v>197</v>
       </c>
       <c r="E51" s="30">
-        <f>E50*E49</f>
-        <v>0.5640067120021196</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>206</v>
+        <f>E49*2%</f>
+        <v>0.62</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="138" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C52" s="138" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="E52" s="14">
-        <f>E51*E47</f>
-        <v>5640.0671200211964</v>
+        <v>655</v>
+      </c>
+      <c r="E52" s="30">
+        <f>E51*E50</f>
+        <v>0.5640067120021196</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="138" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C53" s="138" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E53" s="29">
-        <f>E52*0.0382</f>
-        <v>215.45056398480969</v>
+        <v>534</v>
+      </c>
+      <c r="E53" s="14">
+        <f>E52*E48</f>
+        <v>5640.0671200211964</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="138" t="s">
+        <v>657</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" s="29">
+        <f>E53*0.0382</f>
+        <v>215.45056398480969</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="138" t="s">
+      <c r="C55" s="138" t="s">
         <v>658</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="29">
-        <f>E53+E52</f>
+      <c r="E55" s="29">
+        <f>E54+E53</f>
         <v>5855.5176840060058</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="31"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="31"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="C57" s="31"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="C58" s="31"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
-        <v>12000</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E68" s="1">
-        <f>B68*30%</f>
-        <v>3600</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="1">
+        <f>B69*30%</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
         <v>25000</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E69" s="1">
-        <f>B69*40%</f>
+      <c r="E70" s="1">
+        <f>B70*40%</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E70" s="1">
-        <f>SUM(E68:E69)</f>
+    <row r="71" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E71" s="1">
+        <f>SUM(E69:E70)</f>
         <v>13600</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="15" t="s">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="C71" s="15"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="139" t="s">
-        <v>225</v>
-      </c>
-      <c r="C72" s="139" t="s">
-        <v>659</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E72" s="1">
-        <v>12000</v>
-      </c>
+      <c r="C72" s="15"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="139" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C73" s="139" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>195</v>
       </c>
       <c r="E73" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="139" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="139" t="s">
+        <v>660</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="140" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="140" t="s">
+      <c r="C75" s="140" t="s">
         <v>649</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E75" s="1">
         <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" s="114" t="s">
-        <v>661</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E75" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C76" s="114" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E76" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="114" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="C77" s="114" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E77" s="46">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="E77" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="114" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="C78" s="114" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E78" s="30">
-        <f>E74*2%</f>
-        <v>0.62</v>
+        <v>179</v>
+      </c>
+      <c r="E78" s="46">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="114" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C79" s="114" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="E79" s="30">
         <f>E75*2%</f>
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C80" s="114" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E80" s="30">
         <f>E76*2%</f>
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="114" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C81" s="114" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E81">
-        <f>E72*E79+E73*E80</f>
-        <v>11600</v>
+        <v>234</v>
+      </c>
+      <c r="E81" s="30">
+        <f>E77*2%</f>
+        <v>0.32</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="114" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C82" s="114" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E82" s="29">
-        <f>E72*E79*0.0382</f>
-        <v>137.51999999999998</v>
+        <v>235</v>
+      </c>
+      <c r="E82">
+        <f>E73*E80+E74*E81</f>
+        <v>11600</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="114" t="s">
+        <v>657</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E83" s="29">
+        <f>E73*E80*0.0382</f>
+        <v>137.51999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="C83" s="114" t="s">
+      <c r="C84" s="114" t="s">
         <v>658</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E83" s="29">
-        <f>E82+E81</f>
+      <c r="E84" s="29">
+        <f>E83+E82</f>
         <v>11737.52</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="29"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>665</v>
-      </c>
+    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B85" s="62"/>
+      <c r="C85" s="62"/>
       <c r="D85" s="62"/>
       <c r="E85" s="29"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C86" s="31"/>
+        <v>314</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>665</v>
+      </c>
       <c r="D86" s="62"/>
       <c r="E86" s="29"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>315</v>
-      </c>
+      <c r="B87" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" s="31"/>
       <c r="D87" s="62"/>
       <c r="E87" s="29"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="62" t="s">
-        <v>316</v>
-      </c>
-      <c r="C88" s="62"/>
+      <c r="B88" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="D88" s="62"/>
       <c r="E88" s="29"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C89" s="62"/>
       <c r="D89" s="62"/>
       <c r="E89" s="29"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="63" t="s">
-        <v>319</v>
-      </c>
-      <c r="C90" s="63"/>
+      <c r="B90" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="C90" s="62"/>
       <c r="D90" s="62"/>
       <c r="E90" s="29"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="62" t="s">
+      <c r="B91" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="C91" s="63"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="29"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62" t="s">
+      <c r="C92" s="62"/>
+      <c r="D92" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="E91" s="29" t="s">
+      <c r="E92" s="29" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="135" t="s">
-        <v>533</v>
-      </c>
-      <c r="E92" s="1">
-        <v>10000</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="C93" s="6"/>
-      <c r="D93" s="6" t="s">
-        <v>178</v>
+      <c r="D93" s="135" t="s">
+        <v>533</v>
       </c>
       <c r="E93" s="1">
-        <v>31</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E94" s="46">
-        <v>0.9</v>
+        <v>178</v>
+      </c>
+      <c r="E94" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E95" s="30">
-        <f>E93*2%</f>
-        <v>0.62</v>
+        <v>179</v>
+      </c>
+      <c r="E95" s="46">
+        <v>0.9</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E96" s="30">
+        <f>E94*2%</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="30">
-        <f>E95*E94</f>
+      <c r="E97" s="30">
+        <f>E96*E95</f>
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="113" t="s">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="C97" s="113" t="s">
+      <c r="C98" s="113" t="s">
         <v>626</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E97" s="30">
+      <c r="E98" s="30">
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="116" t="s">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="116" t="s">
         <v>321</v>
       </c>
-      <c r="C98" s="116" t="s">
+      <c r="C99" s="116" t="s">
         <v>654</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E98" s="30">
-        <f>E97+E96</f>
+      <c r="E99" s="30">
+        <f>E98+E97</f>
         <v>0.65800000000000003</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E99" s="14">
-        <f>E98*E92</f>
-        <v>6580</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E100" s="29">
-        <f>E99*0.0382</f>
-        <v>251.35599999999999</v>
+        <v>201</v>
+      </c>
+      <c r="E100" s="14">
+        <f>E99*E93</f>
+        <v>6580</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E101" s="29">
+        <f>E100*0.0382</f>
+        <v>251.35599999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E101" s="29">
-        <f>E100+E99</f>
+      <c r="E102" s="29">
+        <f>E101+E100</f>
         <v>6831.3559999999998</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B102" s="62"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="29"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="C103" s="63"/>
+    <row r="103" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B103" s="62"/>
+      <c r="C103" s="62"/>
       <c r="D103" s="62"/>
       <c r="E103" s="29"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="62" t="s">
+      <c r="B104" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="C104" s="63"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="29"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="62"/>
-      <c r="D104" s="62" t="s">
+      <c r="C105" s="62"/>
+      <c r="D105" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="E104" s="29" t="s">
+      <c r="E105" s="29" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="D105" s="92" t="s">
-        <v>533</v>
-      </c>
-      <c r="E105" s="1">
-        <v>10000</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6" t="s">
-        <v>178</v>
+        <v>671</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D106" s="92" t="s">
+        <v>533</v>
       </c>
       <c r="E106" s="1">
-        <v>31</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E107" s="46">
-        <v>0.9</v>
+        <v>178</v>
+      </c>
+      <c r="E107" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E108" s="30">
-        <f>E106*2%</f>
-        <v>0.62</v>
+        <v>179</v>
+      </c>
+      <c r="E108" s="46">
+        <v>0.9</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E109" s="30">
-        <f>E108*E107</f>
-        <v>0.55800000000000005</v>
+        <f>E107*2%</f>
+        <v>0.62</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>656</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E110" s="14">
-        <f>E109*E105</f>
-        <v>5580.0000000000009</v>
+        <v>199</v>
+      </c>
+      <c r="E110" s="30">
+        <f>E109*E108</f>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E111" s="14">
+        <f>E110*E106</f>
+        <v>5580.0000000000009</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C112" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D112" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E111" s="29">
-        <f>E110*0.0382</f>
+      <c r="E112" s="29">
+        <f>E111*0.0382</f>
         <v>213.15600000000003</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="113" t="s">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="113" t="s">
         <v>325</v>
       </c>
-      <c r="C112" s="113" t="s">
+      <c r="C113" s="113" t="s">
         <v>626</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D113" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E112" s="29">
+      <c r="E113" s="29">
         <v>1500</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="116" t="s">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="C113" s="116" t="s">
+      <c r="C114" s="116" t="s">
         <v>658</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D114" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E113" s="29">
-        <f>E112+E111+E110</f>
+      <c r="E114" s="29">
+        <f>E113+E112+E111</f>
         <v>7293.1560000000009</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="113" t="s">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="C114" s="113" t="s">
+      <c r="C115" s="113" t="s">
         <v>654</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D115" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E114" s="30">
-        <f>(E110+E112)/E105</f>
+      <c r="E115" s="30">
+        <f>(E111+E113)/E106</f>
         <v>0.70800000000000007</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="141" t="s">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="141" t="s">
         <v>673</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C116" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D116" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="E115" s="29">
-        <f>E105*E116%</f>
+      <c r="E116" s="29">
+        <f>E106*E117%</f>
         <v>0</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="62"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="29"/>
-    </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="63" t="s">
-        <v>587</v>
-      </c>
-      <c r="C117" s="63"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
       <c r="D117" s="62"/>
       <c r="E117" s="29"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="62" t="s">
+      <c r="B118" s="63" t="s">
+        <v>587</v>
+      </c>
+      <c r="C118" s="63"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="29"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="C118" s="62"/>
-      <c r="D118" s="62" t="s">
+      <c r="C119" s="62"/>
+      <c r="D119" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="E118" s="29" t="s">
+      <c r="E119" s="29" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="92" t="s">
-        <v>533</v>
-      </c>
-      <c r="E119" s="1">
-        <v>10000</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="C120" s="6"/>
-      <c r="D120" s="6" t="s">
-        <v>178</v>
+      <c r="D120" s="92" t="s">
+        <v>533</v>
       </c>
       <c r="E120" s="1">
-        <v>31</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="6" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E121" s="46">
-        <v>0.9</v>
+        <v>178</v>
+      </c>
+      <c r="E121" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E122" s="30">
-        <f>E120*2%</f>
-        <v>0.62</v>
+        <v>179</v>
+      </c>
+      <c r="E122" s="46">
+        <v>0.9</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E123" s="65">
-        <f>E122*E121</f>
-        <v>0.55800000000000005</v>
+        <v>197</v>
+      </c>
+      <c r="E123" s="30">
+        <f>E121*2%</f>
+        <v>0.62</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E124" s="14">
-        <f>E123*E119</f>
-        <v>5580.0000000000009</v>
+        <v>199</v>
+      </c>
+      <c r="E124" s="65">
+        <f>E123*E122</f>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E125" s="14">
+        <f>E124*E120</f>
+        <v>5580.0000000000009</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E125" s="29">
-        <f>E124*0.0382</f>
+      <c r="E126" s="29">
+        <f>E125*0.0382</f>
         <v>213.15600000000003</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="113" t="s">
-        <v>332</v>
-      </c>
-      <c r="C126" s="113" t="s">
-        <v>627</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E126" s="29">
-        <v>20000</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="C127" s="113" t="s">
+        <v>627</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E127" s="29">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="C127" s="113" t="s">
+      <c r="C128" s="113" t="s">
         <v>626</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D128" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E127" s="39">
+      <c r="E128" s="39">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="116" t="s">
-        <v>336</v>
-      </c>
-      <c r="C128" s="116" t="s">
-        <v>668</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E128" s="14">
-        <f>E126*E127</f>
-        <v>6000</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" s="116" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C129" s="116" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E129" s="29">
-        <f>E128+E125+E124</f>
-        <v>11793.156000000001</v>
+        <v>337</v>
+      </c>
+      <c r="E129" s="14">
+        <f>E127*E128</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B130" s="116" t="s">
+        <v>338</v>
+      </c>
+      <c r="C130" s="116" t="s">
+        <v>658</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E130" s="29">
+        <f>E129+E126+E125</f>
+        <v>11793.156000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="C130" s="116" t="s">
+      <c r="C131" s="116" t="s">
         <v>654</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D131" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="E130" s="30">
-        <f>(E124+E128)/E126</f>
+      <c r="E131" s="30">
+        <f>(E125+E129)/E127</f>
         <v>0.57899999999999996</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="62"/>
-      <c r="C131" s="62"/>
-      <c r="D131" s="62"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="63" t="s">
-        <v>519</v>
-      </c>
-      <c r="C132" s="63"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="62"/>
       <c r="D132" s="62"/>
       <c r="E132" s="29"/>
+      <c r="F132" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" s="63" t="s">
-        <v>588</v>
+        <v>519</v>
       </c>
       <c r="C133" s="63"/>
       <c r="D133" s="62"/>
       <c r="E133" s="29"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="63" t="s">
+        <v>588</v>
+      </c>
+      <c r="C134" s="63"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="29"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="15">
         <v>4</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B136" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C135" s="15"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="15"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="1" t="s">
+    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="149" t="s">
+      <c r="D138" s="151" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D138" s="149"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D139" s="149"/>
-      <c r="E139" s="100">
-        <v>45008</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D139" s="151"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D140" s="149"/>
+        <v>193</v>
+      </c>
+      <c r="D140" s="151"/>
+      <c r="E140" s="100">
+        <v>45008</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D141" s="149"/>
+        <v>192</v>
+      </c>
+      <c r="D141" s="151"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="149"/>
+        <v>675</v>
+      </c>
+      <c r="D142" s="151"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D143" s="149"/>
+        <v>20</v>
+      </c>
+      <c r="D143" s="151"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D144" s="151"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D144" s="149"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B146" s="56" t="s">
+      <c r="D145" s="151"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="56"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B147" s="31" t="s">
+      <c r="C147" s="56"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C147" s="31"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="31"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B149" s="1" t="s">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B152" s="1" t="s">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="31" t="s">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="C154" s="31"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B155" s="6" t="s">
+      <c r="C155" s="31"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6" t="s">
+      <c r="C156" s="6"/>
+      <c r="D156" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="113" t="s">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="C156" s="113" t="s">
+      <c r="C157" s="113" t="s">
         <v>640</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E156" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B157" s="113" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" s="113" t="s">
-        <v>641</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E157" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="113" t="s">
+        <v>641</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B158" s="113" t="s">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="113" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="113" t="s">
+      <c r="C159" s="113" t="s">
         <v>642</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D159" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E159" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B159" s="116" t="s">
+    <row r="160" spans="2:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B160" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="C159" s="116" t="s">
+      <c r="C160" s="116" t="s">
         <v>669</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D160" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E160" s="6">
         <v>45</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F160" s="1">
         <v>1.83</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B160" s="113" t="s">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="C160" s="113" t="s">
+      <c r="C161" s="113" t="s">
         <v>659</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D161" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E161" s="6">
         <v>10000</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B161" s="116" t="s">
+    <row r="162" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B162" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="C161" s="116" t="s">
+      <c r="C162" s="116" t="s">
         <v>670</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D162" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E161" s="47">
-        <f>E160/21.67</f>
+      <c r="E162" s="47">
+        <f>E161/21.67</f>
         <v>461.46746654360862</v>
       </c>
     </row>
-    <row r="162" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B162" s="116" t="s">
+    <row r="163" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B163" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="C162" s="116" t="s">
+      <c r="C163" s="116" t="s">
         <v>676</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D163" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E162" s="48">
-        <f>E161*E159</f>
+      <c r="E163" s="48">
+        <f>E162*E160</f>
         <v>20766.035994462389</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="26" t="s">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C164" s="26"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="31" t="s">
+      <c r="C165" s="26"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C165" s="31"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="31"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B168" s="49">
+    <row r="169" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B169" s="49">
         <v>1</v>
-      </c>
-      <c r="C168" s="49"/>
-      <c r="D168" s="49" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B169" s="49">
-        <v>2</v>
       </c>
       <c r="C169" s="49"/>
       <c r="D169" s="49" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B170" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" s="49"/>
       <c r="D170" s="49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B171" s="49">
+        <v>3</v>
+      </c>
+      <c r="C171" s="49"/>
+      <c r="D171" s="49" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B172" s="49" t="s">
+    <row r="173" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B173" s="49" t="s">
         <v>260</v>
-      </c>
-      <c r="C172" s="49"/>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
-    </row>
-    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B173" s="49" t="s">
-        <v>261</v>
       </c>
       <c r="C173" s="49"/>
       <c r="D173" s="49"/>
       <c r="E173" s="49"/>
     </row>
-    <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B174" s="49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C174" s="49"/>
       <c r="D174" s="49"/>
       <c r="E174" s="49"/>
     </row>
-    <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B175" s="49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C175" s="49"/>
       <c r="D175" s="49"/>
       <c r="E175" s="49"/>
     </row>
-    <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B176" s="49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C176" s="49"/>
       <c r="D176" s="49"/>
       <c r="E176" s="49"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B177" s="50" t="s">
+    <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B177" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="C177" s="49"/>
+      <c r="D177" s="49"/>
+      <c r="E177" s="49"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="C177" s="50"/>
-      <c r="D177" s="51"/>
-      <c r="E177" s="51"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B178" s="51" t="s">
+      <c r="C178" s="50"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C178" s="51"/>
-      <c r="D178" s="52" t="s">
+      <c r="C179" s="51"/>
+      <c r="D179" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="E178" s="52" t="s">
+      <c r="E179" s="52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B179" s="51">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="51">
         <v>1</v>
       </c>
-      <c r="C179" s="51"/>
-      <c r="D179" s="51">
+      <c r="C180" s="51"/>
+      <c r="D180" s="51">
         <v>0</v>
       </c>
-      <c r="E179" s="51">
+      <c r="E180" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B180" s="51">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="51">
         <v>50</v>
-      </c>
-      <c r="C180" s="51"/>
-      <c r="D180" s="53">
-        <v>0.3</v>
-      </c>
-      <c r="E180" s="53">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B181" s="51">
-        <v>51</v>
       </c>
       <c r="C181" s="51"/>
       <c r="D181" s="53">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E181" s="53">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="51">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C182" s="51"/>
       <c r="D182" s="53">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E182" s="53">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="51">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C183" s="51"/>
       <c r="D183" s="53">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E183" s="53">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="51">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C184" s="51"/>
       <c r="D184" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="E184" s="53">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="51">
+        <v>54</v>
+      </c>
+      <c r="C185" s="51"/>
+      <c r="D185" s="53">
         <v>0.7</v>
       </c>
-      <c r="E184" s="53">
+      <c r="E185" s="53">
         <v>0.7</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B185" s="51">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="51">
         <v>55</v>
       </c>
-      <c r="C185" s="51"/>
-      <c r="D185" s="54">
+      <c r="C186" s="51"/>
+      <c r="D186" s="54">
         <f>IF(YEAR('[1]חישוב זכויות פנסיה תקציבית'!D154)&lt;1966,100%,80%)</f>
         <v>1</v>
       </c>
-      <c r="E185" s="54">
+      <c r="E186" s="54">
         <v>0.8</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B186" s="51">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="51">
         <v>56</v>
       </c>
-      <c r="C186" s="51"/>
-      <c r="D186" s="54">
+      <c r="C187" s="51"/>
+      <c r="D187" s="54">
         <f>IF(YEAR('[1]חישוב זכויות פנסיה תקציבית'!D154)&lt;1966,100%,90%)</f>
         <v>1</v>
       </c>
-      <c r="E186" s="54">
+      <c r="E187" s="54">
         <v>0.9</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B187" s="51">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="51">
         <v>57</v>
       </c>
-      <c r="C187" s="51"/>
-      <c r="D187" s="53">
+      <c r="C188" s="51"/>
+      <c r="D188" s="53">
         <v>1</v>
       </c>
-      <c r="E187" s="53">
+      <c r="E188" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B189" s="31" t="s">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="C189" s="31"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B190" s="6" t="s">
+      <c r="C190" s="31"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6" t="s">
+      <c r="C191" s="6"/>
+      <c r="D191" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="E191" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B191" s="116" t="s">
+    <row r="192" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B192" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="C191" s="116" t="s">
+      <c r="C192" s="116" t="s">
         <v>677</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D192" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E192" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="192" spans="2:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B192" s="116" t="s">
+    <row r="193" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B193" s="116" t="s">
         <v>276</v>
       </c>
-      <c r="C192" s="116" t="s">
+      <c r="C193" s="116" t="s">
         <v>678</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D193" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E192" s="6">
+      <c r="E193" s="6">
         <f>31*30*80%</f>
         <v>744</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B193" s="113" t="s">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="C193" s="113" t="s">
+      <c r="C194" s="113" t="s">
         <v>637</v>
       </c>
-      <c r="D193" s="6" t="s">
+      <c r="D194" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E193" s="6">
+      <c r="E194" s="6">
         <v>400</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B194" s="116" t="s">
-        <v>281</v>
-      </c>
-      <c r="C194" s="116" t="s">
-        <v>681</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E194" s="6">
-        <f>E192-E193</f>
-        <v>344</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="116" t="s">
+        <v>281</v>
+      </c>
+      <c r="C195" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E195" s="6">
+        <f>E193-E194</f>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="116" t="s">
         <v>283</v>
       </c>
-      <c r="C195" s="116" t="s">
+      <c r="C196" s="116" t="s">
         <v>682</v>
       </c>
-      <c r="D195" s="6" t="s">
+      <c r="D196" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E195" s="55">
-        <f>E194/E192</f>
+      <c r="E196" s="55">
+        <f>E195/E193</f>
         <v>0.46236559139784944</v>
       </c>
     </row>
-    <row r="196" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B196" s="116" t="s">
+    <row r="197" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B197" s="116" t="s">
         <v>285</v>
       </c>
-      <c r="C196" s="116" t="s">
+      <c r="C197" s="116" t="s">
         <v>683</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D197" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E196" s="47">
+      <c r="E197" s="47">
         <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B197" s="116" t="s">
-        <v>287</v>
-      </c>
-      <c r="C197" s="116" t="s">
-        <v>684</v>
-      </c>
-      <c r="D197" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E197" s="48">
-        <f>E193/30*E196</f>
-        <v>80</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="116" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C198" s="116" t="s">
-        <v>688</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E198" s="6">
-        <v>11500</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>289</v>
+        <v>684</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E198" s="48">
+        <f>E194/30*E197</f>
+        <v>80</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="116" t="s">
+        <v>292</v>
+      </c>
+      <c r="C199" s="116" t="s">
+        <v>688</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E199" s="6">
+        <v>11500</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="116" t="s">
         <v>685</v>
       </c>
-      <c r="C199" s="116" t="s">
+      <c r="C200" s="116" t="s">
         <v>686</v>
       </c>
-      <c r="D199" s="6" t="s">
+      <c r="D200" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E199" s="6">
-        <f>E198/25</f>
+      <c r="E200" s="6">
+        <f>E199/25</f>
         <v>460</v>
       </c>
     </row>
-    <row r="200" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B200" s="116" t="s">
+    <row r="201" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B201" s="116" t="s">
         <v>293</v>
       </c>
-      <c r="C200" s="116" t="s">
+      <c r="C201" s="116" t="s">
         <v>687</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D201" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E200" s="40">
+      <c r="E201" s="40">
         <v>1</v>
-      </c>
-      <c r="F200" s="147" t="s">
-        <v>690</v>
-      </c>
-      <c r="G200" s="147"/>
-    </row>
-    <row r="201" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B201" s="116" t="s">
-        <v>295</v>
-      </c>
-      <c r="C201" s="116" t="s">
-        <v>689</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E201" s="48">
-        <f>E200*E197*E199</f>
-        <v>36800</v>
       </c>
       <c r="F201" s="147" t="s">
         <v>690</v>
       </c>
       <c r="G201" s="147"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B202" s="62"/>
-      <c r="C202" s="62"/>
-      <c r="D202" s="62"/>
-      <c r="E202" s="83"/>
+    <row r="202" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B202" s="116" t="s">
+        <v>295</v>
+      </c>
+      <c r="C202" s="116" t="s">
+        <v>689</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E202" s="48">
+        <f>E201*E198*E200</f>
+        <v>36800</v>
+      </c>
+      <c r="F202" s="147" t="s">
+        <v>690</v>
+      </c>
+      <c r="G202" s="147"/>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B203" s="62" t="s">
-        <v>454</v>
-      </c>
+      <c r="B203" s="62"/>
       <c r="C203" s="62"/>
       <c r="D203" s="62"/>
       <c r="E203" s="83"/>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="62" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C204" s="62"/>
       <c r="D204" s="62"/>
@@ -7739,7 +7803,7 @@
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="62" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C205" s="62"/>
       <c r="D205" s="62"/>
@@ -7747,345 +7811,343 @@
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="62" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C206" s="62"/>
       <c r="D206" s="62"/>
       <c r="E206" s="83"/>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B207" s="62"/>
+      <c r="B207" s="62" t="s">
+        <v>463</v>
+      </c>
       <c r="C207" s="62"/>
       <c r="D207" s="62"/>
       <c r="E207" s="83"/>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B208" s="31" t="s">
+      <c r="B208" s="62"/>
+      <c r="C208" s="62"/>
+      <c r="D208" s="62"/>
+      <c r="E208" s="83"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="C208" s="31"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B209" s="6" t="s">
+      <c r="C209" s="31"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6" t="s">
+      <c r="C210" s="6"/>
+      <c r="D210" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E210" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="210" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B210" s="6" t="s">
+    <row r="211" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B211" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="C210" s="6"/>
-      <c r="D210" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B211" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="E211" s="6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E212" s="6">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E213" s="6">
-        <f>E212+E211</f>
-        <v>900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="6" t="s">
-        <v>279</v>
+        <v>469</v>
       </c>
       <c r="C214" s="6"/>
-      <c r="D214" s="6" t="s">
-        <v>280</v>
+      <c r="D214" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="E214" s="6">
-        <v>400</v>
+        <f>E213+E212</f>
+        <v>900</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B215" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C215" s="6"/>
-      <c r="D215" s="7" t="s">
-        <v>282</v>
+      <c r="D215" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="E215" s="6">
-        <f>E213-E214</f>
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C216" s="6"/>
+      <c r="D216" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E216" s="6">
+        <f>E214-E215</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6" t="s">
+      <c r="C217" s="6"/>
+      <c r="D217" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E216" s="55">
-        <f>E215/E213</f>
+      <c r="E217" s="55">
+        <f>E216/E214</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="217" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B217" s="6" t="s">
+    <row r="218" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B218" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="C217" s="6"/>
-      <c r="D217" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E217" s="47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="7" t="s">
-        <v>472</v>
+        <v>286</v>
       </c>
       <c r="E218" s="47">
-        <v>300</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E219" s="47">
-        <f>E218/30*6</f>
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="6" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C220" s="6"/>
-      <c r="D220" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E220" s="6">
-        <v>11500</v>
+      <c r="D220" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E220" s="47">
+        <f>E219/30*6</f>
+        <v>60</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C221" s="6"/>
-      <c r="D221" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="E221" s="47">
-        <f>E220/25</f>
-        <v>460</v>
+      <c r="D221" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E221" s="6">
+        <v>11500</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E222" s="47">
+        <f>E221/25</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C223" s="6"/>
+      <c r="D223" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="E222" s="47">
-        <f>E221*E219</f>
+      <c r="E223" s="47">
+        <f>E222*E220</f>
         <v>27600</v>
       </c>
     </row>
-    <row r="223" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B223" s="6" t="s">
+    <row r="224" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B224" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C223" s="6"/>
-      <c r="D223" s="84" t="s">
+      <c r="C224" s="6"/>
+      <c r="D224" s="84" t="s">
         <v>476</v>
       </c>
-      <c r="E223" s="48">
-        <f>(E214-E218)/30*6</f>
+      <c r="E224" s="48">
+        <f>(E215-E219)/30*6</f>
         <v>20</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B224" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E224" s="6">
-        <v>25000</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="6" t="s">
-        <v>248</v>
+        <v>478</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E225" s="6">
-        <f>E224/25</f>
-        <v>1000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="6" t="s">
-        <v>483</v>
+        <v>248</v>
       </c>
       <c r="C226" s="6"/>
-      <c r="D226" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="E226" s="48">
-        <f>E225*E223</f>
-        <v>20000</v>
+      <c r="D226" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E226" s="6">
+        <f>E225/25</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E227" s="48">
-        <f>E226+E222</f>
-        <v>47600</v>
-      </c>
-    </row>
-    <row r="228" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
+        <f>E226*E224</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="6" t="s">
-        <v>293</v>
+        <v>484</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E228" s="48">
+        <f>E227+E223</f>
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B229" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C229" s="6"/>
+      <c r="D229" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E228" s="40">
+      <c r="E229" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B229" s="6" t="s">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B230" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6" t="s">
+      <c r="C230" s="6"/>
+      <c r="D230" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E229" s="48">
-        <f>E227*E228</f>
+      <c r="E230" s="48">
+        <f>E228*E229</f>
         <v>47600</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B230" s="62"/>
-      <c r="C230" s="62"/>
-      <c r="D230" s="62"/>
-      <c r="E230" s="83"/>
-    </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B232" s="26" t="s">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B231" s="62"/>
+      <c r="C231" s="62"/>
+      <c r="D231" s="62"/>
+      <c r="E231" s="83"/>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B233" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="C232" s="26"/>
-    </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B233" s="31" t="s">
+      <c r="C233" s="26"/>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B234" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C233" s="31"/>
-    </row>
-    <row r="234" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B234" s="49" t="s">
-        <v>298</v>
-      </c>
-      <c r="C234" s="49"/>
+      <c r="C234" s="31"/>
     </row>
     <row r="235" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B235" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C235" s="49"/>
     </row>
     <row r="236" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B236" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="C236" s="49" t="s">
-        <v>301</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C236" s="49"/>
     </row>
     <row r="237" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B237" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="C237" s="49" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B238" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="C237" s="49"/>
-      <c r="D237" s="49"/>
-    </row>
-    <row r="239" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B239" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C239" s="49"/>
-      <c r="D239" s="49"/>
-      <c r="E239" s="49"/>
-      <c r="F239" s="49"/>
-      <c r="G239" s="49"/>
+      <c r="C238" s="49"/>
+      <c r="D238" s="49"/>
     </row>
     <row r="240" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B240" s="49" t="s">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="C240" s="49"/>
       <c r="D240" s="49"/>
@@ -8095,39 +8157,39 @@
     </row>
     <row r="241" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B241" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="C241" s="49"/>
+      <c r="D241" s="49"/>
+      <c r="E241" s="49"/>
+      <c r="F241" s="49"/>
+      <c r="G241" s="49"/>
+    </row>
+    <row r="242" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B242" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="C241" s="49"/>
-      <c r="D241" s="49" t="s">
+      <c r="C242" s="49"/>
+      <c r="D242" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="E241" s="49">
+      <c r="E242" s="49">
         <f>38*2</f>
         <v>76</v>
       </c>
-      <c r="F241" s="49" t="s">
+      <c r="F242" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="G241" s="49"/>
-    </row>
-    <row r="242" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B242" s="49" t="s">
+      <c r="G242" s="49"/>
+    </row>
+    <row r="243" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B243" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="C242" s="49"/>
-      <c r="D242" s="49"/>
-      <c r="E242" s="59">
-        <v>0.76</v>
-      </c>
-      <c r="F242" s="49"/>
-      <c r="G242" s="49"/>
-    </row>
-    <row r="243" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B243" s="49"/>
       <c r="C243" s="49"/>
       <c r="D243" s="49"/>
       <c r="E243" s="59">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="F243" s="49"/>
       <c r="G243" s="49"/>
@@ -8137,38 +8199,34 @@
       <c r="C244" s="49"/>
       <c r="D244" s="49"/>
       <c r="E244" s="59">
-        <f>E242-E243</f>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="F244" s="49" t="s">
-        <v>308</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="F244" s="49"/>
       <c r="G244" s="49"/>
     </row>
     <row r="245" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B245" s="49"/>
       <c r="C245" s="49"/>
       <c r="D245" s="49"/>
-      <c r="E245" s="60">
-        <f>E244/2%</f>
-        <v>3.0000000000000027</v>
+      <c r="E245" s="59">
+        <f>E243-E244</f>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="F245" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G245" s="49"/>
     </row>
     <row r="246" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B246" s="49"/>
       <c r="C246" s="49"/>
-      <c r="D246" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="E246" s="61">
-        <v>12000</v>
+      <c r="D246" s="49"/>
+      <c r="E246" s="60">
+        <f>E245/2%</f>
+        <v>3.0000000000000027</v>
       </c>
       <c r="F246" s="49" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G246" s="49"/>
     </row>
@@ -8176,141 +8234,142 @@
       <c r="B247" s="49"/>
       <c r="C247" s="49"/>
       <c r="D247" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="E247" s="61">
+        <v>12000</v>
+      </c>
+      <c r="F247" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="G247" s="49"/>
+    </row>
+    <row r="248" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B248" s="49"/>
+      <c r="C248" s="49"/>
+      <c r="D248" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="E247" s="49">
-        <f>E246*E245</f>
+      <c r="E248" s="49">
+        <f>E247*E246</f>
         <v>36000.000000000029</v>
       </c>
-      <c r="F247" s="49"/>
-      <c r="G247" s="49"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="151" t="s">
+      <c r="F248" s="49"/>
+      <c r="G248" s="49"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="148" t="s">
         <v>694</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="151" t="s">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="148" t="s">
         <v>694</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B252" s="31" t="s">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B253" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="C252" s="31"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B253" s="6" t="s">
+      <c r="C253" s="31"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B254" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6" t="s">
+      <c r="C254" s="6"/>
+      <c r="D254" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E253" s="6" t="s">
+      <c r="E254" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B254" s="116" t="s">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B255" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="C254" s="116" t="s">
+      <c r="C255" s="116" t="s">
         <v>691</v>
       </c>
-      <c r="D254" s="7" t="s">
+      <c r="D255" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E254" s="6" t="s">
+      <c r="E255" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B255" s="116" t="s">
+    <row r="256" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B256" s="116" t="s">
         <v>345</v>
       </c>
-      <c r="C255" s="116" t="s">
+      <c r="C256" s="116" t="s">
         <v>692</v>
       </c>
-      <c r="D255" s="7" t="s">
+      <c r="D256" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="E255" s="6">
+      <c r="E256" s="6">
         <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B256" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="C256" s="116" t="s">
-        <v>688</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E256" s="6">
-        <v>11500</v>
       </c>
     </row>
     <row r="257" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B257" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="C257" s="116" t="s">
+        <v>688</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E257" s="6">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B258" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="C257" s="116" t="s">
+      <c r="C258" s="116" t="s">
         <v>693</v>
       </c>
-      <c r="D257" s="7" t="s">
+      <c r="D258" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="E257" s="6">
-        <f>E256*E255</f>
+      <c r="E258" s="6">
+        <f>E257*E256</f>
         <v>34500</v>
       </c>
     </row>
-    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="26" t="s">
+    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B260" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="C259" s="26"/>
-    </row>
-    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B260" s="31" t="s">
+      <c r="C260" s="26"/>
+    </row>
+    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B261" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C260" s="31"/>
-    </row>
-    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B261" s="1" t="s">
+      <c r="C261" s="31"/>
+    </row>
+    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="262" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B262" s="44" t="s">
+    <row r="263" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B263" s="44" t="s">
         <v>350</v>
       </c>
-      <c r="C262" s="44"/>
-      <c r="F262" s="49"/>
-      <c r="G262" s="49"/>
-      <c r="H262" s="49"/>
-      <c r="I262" s="49"/>
-      <c r="J262" s="49"/>
-      <c r="K262" s="49"/>
-      <c r="L262" s="49"/>
-      <c r="M262" s="49"/>
-    </row>
-    <row r="263" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B263" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C263" s="44"/>
       <c r="F263" s="49"/>
       <c r="G263" s="49"/>
       <c r="H263" s="49"/>
@@ -8322,7 +8381,7 @@
     </row>
     <row r="264" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B264" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F264" s="49"/>
       <c r="G264" s="49"/>
@@ -8335,7 +8394,7 @@
     </row>
     <row r="265" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B265" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F265" s="49"/>
       <c r="G265" s="49"/>
@@ -8347,15 +8406,13 @@
       <c r="M265" s="49"/>
     </row>
     <row r="266" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B266" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="C266" s="25"/>
-      <c r="E266" s="33"/>
-      <c r="F266" s="66"/>
+      <c r="B266" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F266" s="49"/>
       <c r="G266" s="49"/>
       <c r="H266" s="49"/>
-      <c r="I266" s="66"/>
+      <c r="I266" s="49"/>
       <c r="J266" s="49"/>
       <c r="K266" s="49"/>
       <c r="L266" s="49"/>
@@ -8363,39 +8420,41 @@
     </row>
     <row r="267" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B267" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C267" s="25"/>
       <c r="E267" s="33"/>
       <c r="F267" s="66"/>
       <c r="G267" s="49"/>
-      <c r="H267" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="I267" s="49"/>
+      <c r="H267" s="49"/>
+      <c r="I267" s="66"/>
       <c r="J267" s="49"/>
+      <c r="K267" s="49"/>
       <c r="L267" s="49"/>
       <c r="M267" s="49"/>
     </row>
     <row r="268" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B268" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F268" s="49"/>
+        <v>359</v>
+      </c>
+      <c r="C268" s="25"/>
+      <c r="E268" s="33"/>
+      <c r="F268" s="66"/>
       <c r="G268" s="49"/>
-      <c r="H268" s="49"/>
+      <c r="H268" s="49" t="s">
+        <v>354</v>
+      </c>
       <c r="I268" s="49"/>
       <c r="J268" s="49"/>
-      <c r="K268" s="49"/>
       <c r="L268" s="49"/>
       <c r="M268" s="49"/>
     </row>
     <row r="269" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B269" s="1" t="s">
-        <v>356</v>
+      <c r="B269" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="F269" s="49"/>
       <c r="G269" s="49"/>
@@ -8407,10 +8466,9 @@
       <c r="M269" s="49"/>
     </row>
     <row r="270" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B270" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C270" s="33"/>
+      <c r="B270" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="F270" s="49"/>
       <c r="G270" s="49"/>
       <c r="H270" s="49"/>
@@ -8420,371 +8478,373 @@
       <c r="L270" s="49"/>
       <c r="M270" s="49"/>
     </row>
-    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B271" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>394</v>
-      </c>
+    <row r="271" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B271" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C271" s="33"/>
+      <c r="F271" s="49"/>
+      <c r="G271" s="49"/>
+      <c r="H271" s="49"/>
+      <c r="I271" s="49"/>
+      <c r="J271" s="49"/>
+      <c r="K271" s="49"/>
+      <c r="L271" s="49"/>
+      <c r="M271" s="49"/>
     </row>
     <row r="272" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
-        <v>213</v>
+        <v>391</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>366</v>
+        <v>213</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C279" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="151" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="148" t="s">
         <v>698</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B280" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>397</v>
+        <v>378</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C283" s="1" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B284" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" s="1" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B290" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B293" s="44" t="s">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B294" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="C293" s="44"/>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B294" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D294" s="1">
-        <v>10000</v>
-      </c>
+      <c r="C294" s="44"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="D295" s="1">
-        <v>12000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D296" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B297" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D296" s="1">
+      <c r="D297" s="1">
         <f>12*449</f>
         <v>5388</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B297" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D297" s="1">
-        <v>2237</v>
-      </c>
-    </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>409</v>
+        <v>39</v>
+      </c>
+      <c r="D298" s="1">
+        <v>2237</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D299" s="1">
-        <v>52</v>
+        <v>81</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D300" s="1">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D301" s="39">
-        <v>1</v>
+        <v>404</v>
+      </c>
+      <c r="D301" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D302" s="64">
-        <f>D300*2%*D301</f>
-        <v>0.5</v>
+        <v>408</v>
+      </c>
+      <c r="D302" s="39">
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D303" s="14">
-        <f>D302*(D294+1/12*D296+1/12*D297)</f>
-        <v>5317.708333333333</v>
+        <v>406</v>
+      </c>
+      <c r="D303" s="64">
+        <f>D301*2%*D302</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D304" s="14">
+        <f>D303*(D295+1/12*D297+1/12*D298)</f>
+        <v>5317.708333333333</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D304" s="64">
-        <f>D302+(60-D299)*2%*D301</f>
+      <c r="D305" s="64">
+        <f>D303+(60-D300)*2%*D302</f>
         <v>0.66</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B305" s="1" t="s">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D305" s="1">
-        <f>D304*(D295+1/12*D296+1/12*D297)</f>
+      <c r="D306" s="1">
+        <f>D305*(D296+1/12*D297+1/12*D298)</f>
         <v>8339.375</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B306" s="1" t="s">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B307" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D306" s="14">
-        <f>D305-D303</f>
+      <c r="D307" s="14">
+        <f>D306-D304</f>
         <v>3021.666666666667</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B307" s="1" t="s">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D307" s="1">
-        <f>D305*0.6-D303*0.6</f>
+      <c r="D308" s="1">
+        <f>D306*0.6-D304*0.6</f>
         <v>1813.0000000000005</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B308" s="1" t="s">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B309" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D308" s="77">
+      <c r="D309" s="77">
         <v>7.3090000000000002</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B309" s="1" t="s">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B310" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D309" s="77">
+      <c r="D310" s="77">
         <v>2.093</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B310" s="1" t="s">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B311" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D310" s="14">
-        <f>D308*12*D306</f>
+      <c r="D311" s="14">
+        <f>D309*12*D307</f>
         <v>265024.34000000003</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B311" s="1" t="s">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B312" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D311" s="14">
-        <f>D309*D307*12</f>
+      <c r="D312" s="14">
+        <f>D310*D308*12</f>
         <v>45535.308000000012</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B312" s="1" t="s">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B313" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D312" s="14">
-        <f>D311+D310</f>
+      <c r="D313" s="14">
+        <f>D312+D311</f>
         <v>310559.64800000004</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B314" s="1" t="s">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D314" s="14">
-        <f>(D294+1/12*D296+1/12*D297)*12</f>
+      <c r="D315" s="14">
+        <f>(D295+1/12*D297+1/12*D298)*12</f>
         <v>127625</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B315" s="1" t="s">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B316" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D315" s="14">
-        <f>(D294+1/12*D296+1/12*D297)*0.5*24</f>
+      <c r="D316" s="14">
+        <f>(D295+1/12*D297+1/12*D298)*0.5*24</f>
         <v>127625</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B317" s="1" t="s">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B318" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B319" s="31" t="s">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B320" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="C319" s="31"/>
-    </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B320" s="6" t="s">
+      <c r="C320" s="31"/>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B321" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C320" s="6"/>
-      <c r="D320" s="6" t="s">
+      <c r="C321" s="6"/>
+      <c r="D321" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E320" s="6" t="s">
+      <c r="E321" s="6" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B321" s="116" t="s">
-        <v>419</v>
-      </c>
-      <c r="C321" s="116" t="s">
-        <v>695</v>
-      </c>
-      <c r="D321" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E321" s="6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="116" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C322" s="116" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E322" s="6"/>
+        <v>420</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="116" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C323" s="116" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>424</v>
@@ -8792,220 +8852,226 @@
       <c r="E323" s="6"/>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B324" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C324" s="6"/>
+      <c r="B324" s="116" t="s">
+        <v>422</v>
+      </c>
+      <c r="C324" s="116" t="s">
+        <v>697</v>
+      </c>
       <c r="D324" s="7" t="s">
         <v>424</v>
       </c>
       <c r="E324" s="6"/>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B325" s="116" t="s">
+      <c r="B325" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C325" s="6"/>
+      <c r="D325" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E325" s="6"/>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B326" s="116" t="s">
         <v>425</v>
       </c>
-      <c r="C325" s="116" t="s">
+      <c r="C326" s="116" t="s">
         <v>699</v>
       </c>
-      <c r="D325" s="7" t="s">
+      <c r="D326" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="E325" s="6"/>
-    </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B327" s="78" t="s">
+      <c r="E326" s="6"/>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B328" s="78" t="s">
         <v>427</v>
       </c>
-      <c r="C327" s="78"/>
-      <c r="D327" s="78"/>
-      <c r="E327" s="78"/>
-      <c r="F327" s="78"/>
-      <c r="G327" s="78"/>
-    </row>
-    <row r="328" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="106" t="s">
+      <c r="C328" s="78"/>
+      <c r="D328" s="78"/>
+      <c r="E328" s="78"/>
+      <c r="F328" s="78"/>
+      <c r="G328" s="78"/>
+    </row>
+    <row r="329" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="106" t="s">
         <v>589</v>
       </c>
-      <c r="C329" s="106"/>
-    </row>
-    <row r="330" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="33" t="s">
-        <v>590</v>
-      </c>
+      <c r="C330" s="106"/>
     </row>
     <row r="331" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="332" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B332" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="D332" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="E332" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F332" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G332" s="33" t="s">
-        <v>62</v>
+        <v>591</v>
       </c>
     </row>
     <row r="333" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B333" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D333" s="107">
-        <v>9500</v>
-      </c>
-      <c r="E333" s="108">
-        <v>34700</v>
-      </c>
-      <c r="F333" s="108">
-        <v>39447</v>
-      </c>
-      <c r="G333" s="107">
-        <f>(F333-E333)/365</f>
-        <v>13.005479452054795</v>
+        <v>174</v>
+      </c>
+      <c r="D333" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="E333" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F333" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G333" s="33" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="334" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B334" s="33" t="s">
-        <v>592</v>
+        <v>113</v>
       </c>
       <c r="D334" s="107">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="E334" s="108">
-        <v>39448</v>
+        <v>34700</v>
       </c>
       <c r="F334" s="108">
-        <v>45291</v>
+        <v>39447</v>
       </c>
       <c r="G334" s="107">
         <f>(F334-E334)/365</f>
+        <v>13.005479452054795</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="D335" s="107">
+        <v>18000</v>
+      </c>
+      <c r="E335" s="108">
+        <v>39448</v>
+      </c>
+      <c r="F335" s="108">
+        <v>45291</v>
+      </c>
+      <c r="G335" s="107">
+        <f>(F335-E335)/365</f>
         <v>16.008219178082193</v>
       </c>
     </row>
-    <row r="335" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G335" s="109">
-        <f>SUM(G333:G334)</f>
+    <row r="336" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G336" s="109">
+        <f>SUM(G334:G335)</f>
         <v>29.013698630136986</v>
       </c>
     </row>
-    <row r="336" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="33" t="s">
+    <row r="337" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="D336" s="109">
-        <f>D333*G333/G335+D334*G334/G335</f>
+      <c r="D337" s="109">
+        <f>D334*G334/G336+D335*G335/G336</f>
         <v>14189.848914069877</v>
       </c>
-      <c r="E336" s="33" t="s">
+      <c r="E337" s="33" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="337" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="31" t="s">
+    <row r="338" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="31" t="s">
         <v>596</v>
       </c>
-      <c r="C337" s="31"/>
-      <c r="D337" s="1"/>
-      <c r="E337" s="1"/>
-    </row>
-    <row r="338" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C338" s="6"/>
-      <c r="D338" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E338" s="6" t="s">
-        <v>250</v>
-      </c>
+      <c r="C338" s="31"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
     </row>
     <row r="339" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C339" s="6"/>
+      <c r="D339" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E339" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="C339" s="6"/>
-      <c r="D339" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E339" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="340" spans="2:5" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B340" s="6" t="s">
-        <v>597</v>
       </c>
       <c r="C340" s="6"/>
       <c r="D340" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="E340" s="111">
-        <v>14189.85</v>
-      </c>
-    </row>
-    <row r="341" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="E340" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B341" s="6" t="s">
-        <v>421</v>
+        <v>597</v>
       </c>
       <c r="C341" s="6"/>
       <c r="D341" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E341" s="6">
-        <f>E340*12</f>
-        <v>170278.2</v>
+        <v>598</v>
+      </c>
+      <c r="E341" s="111">
+        <v>14189.85</v>
       </c>
     </row>
     <row r="342" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B342" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C342" s="6"/>
       <c r="D342" s="7" t="s">
         <v>424</v>
       </c>
       <c r="E342" s="6">
-        <f>E340*24/2</f>
+        <f>E341*12</f>
         <v>170278.2</v>
       </c>
     </row>
     <row r="343" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B343" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C343" s="6"/>
       <c r="D343" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="E343" s="6"/>
-    </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E343" s="6">
+        <f>E341*24/2</f>
+        <v>170278.2</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B344" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C344" s="6"/>
       <c r="D344" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E344" s="6"/>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B345" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C345" s="6"/>
+      <c r="D345" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="E344" s="6"/>
-    </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B345" s="62"/>
-      <c r="C345" s="62"/>
-      <c r="D345" s="110"/>
-      <c r="E345" s="62"/>
+      <c r="E345" s="6"/>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B346" s="62"/>
@@ -9014,109 +9080,97 @@
       <c r="E346" s="62"/>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B347" s="26" t="s">
+      <c r="B347" s="62"/>
+      <c r="C347" s="62"/>
+      <c r="D347" s="110"/>
+      <c r="E347" s="62"/>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B348" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="C347" s="26"/>
-    </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B348" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="C348" s="26"/>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B350" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B351" s="31" t="s">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B352" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="C351" s="31"/>
-    </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B352" s="6" t="s">
+      <c r="C352" s="31"/>
+    </row>
+    <row r="353" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B353" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C352" s="6"/>
-      <c r="D352" s="6" t="s">
+      <c r="C353" s="6"/>
+      <c r="D353" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E352" s="6" t="s">
+      <c r="E353" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="353" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B353" s="113" t="s">
+    <row r="354" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B354" s="113" t="s">
         <v>433</v>
       </c>
-      <c r="C353" s="113" t="s">
+      <c r="C354" s="113" t="s">
         <v>611</v>
       </c>
-      <c r="D353" s="7" t="s">
+      <c r="D354" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="E353" s="6" t="s">
+      <c r="E354" s="6" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="354" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B354" s="116" t="s">
-        <v>435</v>
-      </c>
-      <c r="C354" s="116" t="s">
-        <v>688</v>
-      </c>
-      <c r="D354" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="E354" s="6">
-        <v>8000</v>
       </c>
     </row>
     <row r="355" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B355" s="116" t="s">
+        <v>435</v>
+      </c>
+      <c r="C355" s="116" t="s">
+        <v>688</v>
+      </c>
+      <c r="D355" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E355" s="6">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="356" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B356" s="116" t="s">
         <v>437</v>
       </c>
-      <c r="C355" s="116" t="s">
+      <c r="C356" s="116" t="s">
         <v>700</v>
       </c>
-      <c r="D355" s="7" t="s">
+      <c r="D356" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="E355" s="6">
-        <f>E354*1</f>
+      <c r="E356" s="6">
+        <f>E355*1</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="357" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B357" s="26" t="s">
+    <row r="358" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B358" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="C357" s="26"/>
-    </row>
-    <row r="358" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B358" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="C358" s="49"/>
-      <c r="D358" s="79"/>
-      <c r="E358" s="49"/>
-      <c r="F358" s="49"/>
-      <c r="G358" s="49"/>
-      <c r="H358" s="49"/>
-      <c r="I358" s="49"/>
-      <c r="J358" s="49"/>
-      <c r="K358" s="49"/>
-      <c r="L358" s="49"/>
-      <c r="M358" s="49"/>
-      <c r="N358" s="49"/>
-      <c r="O358" s="49"/>
+      <c r="C358" s="26"/>
     </row>
     <row r="359" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B359" s="49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C359" s="49"/>
       <c r="D359" s="79"/>
@@ -9134,12 +9188,11 @@
     </row>
     <row r="360" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B360" s="49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C360" s="49"/>
-      <c r="D360" s="82" t="s">
-        <v>443</v>
-      </c>
+      <c r="D360" s="79"/>
+      <c r="E360" s="49"/>
       <c r="F360" s="49"/>
       <c r="G360" s="49"/>
       <c r="H360" s="49"/>
@@ -9153,13 +9206,11 @@
     </row>
     <row r="361" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B361" s="49" t="s">
-        <v>444</v>
-      </c>
-      <c r="C361" s="49">
-        <v>1603</v>
-      </c>
-      <c r="D361" s="49" t="s">
-        <v>452</v>
+        <v>442</v>
+      </c>
+      <c r="C361" s="49"/>
+      <c r="D361" s="82" t="s">
+        <v>443</v>
       </c>
       <c r="F361" s="49"/>
       <c r="G361" s="49"/>
@@ -9174,10 +9225,10 @@
     </row>
     <row r="362" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B362" s="49" t="s">
-        <v>43</v>
+        <v>444</v>
       </c>
       <c r="C362" s="49">
-        <v>2237</v>
+        <v>1603</v>
       </c>
       <c r="D362" s="49" t="s">
         <v>452</v>
@@ -9195,11 +9246,14 @@
     </row>
     <row r="363" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B363" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="C363" s="49"/>
-      <c r="D363" s="79"/>
-      <c r="E363" s="49"/>
+        <v>43</v>
+      </c>
+      <c r="C363" s="49">
+        <v>2237</v>
+      </c>
+      <c r="D363" s="49" t="s">
+        <v>452</v>
+      </c>
       <c r="F363" s="49"/>
       <c r="G363" s="49"/>
       <c r="H363" s="49"/>
@@ -9213,7 +9267,7 @@
     </row>
     <row r="364" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B364" s="49" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C364" s="49"/>
       <c r="D364" s="79"/>
@@ -9231,7 +9285,7 @@
     </row>
     <row r="365" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B365" s="49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C365" s="49"/>
       <c r="D365" s="79"/>
@@ -9249,7 +9303,7 @@
     </row>
     <row r="366" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B366" s="49" t="s">
-        <v>565</v>
+        <v>447</v>
       </c>
       <c r="C366" s="49"/>
       <c r="D366" s="79"/>
@@ -9267,14 +9321,11 @@
     </row>
     <row r="367" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B367" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="C367" s="49">
-        <v>2237</v>
-      </c>
-      <c r="D367" s="80" t="s">
-        <v>562</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="C367" s="49"/>
+      <c r="D367" s="79"/>
+      <c r="E367" s="49"/>
       <c r="F367" s="49"/>
       <c r="G367" s="49"/>
       <c r="H367" s="49"/>
@@ -9288,13 +9339,13 @@
     </row>
     <row r="368" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B368" s="49" t="s">
-        <v>563</v>
+        <v>448</v>
       </c>
       <c r="C368" s="49">
         <v>2237</v>
       </c>
-      <c r="D368" s="49" t="s">
-        <v>449</v>
+      <c r="D368" s="80" t="s">
+        <v>562</v>
       </c>
       <c r="F368" s="49"/>
       <c r="G368" s="49"/>
@@ -9308,10 +9359,15 @@
       <c r="O368" s="49"/>
     </row>
     <row r="369" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B369" s="49"/>
-      <c r="C369" s="49"/>
-      <c r="D369" s="79"/>
-      <c r="E369" s="49"/>
+      <c r="B369" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="C369" s="49">
+        <v>2237</v>
+      </c>
+      <c r="D369" s="49" t="s">
+        <v>449</v>
+      </c>
       <c r="F369" s="49"/>
       <c r="G369" s="49"/>
       <c r="H369" s="49"/>
@@ -9324,17 +9380,13 @@
       <c r="O369" s="49"/>
     </row>
     <row r="370" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B370" s="49" t="s">
-        <v>450</v>
-      </c>
+      <c r="B370" s="49"/>
       <c r="C370" s="49"/>
       <c r="D370" s="79"/>
       <c r="E370" s="49"/>
       <c r="F370" s="49"/>
       <c r="G370" s="49"/>
-      <c r="H370" s="81" t="s">
-        <v>451</v>
-      </c>
+      <c r="H370" s="49"/>
       <c r="I370" s="49"/>
       <c r="J370" s="49"/>
       <c r="K370" s="49"/>
@@ -9344,13 +9396,17 @@
       <c r="O370" s="49"/>
     </row>
     <row r="371" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B371" s="49"/>
+      <c r="B371" s="49" t="s">
+        <v>450</v>
+      </c>
       <c r="C371" s="49"/>
       <c r="D371" s="79"/>
       <c r="E371" s="49"/>
       <c r="F371" s="49"/>
       <c r="G371" s="49"/>
-      <c r="H371" s="49"/>
+      <c r="H371" s="81" t="s">
+        <v>451</v>
+      </c>
       <c r="I371" s="49"/>
       <c r="J371" s="49"/>
       <c r="K371" s="49"/>
@@ -9359,326 +9415,366 @@
       <c r="N371" s="49"/>
       <c r="O371" s="49"/>
     </row>
-    <row r="372" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B372" s="31" t="s">
+    <row r="372" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B372" s="49"/>
+      <c r="C372" s="49"/>
+      <c r="D372" s="79"/>
+      <c r="E372" s="49"/>
+      <c r="F372" s="49"/>
+      <c r="G372" s="49"/>
+      <c r="H372" s="49"/>
+      <c r="I372" s="49"/>
+      <c r="J372" s="49"/>
+      <c r="K372" s="49"/>
+      <c r="L372" s="49"/>
+      <c r="M372" s="49"/>
+      <c r="N372" s="49"/>
+      <c r="O372" s="49"/>
+    </row>
+    <row r="373" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B373" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="C372" s="31"/>
-    </row>
-    <row r="373" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B373" s="6" t="s">
+      <c r="C373" s="31"/>
+    </row>
+    <row r="374" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B374" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C373" s="6"/>
-      <c r="D373" s="6" t="s">
+      <c r="C374" s="6"/>
+      <c r="D374" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E373" s="6" t="s">
+      <c r="E374" s="6" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="374" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B374" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="C374" s="113" t="s">
-        <v>615</v>
-      </c>
-      <c r="D374" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E374" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="375" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B375" s="113" t="s">
-        <v>488</v>
+        <v>37</v>
       </c>
       <c r="C375" s="113" t="s">
-        <v>703</v>
+        <v>615</v>
       </c>
       <c r="D375" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="E375" s="40">
-        <v>0.8</v>
+        <v>167</v>
+      </c>
+      <c r="E375" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="376" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B376" s="113" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C376" s="113" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D376" s="7" t="s">
         <v>490</v>
       </c>
       <c r="E376" s="40">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="377" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B377" s="113" t="s">
+        <v>489</v>
+      </c>
+      <c r="C377" s="113" t="s">
+        <v>704</v>
+      </c>
+      <c r="D377" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E377" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:15" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B377" s="113" t="s">
+    <row r="378" spans="2:15" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="B378" s="113" t="s">
         <v>491</v>
       </c>
-      <c r="C377" s="113" t="s">
+      <c r="C378" s="113" t="s">
         <v>705</v>
       </c>
-      <c r="D377" s="7" t="s">
+      <c r="D378" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E377" s="6">
+      <c r="E378" s="6">
         <v>0</v>
-      </c>
-      <c r="F377" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="378" spans="2:15" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B378" s="113" t="s">
-        <v>493</v>
-      </c>
-      <c r="C378" s="113" t="s">
-        <v>706</v>
-      </c>
-      <c r="D378" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E378" s="6">
-        <f>2237*E375</f>
-        <v>1789.6000000000001</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="381" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B381" s="26" t="s">
+    <row r="379" spans="2:15" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B379" s="113" t="s">
+        <v>493</v>
+      </c>
+      <c r="C379" s="113" t="s">
+        <v>706</v>
+      </c>
+      <c r="D379" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E379" s="6">
+        <f>2237*E376</f>
+        <v>1789.6000000000001</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="382" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B382" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="C381" s="26"/>
-    </row>
-    <row r="382" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B382" s="49" t="s">
-        <v>568</v>
-      </c>
-      <c r="C382" s="49"/>
+      <c r="C382" s="26" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="383" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B383" s="49" t="s">
-        <v>496</v>
+        <v>568</v>
       </c>
       <c r="C383" s="49"/>
     </row>
     <row r="384" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B384" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="C384" s="49"/>
+    </row>
+    <row r="385" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B385" s="49" t="s">
         <v>502</v>
       </c>
-      <c r="C384" s="49"/>
-    </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B387" s="31" t="s">
+      <c r="C385" s="49"/>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B388" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="C387" s="31"/>
-    </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B388" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C388" s="6"/>
-      <c r="D388" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E388" s="6" t="s">
-        <v>250</v>
-      </c>
+      <c r="C388" s="31"/>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C389" s="6"/>
+      <c r="D389" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E389" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B390" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="C389" s="6"/>
-      <c r="D389" s="7" t="s">
+      <c r="C390" s="113" t="s">
+        <v>619</v>
+      </c>
+      <c r="D390" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E389" s="6" t="s">
+      <c r="E390" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B390" s="6" t="s">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B391" s="113" t="s">
         <v>489</v>
       </c>
-      <c r="C390" s="6"/>
-      <c r="D390" s="7" t="s">
+      <c r="C391" s="113" t="s">
+        <v>701</v>
+      </c>
+      <c r="D391" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="E390" s="40">
+      <c r="E391" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="2:5" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B391" s="6" t="s">
+    <row r="392" spans="2:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="B392" s="116" t="s">
         <v>498</v>
       </c>
-      <c r="C391" s="6"/>
-      <c r="D391" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E391" s="6">
+      <c r="C392" s="116" t="s">
+        <v>708</v>
+      </c>
+      <c r="D392" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="E392" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B392" s="7" t="s">
+    <row r="393" spans="2:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="B393" s="153" t="s">
         <v>504</v>
       </c>
-      <c r="C392" s="7"/>
-      <c r="D392" s="7"/>
-      <c r="E392" s="6"/>
-    </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B394" s="56" t="s">
+      <c r="C393" s="153" t="s">
+        <v>710</v>
+      </c>
+      <c r="D393" s="7"/>
+      <c r="E393" s="6"/>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B395" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="C394" s="56"/>
-    </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B395" s="31" t="s">
+      <c r="C395" s="56"/>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B396" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C395" s="31"/>
-    </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B396" s="1" t="s">
-        <v>506</v>
-      </c>
+      <c r="C396" s="31"/>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B398" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B399" s="31" t="s">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B400" s="31" t="s">
         <v>508</v>
       </c>
-      <c r="C399" s="31"/>
-    </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B400" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C400" s="6"/>
-      <c r="D400" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E400" s="6" t="s">
-        <v>250</v>
-      </c>
+      <c r="C400" s="31"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B401" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C401" s="6"/>
+      <c r="D401" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E401" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B402" s="113" t="s">
         <v>509</v>
       </c>
-      <c r="C401" s="6"/>
-      <c r="D401" s="7" t="s">
+      <c r="C402" s="113" t="s">
+        <v>711</v>
+      </c>
+      <c r="D402" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="E401" s="6">
+      <c r="E402" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B402" s="6" t="s">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B403" s="116" t="s">
         <v>408</v>
       </c>
-      <c r="C402" s="6"/>
-      <c r="D402" s="7" t="s">
+      <c r="C403" s="116" t="s">
+        <v>713</v>
+      </c>
+      <c r="D403" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="E402" s="40">
+      <c r="E403" s="40">
         <v>0.25</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B403" s="6" t="s">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B404" s="116" t="s">
         <v>510</v>
       </c>
-      <c r="C403" s="6"/>
-      <c r="D403" s="7" t="s">
+      <c r="C404" s="116" t="s">
+        <v>688</v>
+      </c>
+      <c r="D404" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E403" s="47">
+      <c r="E404" s="47">
         <v>12000</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B404" s="6" t="s">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B405" s="116" t="s">
         <v>512</v>
       </c>
-      <c r="C404" s="6"/>
-      <c r="D404" s="7" t="s">
+      <c r="C405" s="116" t="s">
+        <v>714</v>
+      </c>
+      <c r="D405" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E404" s="47">
-        <f>E403*E401*E402</f>
+      <c r="E405" s="47">
+        <f>E404*E402*E403</f>
         <v>6000</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="15"/>
-      <c r="B407" s="85" t="s">
-        <v>515</v>
-      </c>
-      <c r="C407" s="85"/>
-      <c r="E407" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="15"/>
-      <c r="B408" s="86" t="s">
-        <v>516</v>
-      </c>
-      <c r="C408" s="86"/>
+      <c r="B408" s="85" t="s">
+        <v>515</v>
+      </c>
+      <c r="C408" s="85"/>
+      <c r="E408" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="15"/>
-      <c r="B409" s="86"/>
+      <c r="B409" s="86" t="s">
+        <v>516</v>
+      </c>
       <c r="C409" s="86"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B410" s="6" t="s">
+      <c r="A410" s="15"/>
+      <c r="B410" s="154" t="s">
+        <v>715</v>
+      </c>
+      <c r="C410" s="86"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B411" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="C410" s="6"/>
-      <c r="D410" s="6" t="s">
+      <c r="C411" s="113" t="s">
+        <v>659</v>
+      </c>
+      <c r="D411" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E410" s="1">
+      <c r="E411" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B411" s="6" t="s">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B412" s="113" t="s">
         <v>517</v>
       </c>
-      <c r="C411" s="6"/>
-      <c r="D411" s="6" t="s">
+      <c r="C412" s="113" t="s">
+        <v>716</v>
+      </c>
+      <c r="D412" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="E411" s="1">
-        <f>E410*3</f>
+      <c r="E412" s="1">
+        <f>E411*3</f>
         <v>30000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D137:D144"/>
+    <mergeCell ref="D138:D145"/>
     <mergeCell ref="G6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
